--- a/benchmarks/summary_seq.xlsx
+++ b/benchmarks/summary_seq.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -203,7 +203,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">In the benchmarks SQUARNA utilized the faster running config long.conf for the sequences longer than 500 nts, as the def.conf and alt.conf configs can take days to run on long sequences</t>
+      <t xml:space="preserve">In the benchmarks SQUARNA utilized the faster running config long.conf for the sequences longer than 1000 nts, as the def.conf and alt.conf configs can take days to run on long sequences</t>
     </r>
   </si>
   <si>
@@ -607,7 +607,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="J66" activeCellId="0" sqref="J66"/>
@@ -4103,15 +4103,15 @@
   </sheetPr>
   <dimension ref="A2:I27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M19" activeCellId="0" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="6" width="14.88"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="6" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="13.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="6" width="13.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="11.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="11.52"/>

--- a/benchmarks/summary_seq.xlsx
+++ b/benchmarks/summary_seq.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="45">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -39,6 +39,9 @@
     <t xml:space="preserve">IPknot</t>
   </si>
   <si>
+    <t xml:space="preserve">ShapeKnots</t>
+  </si>
+  <si>
     <t xml:space="preserve">MXfold2</t>
   </si>
   <si>
@@ -51,7 +54,7 @@
     <t xml:space="preserve">SQUARNAalt</t>
   </si>
   <si>
-    <t xml:space="preserve">SQUARNAlong</t>
+    <t xml:space="preserve">SQUARNAsk</t>
   </si>
   <si>
     <t xml:space="preserve">SQUARNA5</t>
@@ -60,7 +63,7 @@
     <t xml:space="preserve">SQUARNAalt5</t>
   </si>
   <si>
-    <t xml:space="preserve">SQUARNAlong5</t>
+    <t xml:space="preserve">SQUARNAsk5</t>
   </si>
   <si>
     <t xml:space="preserve">SQUARNAN</t>
@@ -69,7 +72,7 @@
     <t xml:space="preserve">SQUARNAaltN</t>
   </si>
   <si>
-    <t xml:space="preserve">SQUARNAlongN</t>
+    <t xml:space="preserve">SQUARNAskN</t>
   </si>
   <si>
     <t xml:space="preserve">TS1reducedWC</t>
@@ -164,7 +167,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">In the benchmarks SQUARNA utilized the faster running config long.conf for the sequences longer than 500 nts, as the def.conf and alt.conf configs can take days to run on long sequences</t>
+      <t xml:space="preserve">In the benchmarks SQUARNA utilized the faster running configs 500.conf for the sequences longer than 500 nts, and 1000.conf for the sequences longer than 1000 nts, as the def.conf and alt.conf configs can take days to run on long sequences</t>
     </r>
   </si>
   <si>
@@ -613,7 +616,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I18" activeCellId="0" sqref="I18"/>
+      <selection pane="bottomLeft" activeCell="F22" activeCellId="0" sqref="F22:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -621,18 +624,18 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="15.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="17" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="18" style="1" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -657,47 +660,49 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AMG1" s="0"/>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="11" t="n">
         <f aca="false">ROUND(2*D5*D8/(D5+D8),3)</f>
@@ -707,19 +712,19 @@
         <f aca="false">ROUND(2*E5*E8/(E5+E8),3)</f>
         <v>0.742</v>
       </c>
-      <c r="F2" s="11" t="n">
+      <c r="F2" s="11" t="e">
         <f aca="false">ROUND(2*F5*F8/(F5+F8),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G2" s="11" t="n">
+        <f aca="false">ROUND(2*G5*G8/(G5+G8),3)</f>
         <v>0.793</v>
       </c>
-      <c r="G2" s="12" t="n">
-        <f aca="false">ROUND(2*G5*G8/(G5+G8),3)</f>
+      <c r="H2" s="12" t="n">
+        <f aca="false">ROUND(2*H5*H8/(H5+H8),3)</f>
         <v>0.819</v>
       </c>
-      <c r="H2" s="13" t="e">
-        <f aca="false">ROUND(2*H5*H8/(H5+H8),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I2" s="11" t="e">
+      <c r="I2" s="13" t="e">
         <f aca="false">ROUND(2*I5*I8/(I5+I8),3)</f>
         <v>#DIV/0!</v>
       </c>
@@ -727,19 +732,19 @@
         <f aca="false">ROUND(2*J5*J8/(J5+J8),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K2" s="13" t="e">
+      <c r="K2" s="11" t="e">
         <f aca="false">ROUND(2*K5*K8/(K5+K8),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L2" s="11" t="e">
+      <c r="L2" s="13" t="e">
         <f aca="false">ROUND(2*L5*L8/(L5+L8),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M2" s="14" t="e">
+      <c r="M2" s="11" t="e">
         <f aca="false">ROUND(2*M5*M8/(M5+M8),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N2" s="11" t="e">
+      <c r="N2" s="14" t="e">
         <f aca="false">ROUND(2*N5*N8/(N5+N8),3)</f>
         <v>#DIV/0!</v>
       </c>
@@ -747,8 +752,12 @@
         <f aca="false">ROUND(2*O5*O8/(O5+O8),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P2" s="14" t="e">
+      <c r="P2" s="11" t="e">
         <f aca="false">ROUND(2*P5*P8/(P5+P8),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q2" s="14" t="e">
+        <f aca="false">ROUND(2*Q5*Q8/(Q5+Q8),3)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -756,7 +765,7 @@
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="11" t="n">
         <f aca="false">ROUND(2*D6*D9/(D6+D9),3)</f>
@@ -766,19 +775,19 @@
         <f aca="false">ROUND(2*E6*E9/(E6+E9),3)</f>
         <v>0.765</v>
       </c>
-      <c r="F3" s="11" t="n">
+      <c r="F3" s="11" t="e">
         <f aca="false">ROUND(2*F6*F9/(F6+F9),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G3" s="11" t="n">
+        <f aca="false">ROUND(2*G6*G9/(G6+G9),3)</f>
         <v>0.805</v>
       </c>
-      <c r="G3" s="12" t="n">
-        <f aca="false">ROUND(2*G6*G9/(G6+G9),3)</f>
+      <c r="H3" s="12" t="n">
+        <f aca="false">ROUND(2*H6*H9/(H6+H9),3)</f>
         <v>0.865</v>
       </c>
-      <c r="H3" s="13" t="e">
-        <f aca="false">ROUND(2*H6*H9/(H6+H9),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I3" s="11" t="e">
+      <c r="I3" s="13" t="e">
         <f aca="false">ROUND(2*I6*I9/(I6+I9),3)</f>
         <v>#DIV/0!</v>
       </c>
@@ -786,19 +795,19 @@
         <f aca="false">ROUND(2*J6*J9/(J6+J9),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="13" t="e">
+      <c r="K3" s="11" t="e">
         <f aca="false">ROUND(2*K6*K9/(K6+K9),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L3" s="11" t="e">
+      <c r="L3" s="13" t="e">
         <f aca="false">ROUND(2*L6*L9/(L6+L9),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M3" s="14" t="e">
+      <c r="M3" s="11" t="e">
         <f aca="false">ROUND(2*M6*M9/(M6+M9),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N3" s="11" t="e">
+      <c r="N3" s="14" t="e">
         <f aca="false">ROUND(2*N6*N9/(N6+N9),3)</f>
         <v>#DIV/0!</v>
       </c>
@@ -806,8 +815,12 @@
         <f aca="false">ROUND(2*O6*O9/(O6+O9),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P3" s="14" t="e">
+      <c r="P3" s="11" t="e">
         <f aca="false">ROUND(2*P6*P9/(P6+P9),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q3" s="14" t="e">
+        <f aca="false">ROUND(2*Q6*Q9/(Q6+Q9),3)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -815,7 +828,7 @@
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="11" t="n">
         <f aca="false">ROUND(2*D7*D10/(D7+D10),3)</f>
@@ -825,19 +838,19 @@
         <f aca="false">ROUND(2*E7*E10/(E7+E10),3)</f>
         <v>0.728</v>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="F4" s="11" t="e">
         <f aca="false">ROUND(2*F7*F10/(F7+F10),3)</f>
-        <v>0.789</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="G4" s="12" t="n">
         <f aca="false">ROUND(2*G7*G10/(G7+G10),3)</f>
         <v>0.789</v>
       </c>
-      <c r="H4" s="13" t="e">
+      <c r="H4" s="12" t="n">
         <f aca="false">ROUND(2*H7*H10/(H7+H10),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I4" s="11" t="e">
+        <v>0.789</v>
+      </c>
+      <c r="I4" s="13" t="e">
         <f aca="false">ROUND(2*I7*I10/(I7+I10),3)</f>
         <v>#DIV/0!</v>
       </c>
@@ -845,19 +858,19 @@
         <f aca="false">ROUND(2*J7*J10/(J7+J10),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="13" t="e">
+      <c r="K4" s="11" t="e">
         <f aca="false">ROUND(2*K7*K10/(K7+K10),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="11" t="e">
+      <c r="L4" s="13" t="e">
         <f aca="false">ROUND(2*L7*L10/(L7+L10),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="14" t="e">
+      <c r="M4" s="11" t="e">
         <f aca="false">ROUND(2*M7*M10/(M7+M10),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="11" t="e">
+      <c r="N4" s="14" t="e">
         <f aca="false">ROUND(2*N7*N10/(N7+N10),3)</f>
         <v>#DIV/0!</v>
       </c>
@@ -865,18 +878,22 @@
         <f aca="false">ROUND(2*O7*O10/(O7+O10),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P4" s="14" t="e">
+      <c r="P4" s="11" t="e">
         <f aca="false">ROUND(2*P7*P10/(P7+P10),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q4" s="14" t="e">
+        <f aca="false">ROUND(2*Q7*Q10/(Q7+Q10),3)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
       <c r="B5" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="17" t="n">
         <v>0.721</v>
@@ -884,27 +901,28 @@
       <c r="E5" s="17" t="n">
         <v>0.743</v>
       </c>
-      <c r="F5" s="17" t="n">
+      <c r="F5" s="17"/>
+      <c r="G5" s="17" t="n">
         <v>0.795</v>
       </c>
-      <c r="G5" s="18" t="n">
+      <c r="H5" s="18" t="n">
         <v>0.82</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
+      <c r="I5" s="19"/>
       <c r="J5" s="20"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
       <c r="O5" s="20"/>
-      <c r="P5" s="21"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
       <c r="B6" s="15"/>
       <c r="C6" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="22" t="n">
         <v>0.712</v>
@@ -912,27 +930,28 @@
       <c r="E6" s="22" t="n">
         <v>0.763</v>
       </c>
-      <c r="F6" s="22" t="n">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22" t="n">
         <v>0.809</v>
       </c>
-      <c r="G6" s="23" t="n">
+      <c r="H6" s="23" t="n">
         <v>0.869</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="25"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
       <c r="O6" s="25"/>
-      <c r="P6" s="26"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="26"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
       <c r="B7" s="15"/>
       <c r="C7" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="27" t="n">
         <v>0.731</v>
@@ -940,29 +959,30 @@
       <c r="E7" s="27" t="n">
         <v>0.725</v>
       </c>
-      <c r="F7" s="28" t="n">
+      <c r="F7" s="27"/>
+      <c r="G7" s="28" t="n">
         <v>0.782</v>
       </c>
-      <c r="G7" s="27" t="n">
+      <c r="H7" s="27" t="n">
         <v>0.776</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="30"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="31"/>
       <c r="O7" s="30"/>
-      <c r="P7" s="31"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="31"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="22" t="n">
         <v>0.725</v>
@@ -970,27 +990,28 @@
       <c r="E8" s="22" t="n">
         <v>0.742</v>
       </c>
-      <c r="F8" s="22" t="n">
+      <c r="F8" s="22"/>
+      <c r="G8" s="22" t="n">
         <v>0.792</v>
       </c>
-      <c r="G8" s="23" t="n">
+      <c r="H8" s="23" t="n">
         <v>0.819</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="25"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26"/>
       <c r="O8" s="25"/>
-      <c r="P8" s="26"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="26"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="22" t="n">
         <v>0.724</v>
@@ -998,27 +1019,28 @@
       <c r="E9" s="22" t="n">
         <v>0.768</v>
       </c>
-      <c r="F9" s="22" t="n">
+      <c r="F9" s="22"/>
+      <c r="G9" s="22" t="n">
         <v>0.802</v>
       </c>
-      <c r="G9" s="23" t="n">
+      <c r="H9" s="23" t="n">
         <v>0.862</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="25"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="26"/>
       <c r="O9" s="25"/>
-      <c r="P9" s="26"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="26"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="22" t="n">
         <v>0.737</v>
@@ -1026,26 +1048,27 @@
       <c r="E10" s="22" t="n">
         <v>0.732</v>
       </c>
-      <c r="F10" s="22" t="n">
+      <c r="F10" s="22"/>
+      <c r="G10" s="22" t="n">
         <v>0.796</v>
       </c>
-      <c r="G10" s="22" t="n">
+      <c r="H10" s="22" t="n">
         <v>0.802</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="25"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="26"/>
       <c r="O10" s="25"/>
-      <c r="P10" s="26"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="26"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
       <c r="B11" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="34" t="n">
@@ -1054,49 +1077,50 @@
       <c r="E11" s="34" t="n">
         <v>2.3</v>
       </c>
-      <c r="F11" s="34" t="n">
+      <c r="F11" s="34"/>
+      <c r="G11" s="34" t="n">
         <v>26.5</v>
       </c>
-      <c r="G11" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" s="35" t="n">
+      <c r="H11" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="35" t="n">
         <v>24.6</v>
       </c>
-      <c r="I11" s="36" t="n">
+      <c r="J11" s="36" t="n">
         <v>12.3</v>
       </c>
-      <c r="J11" s="36" t="n">
+      <c r="K11" s="36" t="n">
         <v>7.8</v>
       </c>
-      <c r="K11" s="35" t="n">
+      <c r="L11" s="35" t="n">
         <v>24.8</v>
       </c>
-      <c r="L11" s="36" t="n">
+      <c r="M11" s="36" t="n">
         <v>12.2</v>
       </c>
-      <c r="M11" s="37" t="n">
+      <c r="N11" s="37" t="n">
         <v>7.7</v>
       </c>
-      <c r="N11" s="36" t="n">
+      <c r="O11" s="36" t="n">
         <v>25.6</v>
       </c>
-      <c r="O11" s="36" t="n">
+      <c r="P11" s="36" t="n">
         <v>12.7</v>
       </c>
-      <c r="P11" s="37" t="n">
+      <c r="Q11" s="37" t="n">
         <v>7.8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" s="11" t="n">
         <f aca="false">ROUND(2*D15*D18/(D15+D18),3)</f>
@@ -1106,19 +1130,19 @@
         <f aca="false">ROUND(2*E15*E18/(E15+E18),3)</f>
         <v>0.751</v>
       </c>
-      <c r="F12" s="12" t="n">
+      <c r="F12" s="11" t="e">
         <f aca="false">ROUND(2*F15*F18/(F15+F18),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G12" s="12" t="n">
+        <f aca="false">ROUND(2*G15*G18/(G15+G18),3)</f>
         <v>0.789</v>
       </c>
-      <c r="G12" s="11" t="n">
-        <f aca="false">ROUND(2*G15*G18/(G15+G18),3)</f>
+      <c r="H12" s="11" t="n">
+        <f aca="false">ROUND(2*H15*H18/(H15+H18),3)</f>
         <v>0.774</v>
       </c>
-      <c r="H12" s="13" t="e">
-        <f aca="false">ROUND(2*H15*H18/(H15+H18),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I12" s="11" t="e">
+      <c r="I12" s="13" t="e">
         <f aca="false">ROUND(2*I15*I18/(I15+I18),3)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1126,19 +1150,19 @@
         <f aca="false">ROUND(2*J15*J18/(J15+J18),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="13" t="e">
+      <c r="K12" s="11" t="e">
         <f aca="false">ROUND(2*K15*K18/(K15+K18),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="11" t="e">
+      <c r="L12" s="13" t="e">
         <f aca="false">ROUND(2*L15*L18/(L15+L18),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="14" t="e">
+      <c r="M12" s="11" t="e">
         <f aca="false">ROUND(2*M15*M18/(M15+M18),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="11" t="e">
+      <c r="N12" s="14" t="e">
         <f aca="false">ROUND(2*N15*N18/(N15+N18),3)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1146,8 +1170,12 @@
         <f aca="false">ROUND(2*O15*O18/(O15+O18),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P12" s="14" t="e">
+      <c r="P12" s="11" t="e">
         <f aca="false">ROUND(2*P15*P18/(P15+P18),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q12" s="14" t="e">
+        <f aca="false">ROUND(2*Q15*Q18/(Q15+Q18),3)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1155,7 +1183,7 @@
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="11" t="n">
         <f aca="false">ROUND(2*D16*D19/(D16+D19),3)</f>
@@ -1165,19 +1193,19 @@
         <f aca="false">ROUND(2*E16*E19/(E16+E19),3)</f>
         <v>0.78</v>
       </c>
-      <c r="F13" s="11" t="n">
+      <c r="F13" s="11" t="e">
         <f aca="false">ROUND(2*F16*F19/(F16+F19),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="11" t="n">
+        <f aca="false">ROUND(2*G16*G19/(G16+G19),3)</f>
         <v>0.783</v>
       </c>
-      <c r="G13" s="12" t="n">
-        <f aca="false">ROUND(2*G16*G19/(G16+G19),3)</f>
+      <c r="H13" s="12" t="n">
+        <f aca="false">ROUND(2*H16*H19/(H16+H19),3)</f>
         <v>0.812</v>
       </c>
-      <c r="H13" s="13" t="e">
-        <f aca="false">ROUND(2*H16*H19/(H16+H19),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="11" t="e">
+      <c r="I13" s="13" t="e">
         <f aca="false">ROUND(2*I16*I19/(I16+I19),3)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1185,19 +1213,19 @@
         <f aca="false">ROUND(2*J16*J19/(J16+J19),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="13" t="e">
+      <c r="K13" s="11" t="e">
         <f aca="false">ROUND(2*K16*K19/(K16+K19),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="11" t="e">
+      <c r="L13" s="13" t="e">
         <f aca="false">ROUND(2*L16*L19/(L16+L19),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M13" s="14" t="e">
+      <c r="M13" s="11" t="e">
         <f aca="false">ROUND(2*M16*M19/(M16+M19),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N13" s="11" t="e">
+      <c r="N13" s="14" t="e">
         <f aca="false">ROUND(2*N16*N19/(N16+N19),3)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1205,8 +1233,12 @@
         <f aca="false">ROUND(2*O16*O19/(O16+O19),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P13" s="14" t="e">
+      <c r="P13" s="11" t="e">
         <f aca="false">ROUND(2*P16*P19/(P16+P19),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q13" s="14" t="e">
+        <f aca="false">ROUND(2*Q16*Q19/(Q16+Q19),3)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1214,7 +1246,7 @@
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="11" t="n">
         <f aca="false">ROUND(2*D17*D20/(D17+D20),3)</f>
@@ -1224,19 +1256,19 @@
         <f aca="false">ROUND(2*E17*E20/(E17+E20),3)</f>
         <v>0.745</v>
       </c>
-      <c r="F14" s="12" t="n">
+      <c r="F14" s="11" t="e">
         <f aca="false">ROUND(2*F17*F20/(F17+F20),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14" s="12" t="n">
+        <f aca="false">ROUND(2*G17*G20/(G17+G20),3)</f>
         <v>0.806</v>
       </c>
-      <c r="G14" s="11" t="n">
-        <f aca="false">ROUND(2*G17*G20/(G17+G20),3)</f>
+      <c r="H14" s="11" t="n">
+        <f aca="false">ROUND(2*H17*H20/(H17+H20),3)</f>
         <v>0.754</v>
       </c>
-      <c r="H14" s="13" t="e">
-        <f aca="false">ROUND(2*H17*H20/(H17+H20),3)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="11" t="e">
+      <c r="I14" s="13" t="e">
         <f aca="false">ROUND(2*I17*I20/(I17+I20),3)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1244,19 +1276,19 @@
         <f aca="false">ROUND(2*J17*J20/(J17+J20),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="13" t="e">
+      <c r="K14" s="11" t="e">
         <f aca="false">ROUND(2*K17*K20/(K17+K20),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="11" t="e">
+      <c r="L14" s="13" t="e">
         <f aca="false">ROUND(2*L17*L20/(L17+L20),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M14" s="14" t="e">
+      <c r="M14" s="11" t="e">
         <f aca="false">ROUND(2*M17*M20/(M17+M20),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N14" s="11" t="e">
+      <c r="N14" s="14" t="e">
         <f aca="false">ROUND(2*N17*N20/(N17+N20),3)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1264,18 +1296,22 @@
         <f aca="false">ROUND(2*O17*O20/(O17+O20),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P14" s="14" t="e">
+      <c r="P14" s="11" t="e">
         <f aca="false">ROUND(2*P17*P20/(P17+P20),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q14" s="14" t="e">
+        <f aca="false">ROUND(2*Q17*Q20/(Q17+Q20),3)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
       <c r="B15" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" s="17" t="n">
         <v>0.694</v>
@@ -1283,27 +1319,28 @@
       <c r="E15" s="17" t="n">
         <v>0.746</v>
       </c>
-      <c r="F15" s="18" t="n">
+      <c r="F15" s="17"/>
+      <c r="G15" s="18" t="n">
         <v>0.762</v>
       </c>
-      <c r="G15" s="17" t="n">
+      <c r="H15" s="17" t="n">
         <v>0.734</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="20"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="20"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="21"/>
       <c r="O15" s="20"/>
-      <c r="P15" s="21"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="21"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
       <c r="B16" s="15"/>
       <c r="C16" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="22" t="n">
         <v>0.673</v>
@@ -1311,27 +1348,28 @@
       <c r="E16" s="22" t="n">
         <v>0.758</v>
       </c>
-      <c r="F16" s="22" t="n">
+      <c r="F16" s="22"/>
+      <c r="G16" s="22" t="n">
         <v>0.75</v>
       </c>
-      <c r="G16" s="23" t="n">
+      <c r="H16" s="23" t="n">
         <v>0.783</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="25"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="26"/>
       <c r="O16" s="25"/>
-      <c r="P16" s="26"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="26"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
       <c r="B17" s="15"/>
       <c r="C17" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" s="27" t="n">
         <v>0.717</v>
@@ -1339,29 +1377,30 @@
       <c r="E17" s="27" t="n">
         <v>0.733</v>
       </c>
-      <c r="F17" s="28" t="n">
+      <c r="F17" s="27"/>
+      <c r="G17" s="28" t="n">
         <v>0.775</v>
       </c>
-      <c r="G17" s="27" t="n">
+      <c r="H17" s="27" t="n">
         <v>0.69</v>
       </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30"/>
+      <c r="I17" s="29"/>
       <c r="J17" s="30"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="31"/>
       <c r="O17" s="30"/>
-      <c r="P17" s="31"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="31"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="22" t="n">
         <v>0.748</v>
@@ -1369,27 +1408,28 @@
       <c r="E18" s="22" t="n">
         <v>0.757</v>
       </c>
-      <c r="F18" s="22" t="n">
+      <c r="F18" s="22"/>
+      <c r="G18" s="22" t="n">
         <v>0.819</v>
       </c>
-      <c r="G18" s="22" t="n">
+      <c r="H18" s="22" t="n">
         <v>0.818</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="25"/>
+      <c r="I18" s="24"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="26"/>
       <c r="O18" s="25"/>
-      <c r="P18" s="26"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="26"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" s="22" t="n">
         <v>0.783</v>
@@ -1397,27 +1437,28 @@
       <c r="E19" s="22" t="n">
         <v>0.804</v>
       </c>
-      <c r="F19" s="22" t="n">
+      <c r="F19" s="22"/>
+      <c r="G19" s="22" t="n">
         <v>0.818</v>
       </c>
-      <c r="G19" s="22" t="n">
+      <c r="H19" s="22" t="n">
         <v>0.843</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
+      <c r="I19" s="24"/>
       <c r="J19" s="25"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="26"/>
       <c r="O19" s="25"/>
-      <c r="P19" s="26"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="26"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D20" s="22" t="n">
         <v>0.77</v>
@@ -1425,26 +1466,27 @@
       <c r="E20" s="22" t="n">
         <v>0.757</v>
       </c>
-      <c r="F20" s="22" t="n">
+      <c r="F20" s="22"/>
+      <c r="G20" s="22" t="n">
         <v>0.839</v>
       </c>
-      <c r="G20" s="22" t="n">
+      <c r="H20" s="22" t="n">
         <v>0.831</v>
       </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
+      <c r="I20" s="24"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="26"/>
       <c r="O20" s="25"/>
-      <c r="P20" s="26"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="26"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
       <c r="B21" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" s="33"/>
       <c r="D21" s="34" t="n">
@@ -1453,49 +1495,50 @@
       <c r="E21" s="34" t="n">
         <v>8394.6</v>
       </c>
-      <c r="F21" s="34" t="n">
+      <c r="F21" s="34"/>
+      <c r="G21" s="34" t="n">
         <v>267.3</v>
       </c>
-      <c r="G21" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="36" t="s">
+      <c r="I21" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="36" t="n">
+      <c r="J21" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K21" s="36" t="n">
         <v>752.9</v>
       </c>
-      <c r="K21" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="L21" s="36" t="s">
+      <c r="L21" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="37" t="n">
+      <c r="M21" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="37" t="n">
         <v>752.3</v>
-      </c>
-      <c r="N21" s="36" t="s">
-        <v>31</v>
       </c>
       <c r="O21" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="P21" s="37" t="n">
+      <c r="P21" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="37" t="n">
         <v>758.1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D22" s="11" t="e">
         <f aca="false">ROUND(2*D25*D28/(D25+D28),3)</f>
@@ -1505,19 +1548,19 @@
         <f aca="false">ROUND(2*E25*E28/(E25+E28),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="12" t="e">
+      <c r="F22" s="11" t="e">
         <f aca="false">ROUND(2*F25*F28/(F25+F28),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="11" t="e">
+      <c r="G22" s="12" t="e">
         <f aca="false">ROUND(2*G25*G28/(G25+G28),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="13" t="e">
+      <c r="H22" s="11" t="e">
         <f aca="false">ROUND(2*H25*H28/(H25+H28),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="11" t="e">
+      <c r="I22" s="13" t="e">
         <f aca="false">ROUND(2*I25*I28/(I25+I28),3)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1525,19 +1568,19 @@
         <f aca="false">ROUND(2*J25*J28/(J25+J28),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="13" t="e">
+      <c r="K22" s="11" t="e">
         <f aca="false">ROUND(2*K25*K28/(K25+K28),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="11" t="e">
+      <c r="L22" s="13" t="e">
         <f aca="false">ROUND(2*L25*L28/(L25+L28),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="14" t="e">
+      <c r="M22" s="11" t="e">
         <f aca="false">ROUND(2*M25*M28/(M25+M28),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N22" s="11" t="e">
+      <c r="N22" s="14" t="e">
         <f aca="false">ROUND(2*N25*N28/(N25+N28),3)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1545,8 +1588,12 @@
         <f aca="false">ROUND(2*O25*O28/(O25+O28),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P22" s="14" t="e">
+      <c r="P22" s="11" t="e">
         <f aca="false">ROUND(2*P25*P28/(P25+P28),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q22" s="14" t="e">
+        <f aca="false">ROUND(2*Q25*Q28/(Q25+Q28),3)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1554,7 +1601,7 @@
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" s="11" t="e">
         <f aca="false">ROUND(2*D26*D29/(D26+D29),3)</f>
@@ -1568,15 +1615,15 @@
         <f aca="false">ROUND(2*F26*F29/(F26+F29),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="12" t="e">
+      <c r="G23" s="11" t="e">
         <f aca="false">ROUND(2*G26*G29/(G26+G29),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="13" t="e">
+      <c r="H23" s="12" t="e">
         <f aca="false">ROUND(2*H26*H29/(H26+H29),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="11" t="e">
+      <c r="I23" s="13" t="e">
         <f aca="false">ROUND(2*I26*I29/(I26+I29),3)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1584,19 +1631,19 @@
         <f aca="false">ROUND(2*J26*J29/(J26+J29),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="13" t="e">
+      <c r="K23" s="11" t="e">
         <f aca="false">ROUND(2*K26*K29/(K26+K29),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="11" t="e">
+      <c r="L23" s="13" t="e">
         <f aca="false">ROUND(2*L26*L29/(L26+L29),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="14" t="e">
+      <c r="M23" s="11" t="e">
         <f aca="false">ROUND(2*M26*M29/(M26+M29),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N23" s="11" t="e">
+      <c r="N23" s="14" t="e">
         <f aca="false">ROUND(2*N26*N29/(N26+N29),3)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1604,8 +1651,12 @@
         <f aca="false">ROUND(2*O26*O29/(O26+O29),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P23" s="14" t="e">
+      <c r="P23" s="11" t="e">
         <f aca="false">ROUND(2*P26*P29/(P26+P29),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q23" s="14" t="e">
+        <f aca="false">ROUND(2*Q26*Q29/(Q26+Q29),3)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -1613,7 +1664,7 @@
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" s="11" t="e">
         <f aca="false">ROUND(2*D27*D30/(D27+D30),3)</f>
@@ -1623,19 +1674,19 @@
         <f aca="false">ROUND(2*E27*E30/(E27+E30),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F24" s="12" t="e">
+      <c r="F24" s="11" t="e">
         <f aca="false">ROUND(2*F27*F30/(F27+F30),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="11" t="e">
+      <c r="G24" s="12" t="e">
         <f aca="false">ROUND(2*G27*G30/(G27+G30),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="13" t="e">
+      <c r="H24" s="11" t="e">
         <f aca="false">ROUND(2*H27*H30/(H27+H30),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="11" t="e">
+      <c r="I24" s="13" t="e">
         <f aca="false">ROUND(2*I27*I30/(I27+I30),3)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1643,19 +1694,19 @@
         <f aca="false">ROUND(2*J27*J30/(J27+J30),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="13" t="e">
+      <c r="K24" s="11" t="e">
         <f aca="false">ROUND(2*K27*K30/(K27+K30),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L24" s="11" t="e">
+      <c r="L24" s="13" t="e">
         <f aca="false">ROUND(2*L27*L30/(L27+L30),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="14" t="e">
+      <c r="M24" s="11" t="e">
         <f aca="false">ROUND(2*M27*M30/(M27+M30),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N24" s="11" t="e">
+      <c r="N24" s="14" t="e">
         <f aca="false">ROUND(2*N27*N30/(N27+N30),3)</f>
         <v>#DIV/0!</v>
       </c>
@@ -1663,158 +1714,169 @@
         <f aca="false">ROUND(2*O27*O30/(O27+O30),3)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P24" s="14" t="e">
+      <c r="P24" s="11" t="e">
         <f aca="false">ROUND(2*P27*P30/(P27+P30),3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q24" s="14" t="e">
+        <f aca="false">ROUND(2*Q27*Q30/(Q27+Q30),3)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
       <c r="B25" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="20"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="21"/>
       <c r="O25" s="20"/>
-      <c r="P25" s="21"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="21"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
       <c r="B26" s="15"/>
       <c r="C26" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="24"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="26"/>
       <c r="O26" s="25"/>
-      <c r="P26" s="26"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="26"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
       <c r="B27" s="15"/>
       <c r="C27" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="29"/>
       <c r="J27" s="30"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="31"/>
       <c r="O27" s="30"/>
-      <c r="P27" s="31"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="31"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D28" s="25"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="24"/>
       <c r="J28" s="25"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="26"/>
       <c r="O28" s="25"/>
-      <c r="P28" s="26"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="26"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
       <c r="F29" s="25"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="25"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="26"/>
       <c r="O29" s="25"/>
-      <c r="P29" s="26"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="26"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D30" s="25"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="24"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="26"/>
       <c r="O30" s="25"/>
-      <c r="P30" s="26"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="26"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
       <c r="B31" s="33" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31" s="33"/>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="36"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="37"/>
       <c r="O31" s="36"/>
-      <c r="P31" s="37"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="37"/>
     </row>
     <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B33" s="41"/>
       <c r="C33" s="41"/>
@@ -1822,10 +1884,11 @@
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
       <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B34" s="41"/>
       <c r="C34" s="41"/>
@@ -1833,8 +1896,9 @@
       <c r="E34" s="41"/>
       <c r="F34" s="41"/>
       <c r="G34" s="41"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H34" s="41"/>
+    </row>
+    <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="41"/>
       <c r="B35" s="41"/>
       <c r="C35" s="41"/>
@@ -1842,6 +1906,7 @@
       <c r="E35" s="41"/>
       <c r="F35" s="41"/>
       <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -1860,8 +1925,8 @@
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A34:G35"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A34:H35"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1881,7 +1946,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="1" sqref="F22:F24 F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1894,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="42" t="s">
         <v>3</v>
@@ -1903,13 +1968,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H1" s="42"/>
       <c r="I1" s="42"/>
@@ -1923,24 +1988,24 @@
       <c r="E2" s="42"/>
       <c r="F2" s="42"/>
       <c r="G2" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="43" t="n">
         <v>0.723</v>
@@ -1965,7 +2030,7 @@
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9"/>
       <c r="B4" s="43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="43" t="n">
         <v>0.721</v>
@@ -1990,7 +2055,7 @@
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9"/>
       <c r="B5" s="43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="43" t="n">
         <v>0.725</v>
@@ -2014,10 +2079,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="43" t="n">
         <v>0.72</v>
@@ -2039,7 +2104,7 @@
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9"/>
       <c r="B7" s="43" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" s="43" t="n">
         <v>0.694</v>
@@ -2061,7 +2126,7 @@
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9"/>
       <c r="B8" s="43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="43" t="n">
         <v>0.748</v>
@@ -2125,7 +2190,7 @@
   <dimension ref="A2:I27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+      <selection pane="topLeft" activeCell="I9" activeCellId="1" sqref="F22:F24 I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2142,7 +2207,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
@@ -2155,7 +2220,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="48" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="49" t="s">
         <v>3</v>
@@ -2164,22 +2229,22 @@
         <v>4</v>
       </c>
       <c r="D3" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>6</v>
-      </c>
       <c r="H3" s="49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" s="49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2210,7 +2275,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="50"/>
@@ -2223,7 +2288,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="50"/>
@@ -2236,7 +2301,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="51"/>
       <c r="C8" s="51"/>
@@ -2249,7 +2314,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="51"/>
       <c r="C9" s="51"/>
@@ -2262,7 +2327,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="51"/>
       <c r="C10" s="51"/>
@@ -2275,7 +2340,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
@@ -2288,7 +2353,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="47"/>
@@ -2301,7 +2366,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" s="49" t="s">
         <v>3</v>
@@ -2310,22 +2375,22 @@
         <v>4</v>
       </c>
       <c r="D14" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="49" t="s">
-        <v>6</v>
-      </c>
       <c r="H14" s="49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I14" s="49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2356,7 +2421,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="50"/>
       <c r="C17" s="50"/>
@@ -2369,7 +2434,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="50"/>
       <c r="C18" s="50"/>
@@ -2382,7 +2447,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" s="50"/>
       <c r="C19" s="50"/>
@@ -2395,7 +2460,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" s="50"/>
       <c r="C20" s="50"/>
@@ -2408,7 +2473,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" s="50"/>
       <c r="C21" s="50"/>
@@ -2421,7 +2486,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" s="50"/>
       <c r="C22" s="50"/>

--- a/benchmarks/summary_seq.xlsx
+++ b/benchmarks/summary_seq.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="54">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -36,10 +36,16 @@
     <t xml:space="preserve">RNAfold</t>
   </si>
   <si>
+    <t xml:space="preserve">RNAsubopt5</t>
+  </si>
+  <si>
     <t xml:space="preserve">IPknot</t>
   </si>
   <si>
     <t xml:space="preserve">ShapeKnots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ShapeKnots5</t>
   </si>
   <si>
     <t xml:space="preserve">MXfold2</t>
@@ -396,7 +402,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="39">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -465,19 +471,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -489,14 +483,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -505,16 +491,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -529,16 +507,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -551,10 +529,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -571,10 +545,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -608,29 +578,31 @@
   </sheetPr>
   <dimension ref="A1:AMJ34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="Q21" activeCellId="0" sqref="Q21"/>
+      <selection pane="bottomLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.81"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="12.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="12.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="13.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="15.68"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="18" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="13.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="15.68"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="20" style="1" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -658,46 +630,50 @@
       <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AMH1" s="0"/>
-      <c r="AMI1" s="0"/>
+      <c r="R1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" s="11" t="n">
         <f aca="false">ROUND(2*D5*D8/(D5+D8),3)</f>
@@ -705,54 +681,62 @@
       </c>
       <c r="E2" s="11" t="n">
         <f aca="false">ROUND(2*E5*E8/(E5+E8),3)</f>
-        <v>0.742</v>
+        <v>0.777</v>
       </c>
       <c r="F2" s="11" t="n">
         <f aca="false">ROUND(2*F5*F8/(F5+F8),3)</f>
-        <v>0.704</v>
+        <v>0.742</v>
       </c>
       <c r="G2" s="11" t="n">
         <f aca="false">ROUND(2*G5*G8/(G5+G8),3)</f>
-        <v>0.793</v>
+        <v>0.704</v>
       </c>
       <c r="H2" s="11" t="n">
         <f aca="false">ROUND(2*H5*H8/(H5+H8),3)</f>
-        <v>0.819</v>
-      </c>
-      <c r="I2" s="12" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="I2" s="11" t="n">
         <f aca="false">ROUND(2*I5*I8/(I5+I8),3)</f>
-        <v>0.711</v>
+        <v>0.793</v>
       </c>
       <c r="J2" s="11" t="n">
         <f aca="false">ROUND(2*J5*J8/(J5+J8),3)</f>
+        <v>0.819</v>
+      </c>
+      <c r="K2" s="12" t="n">
+        <f aca="false">ROUND(2*K5*K8/(K5+K8),3)</f>
+        <v>0.711</v>
+      </c>
+      <c r="L2" s="11" t="n">
+        <f aca="false">ROUND(2*L5*L8/(L5+L8),3)</f>
         <v>0.709</v>
-      </c>
-      <c r="K2" s="11" t="n">
-        <f aca="false">ROUND(2*K5*K8/(K5+K8),3)</f>
-        <v>0.69</v>
-      </c>
-      <c r="L2" s="12" t="n">
-        <f aca="false">ROUND(2*L5*L8/(L5+L8),3)</f>
-        <v>0.789</v>
       </c>
       <c r="M2" s="11" t="n">
         <f aca="false">ROUND(2*M5*M8/(M5+M8),3)</f>
-        <v>0.781</v>
-      </c>
-      <c r="N2" s="13" t="n">
+        <v>0.69</v>
+      </c>
+      <c r="N2" s="12" t="n">
         <f aca="false">ROUND(2*N5*N8/(N5+N8),3)</f>
-        <v>0.776</v>
+        <v>0.789</v>
       </c>
       <c r="O2" s="11" t="n">
         <f aca="false">ROUND(2*O5*O8/(O5+O8),3)</f>
+        <v>0.781</v>
+      </c>
+      <c r="P2" s="13" t="n">
+        <f aca="false">ROUND(2*P5*P8/(P5+P8),3)</f>
+        <v>0.776</v>
+      </c>
+      <c r="Q2" s="11" t="n">
+        <f aca="false">ROUND(2*Q5*Q8/(Q5+Q8),3)</f>
         <v>0.83</v>
       </c>
-      <c r="P2" s="11" t="n">
-        <f aca="false">ROUND(2*P5*P8/(P5+P8),3)</f>
+      <c r="R2" s="11" t="n">
+        <f aca="false">ROUND(2*R5*R8/(R5+R8),3)</f>
         <v>0.795</v>
       </c>
-      <c r="Q2" s="13" t="n">
-        <f aca="false">ROUND(2*Q5*Q8/(Q5+Q8),3)</f>
+      <c r="S2" s="13" t="n">
+        <f aca="false">ROUND(2*S5*S8/(S5+S8),3)</f>
         <v>0.805</v>
       </c>
     </row>
@@ -760,7 +744,7 @@
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" s="11" t="n">
         <f aca="false">ROUND(2*D6*D9/(D6+D9),3)</f>
@@ -768,54 +752,62 @@
       </c>
       <c r="E3" s="11" t="n">
         <f aca="false">ROUND(2*E6*E9/(E6+E9),3)</f>
-        <v>0.765</v>
+        <v>0.783</v>
       </c>
       <c r="F3" s="11" t="n">
         <f aca="false">ROUND(2*F6*F9/(F6+F9),3)</f>
-        <v>0.697</v>
+        <v>0.765</v>
       </c>
       <c r="G3" s="11" t="n">
         <f aca="false">ROUND(2*G6*G9/(G6+G9),3)</f>
-        <v>0.805</v>
+        <v>0.697</v>
       </c>
       <c r="H3" s="11" t="n">
         <f aca="false">ROUND(2*H6*H9/(H6+H9),3)</f>
-        <v>0.865</v>
-      </c>
-      <c r="I3" s="12" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="I3" s="11" t="n">
         <f aca="false">ROUND(2*I6*I9/(I6+I9),3)</f>
-        <v>0.703</v>
+        <v>0.805</v>
       </c>
       <c r="J3" s="11" t="n">
         <f aca="false">ROUND(2*J6*J9/(J6+J9),3)</f>
+        <v>0.865</v>
+      </c>
+      <c r="K3" s="12" t="n">
+        <f aca="false">ROUND(2*K6*K9/(K6+K9),3)</f>
+        <v>0.703</v>
+      </c>
+      <c r="L3" s="11" t="n">
+        <f aca="false">ROUND(2*L6*L9/(L6+L9),3)</f>
         <v>0.704</v>
-      </c>
-      <c r="K3" s="11" t="n">
-        <f aca="false">ROUND(2*K6*K9/(K6+K9),3)</f>
-        <v>0.679</v>
-      </c>
-      <c r="L3" s="12" t="n">
-        <f aca="false">ROUND(2*L6*L9/(L6+L9),3)</f>
-        <v>0.793</v>
       </c>
       <c r="M3" s="11" t="n">
         <f aca="false">ROUND(2*M6*M9/(M6+M9),3)</f>
-        <v>0.78</v>
-      </c>
-      <c r="N3" s="13" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="N3" s="12" t="n">
         <f aca="false">ROUND(2*N6*N9/(N6+N9),3)</f>
-        <v>0.795</v>
+        <v>0.793</v>
       </c>
       <c r="O3" s="11" t="n">
         <f aca="false">ROUND(2*O6*O9/(O6+O9),3)</f>
+        <v>0.78</v>
+      </c>
+      <c r="P3" s="13" t="n">
+        <f aca="false">ROUND(2*P6*P9/(P6+P9),3)</f>
+        <v>0.795</v>
+      </c>
+      <c r="Q3" s="11" t="n">
+        <f aca="false">ROUND(2*Q6*Q9/(Q6+Q9),3)</f>
         <v>0.837</v>
       </c>
-      <c r="P3" s="11" t="n">
-        <f aca="false">ROUND(2*P6*P9/(P6+P9),3)</f>
+      <c r="R3" s="11" t="n">
+        <f aca="false">ROUND(2*R6*R9/(R6+R9),3)</f>
         <v>0.798</v>
       </c>
-      <c r="Q3" s="13" t="n">
-        <f aca="false">ROUND(2*Q6*Q9/(Q6+Q9),3)</f>
+      <c r="S3" s="13" t="n">
+        <f aca="false">ROUND(2*S6*S9/(S6+S9),3)</f>
         <v>0.834</v>
       </c>
     </row>
@@ -823,7 +815,7 @@
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" s="11" t="n">
         <f aca="false">ROUND(2*D7*D10/(D7+D10),3)</f>
@@ -831,105 +823,119 @@
       </c>
       <c r="E4" s="11" t="n">
         <f aca="false">ROUND(2*E7*E10/(E7+E10),3)</f>
-        <v>0.728</v>
+        <v>0.777</v>
       </c>
       <c r="F4" s="11" t="n">
         <f aca="false">ROUND(2*F7*F10/(F7+F10),3)</f>
-        <v>0.716</v>
+        <v>0.728</v>
       </c>
       <c r="G4" s="11" t="n">
         <f aca="false">ROUND(2*G7*G10/(G7+G10),3)</f>
-        <v>0.789</v>
+        <v>0.716</v>
       </c>
       <c r="H4" s="11" t="n">
         <f aca="false">ROUND(2*H7*H10/(H7+H10),3)</f>
+        <v>0.792</v>
+      </c>
+      <c r="I4" s="11" t="n">
+        <f aca="false">ROUND(2*I7*I10/(I7+I10),3)</f>
         <v>0.789</v>
-      </c>
-      <c r="I4" s="12" t="n">
-        <f aca="false">ROUND(2*I7*I10/(I7+I10),3)</f>
-        <v>0.727</v>
       </c>
       <c r="J4" s="11" t="n">
         <f aca="false">ROUND(2*J7*J10/(J7+J10),3)</f>
+        <v>0.789</v>
+      </c>
+      <c r="K4" s="12" t="n">
+        <f aca="false">ROUND(2*K7*K10/(K7+K10),3)</f>
+        <v>0.727</v>
+      </c>
+      <c r="L4" s="11" t="n">
+        <f aca="false">ROUND(2*L7*L10/(L7+L10),3)</f>
         <v>0.723</v>
-      </c>
-      <c r="K4" s="11" t="n">
-        <f aca="false">ROUND(2*K7*K10/(K7+K10),3)</f>
-        <v>0.709</v>
-      </c>
-      <c r="L4" s="12" t="n">
-        <f aca="false">ROUND(2*L7*L10/(L7+L10),3)</f>
-        <v>0.792</v>
       </c>
       <c r="M4" s="11" t="n">
         <f aca="false">ROUND(2*M7*M10/(M7+M10),3)</f>
-        <v>0.791</v>
-      </c>
-      <c r="N4" s="13" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="N4" s="12" t="n">
         <f aca="false">ROUND(2*N7*N10/(N7+N10),3)</f>
-        <v>0.766</v>
+        <v>0.792</v>
       </c>
       <c r="O4" s="11" t="n">
         <f aca="false">ROUND(2*O7*O10/(O7+O10),3)</f>
+        <v>0.791</v>
+      </c>
+      <c r="P4" s="13" t="n">
+        <f aca="false">ROUND(2*P7*P10/(P7+P10),3)</f>
+        <v>0.766</v>
+      </c>
+      <c r="Q4" s="11" t="n">
+        <f aca="false">ROUND(2*Q7*Q10/(Q7+Q10),3)</f>
         <v>0.83</v>
       </c>
-      <c r="P4" s="11" t="n">
-        <f aca="false">ROUND(2*P7*P10/(P7+P10),3)</f>
+      <c r="R4" s="11" t="n">
+        <f aca="false">ROUND(2*R7*R10/(R7+R10),3)</f>
         <v>0.8</v>
       </c>
-      <c r="Q4" s="13" t="n">
-        <f aca="false">ROUND(2*Q7*Q10/(Q7+Q10),3)</f>
+      <c r="S4" s="13" t="n">
+        <f aca="false">ROUND(2*S7*S10/(S7+S10),3)</f>
         <v>0.787</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
       <c r="B5" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" s="16" t="n">
         <v>0.721</v>
       </c>
       <c r="E5" s="16" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="F5" s="16" t="n">
         <v>0.743</v>
       </c>
-      <c r="F5" s="17" t="n">
+      <c r="G5" s="16" t="n">
         <v>0.697</v>
       </c>
-      <c r="G5" s="16" t="n">
+      <c r="H5" s="16" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="I5" s="16" t="n">
         <v>0.795</v>
       </c>
-      <c r="H5" s="16" t="n">
+      <c r="J5" s="16" t="n">
         <v>0.82</v>
       </c>
-      <c r="I5" s="18" t="n">
+      <c r="K5" s="17" t="n">
         <v>0.707</v>
       </c>
-      <c r="J5" s="17" t="n">
+      <c r="L5" s="16" t="n">
         <v>0.703</v>
       </c>
-      <c r="K5" s="17" t="n">
+      <c r="M5" s="16" t="n">
         <v>0.689</v>
       </c>
-      <c r="L5" s="18" t="n">
+      <c r="N5" s="17" t="n">
         <v>0.772</v>
       </c>
-      <c r="M5" s="17" t="n">
+      <c r="O5" s="16" t="n">
         <v>0.775</v>
       </c>
-      <c r="N5" s="19" t="n">
+      <c r="P5" s="15" t="n">
         <v>0.765</v>
       </c>
-      <c r="O5" s="17" t="n">
+      <c r="Q5" s="16" t="n">
         <v>0.825</v>
       </c>
-      <c r="P5" s="17" t="n">
+      <c r="R5" s="16" t="n">
         <v>0.794</v>
       </c>
-      <c r="Q5" s="19" t="n">
+      <c r="S5" s="15" t="n">
         <v>0.8</v>
       </c>
     </row>
@@ -937,48 +943,54 @@
       <c r="A6" s="8"/>
       <c r="B6" s="14"/>
       <c r="C6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="20" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" s="18" t="n">
         <v>0.712</v>
       </c>
-      <c r="E6" s="20" t="n">
+      <c r="E6" s="18" t="n">
+        <v>0.776</v>
+      </c>
+      <c r="F6" s="18" t="n">
         <v>0.763</v>
       </c>
-      <c r="F6" s="21" t="n">
+      <c r="G6" s="18" t="n">
         <v>0.685</v>
       </c>
-      <c r="G6" s="20" t="n">
+      <c r="H6" s="18" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="I6" s="18" t="n">
         <v>0.809</v>
       </c>
-      <c r="H6" s="20" t="n">
+      <c r="J6" s="18" t="n">
         <v>0.869</v>
       </c>
-      <c r="I6" s="22" t="n">
+      <c r="K6" s="19" t="n">
         <v>0.697</v>
       </c>
-      <c r="J6" s="21" t="n">
+      <c r="L6" s="18" t="n">
         <v>0.695</v>
       </c>
-      <c r="K6" s="21" t="n">
+      <c r="M6" s="18" t="n">
         <v>0.676</v>
       </c>
-      <c r="L6" s="22" t="n">
+      <c r="N6" s="19" t="n">
         <v>0.776</v>
       </c>
-      <c r="M6" s="21" t="n">
+      <c r="O6" s="18" t="n">
         <v>0.771</v>
       </c>
-      <c r="N6" s="23" t="n">
+      <c r="P6" s="10" t="n">
         <v>0.779</v>
       </c>
-      <c r="O6" s="21" t="n">
+      <c r="Q6" s="18" t="n">
         <v>0.833</v>
       </c>
-      <c r="P6" s="21" t="n">
+      <c r="R6" s="18" t="n">
         <v>0.796</v>
       </c>
-      <c r="Q6" s="23" t="n">
+      <c r="S6" s="10" t="n">
         <v>0.827</v>
       </c>
     </row>
@@ -986,99 +998,111 @@
       <c r="A7" s="8"/>
       <c r="B7" s="14"/>
       <c r="C7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D7" s="20" t="n">
         <v>0.731</v>
       </c>
-      <c r="E7" s="24" t="n">
+      <c r="E7" s="20" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="F7" s="20" t="n">
         <v>0.725</v>
       </c>
-      <c r="F7" s="25" t="n">
+      <c r="G7" s="20" t="n">
         <v>0.709</v>
       </c>
-      <c r="G7" s="24" t="n">
+      <c r="H7" s="20" t="n">
         <v>0.782</v>
       </c>
-      <c r="H7" s="24" t="n">
+      <c r="I7" s="20" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="J7" s="20" t="n">
         <v>0.776</v>
       </c>
-      <c r="I7" s="26" t="n">
+      <c r="K7" s="21" t="n">
         <v>0.717</v>
       </c>
-      <c r="J7" s="25" t="n">
+      <c r="L7" s="20" t="n">
         <v>0.711</v>
       </c>
-      <c r="K7" s="25" t="n">
+      <c r="M7" s="20" t="n">
         <v>0.702</v>
       </c>
-      <c r="L7" s="26" t="n">
+      <c r="N7" s="21" t="n">
         <v>0.769</v>
       </c>
-      <c r="M7" s="25" t="n">
+      <c r="O7" s="20" t="n">
         <v>0.779</v>
       </c>
-      <c r="N7" s="27" t="n">
+      <c r="P7" s="8" t="n">
         <v>0.75</v>
       </c>
-      <c r="O7" s="25" t="n">
+      <c r="Q7" s="20" t="n">
         <v>0.818</v>
       </c>
-      <c r="P7" s="25" t="n">
+      <c r="R7" s="20" t="n">
         <v>0.791</v>
       </c>
-      <c r="Q7" s="27" t="n">
+      <c r="S7" s="8" t="n">
         <v>0.776</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="20" t="n">
+        <v>21</v>
+      </c>
+      <c r="D8" s="18" t="n">
         <v>0.725</v>
       </c>
-      <c r="E8" s="20" t="n">
+      <c r="E8" s="18" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F8" s="18" t="n">
         <v>0.742</v>
       </c>
-      <c r="F8" s="21" t="n">
+      <c r="G8" s="18" t="n">
         <v>0.711</v>
       </c>
-      <c r="G8" s="20" t="n">
+      <c r="H8" s="18" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I8" s="18" t="n">
         <v>0.792</v>
       </c>
-      <c r="H8" s="20" t="n">
+      <c r="J8" s="18" t="n">
         <v>0.819</v>
       </c>
-      <c r="I8" s="22" t="n">
+      <c r="K8" s="19" t="n">
         <v>0.716</v>
       </c>
-      <c r="J8" s="21" t="n">
+      <c r="L8" s="18" t="n">
         <v>0.715</v>
       </c>
-      <c r="K8" s="21" t="n">
+      <c r="M8" s="18" t="n">
         <v>0.692</v>
       </c>
-      <c r="L8" s="22" t="n">
+      <c r="N8" s="19" t="n">
         <v>0.806</v>
       </c>
-      <c r="M8" s="21" t="n">
+      <c r="O8" s="18" t="n">
         <v>0.788</v>
       </c>
-      <c r="N8" s="23" t="n">
+      <c r="P8" s="10" t="n">
         <v>0.787</v>
       </c>
-      <c r="O8" s="21" t="n">
+      <c r="Q8" s="18" t="n">
         <v>0.835</v>
       </c>
-      <c r="P8" s="21" t="n">
+      <c r="R8" s="18" t="n">
         <v>0.797</v>
       </c>
-      <c r="Q8" s="23" t="n">
+      <c r="S8" s="10" t="n">
         <v>0.81</v>
       </c>
     </row>
@@ -1086,48 +1110,54 @@
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="20" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" s="18" t="n">
         <v>0.724</v>
       </c>
-      <c r="E9" s="20" t="n">
+      <c r="E9" s="18" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F9" s="18" t="n">
         <v>0.768</v>
       </c>
-      <c r="F9" s="21" t="n">
+      <c r="G9" s="18" t="n">
         <v>0.709</v>
       </c>
-      <c r="G9" s="20" t="n">
+      <c r="H9" s="18" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="I9" s="18" t="n">
         <v>0.802</v>
       </c>
-      <c r="H9" s="20" t="n">
+      <c r="J9" s="18" t="n">
         <v>0.862</v>
       </c>
-      <c r="I9" s="22" t="n">
+      <c r="K9" s="19" t="n">
         <v>0.709</v>
       </c>
-      <c r="J9" s="21" t="n">
+      <c r="L9" s="18" t="n">
         <v>0.713</v>
       </c>
-      <c r="K9" s="21" t="n">
+      <c r="M9" s="18" t="n">
         <v>0.683</v>
       </c>
-      <c r="L9" s="22" t="n">
+      <c r="N9" s="19" t="n">
         <v>0.81</v>
       </c>
-      <c r="M9" s="21" t="n">
+      <c r="O9" s="18" t="n">
         <v>0.789</v>
       </c>
-      <c r="N9" s="23" t="n">
+      <c r="P9" s="10" t="n">
         <v>0.812</v>
       </c>
-      <c r="O9" s="21" t="n">
+      <c r="Q9" s="18" t="n">
         <v>0.841</v>
       </c>
-      <c r="P9" s="21" t="n">
+      <c r="R9" s="18" t="n">
         <v>0.801</v>
       </c>
-      <c r="Q9" s="23" t="n">
+      <c r="S9" s="10" t="n">
         <v>0.842</v>
       </c>
     </row>
@@ -1135,109 +1165,121 @@
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="20" t="n">
+        <v>23</v>
+      </c>
+      <c r="D10" s="18" t="n">
         <v>0.737</v>
       </c>
-      <c r="E10" s="20" t="n">
+      <c r="E10" s="18" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="F10" s="18" t="n">
         <v>0.732</v>
       </c>
-      <c r="F10" s="21" t="n">
+      <c r="G10" s="18" t="n">
         <v>0.723</v>
       </c>
-      <c r="G10" s="20" t="n">
+      <c r="H10" s="18" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="I10" s="18" t="n">
         <v>0.796</v>
       </c>
-      <c r="H10" s="20" t="n">
+      <c r="J10" s="18" t="n">
         <v>0.802</v>
       </c>
-      <c r="I10" s="22" t="n">
+      <c r="K10" s="19" t="n">
         <v>0.738</v>
       </c>
-      <c r="J10" s="21" t="n">
+      <c r="L10" s="18" t="n">
         <v>0.735</v>
       </c>
-      <c r="K10" s="21" t="n">
+      <c r="M10" s="18" t="n">
         <v>0.717</v>
       </c>
-      <c r="L10" s="22" t="n">
+      <c r="N10" s="19" t="n">
         <v>0.817</v>
       </c>
-      <c r="M10" s="21" t="n">
+      <c r="O10" s="18" t="n">
         <v>0.804</v>
       </c>
-      <c r="N10" s="23" t="n">
+      <c r="P10" s="10" t="n">
         <v>0.782</v>
       </c>
-      <c r="O10" s="21" t="n">
+      <c r="Q10" s="18" t="n">
         <v>0.843</v>
       </c>
-      <c r="P10" s="21" t="n">
+      <c r="R10" s="18" t="n">
         <v>0.809</v>
       </c>
-      <c r="Q10" s="23" t="n">
+      <c r="S10" s="10" t="n">
         <v>0.798</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
-      <c r="B11" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29" t="n">
+      <c r="B11" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23" t="n">
         <v>0.5</v>
       </c>
-      <c r="E11" s="29" t="n">
+      <c r="E11" s="23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="23" t="n">
         <v>2.3</v>
       </c>
-      <c r="F11" s="30" t="n">
-        <v>2785.6</v>
-      </c>
-      <c r="G11" s="29" t="n">
+      <c r="G11" s="23" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="H11" s="23" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="I11" s="23" t="n">
         <v>26.5</v>
       </c>
-      <c r="H11" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="31" t="n">
+      <c r="J11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="24" t="n">
         <v>17</v>
       </c>
-      <c r="J11" s="30" t="n">
+      <c r="L11" s="23" t="n">
         <v>10.4</v>
       </c>
-      <c r="K11" s="30" t="n">
+      <c r="M11" s="23" t="n">
         <v>12.6</v>
       </c>
-      <c r="L11" s="31" t="n">
+      <c r="N11" s="24" t="n">
         <v>17.1</v>
       </c>
-      <c r="M11" s="30" t="n">
+      <c r="O11" s="23" t="n">
         <v>10.4</v>
       </c>
-      <c r="N11" s="32" t="n">
+      <c r="P11" s="25" t="n">
         <v>12.7</v>
       </c>
-      <c r="O11" s="30" t="n">
+      <c r="Q11" s="23" t="n">
         <v>17.3</v>
       </c>
-      <c r="P11" s="30" t="n">
+      <c r="R11" s="23" t="n">
         <v>10.6</v>
       </c>
-      <c r="Q11" s="32" t="n">
+      <c r="S11" s="25" t="n">
         <v>12.8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" s="11" t="n">
         <f aca="false">ROUND(2*D15*D18/(D15+D18),3)</f>
@@ -1245,54 +1287,62 @@
       </c>
       <c r="E12" s="11" t="n">
         <f aca="false">ROUND(2*E15*E18/(E15+E18),3)</f>
-        <v>0.751</v>
+        <v>0.776</v>
       </c>
       <c r="F12" s="11" t="n">
         <f aca="false">ROUND(2*F15*F18/(F15+F18),3)</f>
-        <v>0.723</v>
+        <v>0.751</v>
       </c>
       <c r="G12" s="11" t="n">
         <f aca="false">ROUND(2*G15*G18/(G15+G18),3)</f>
-        <v>0.789</v>
+        <v>0.723</v>
       </c>
       <c r="H12" s="11" t="n">
         <f aca="false">ROUND(2*H15*H18/(H15+H18),3)</f>
-        <v>0.774</v>
-      </c>
-      <c r="I12" s="12" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="I12" s="11" t="n">
         <f aca="false">ROUND(2*I15*I18/(I15+I18),3)</f>
-        <v>0.691</v>
+        <v>0.789</v>
       </c>
       <c r="J12" s="11" t="n">
         <f aca="false">ROUND(2*J15*J18/(J15+J18),3)</f>
+        <v>0.774</v>
+      </c>
+      <c r="K12" s="12" t="n">
+        <f aca="false">ROUND(2*K15*K18/(K15+K18),3)</f>
+        <v>0.691</v>
+      </c>
+      <c r="L12" s="11" t="n">
+        <f aca="false">ROUND(2*L15*L18/(L15+L18),3)</f>
         <v>0.665</v>
-      </c>
-      <c r="K12" s="11" t="n">
-        <f aca="false">ROUND(2*K15*K18/(K15+K18),3)</f>
-        <v>0.692</v>
-      </c>
-      <c r="L12" s="12" t="n">
-        <f aca="false">ROUND(2*L15*L18/(L15+L18),3)</f>
-        <v>0.771</v>
       </c>
       <c r="M12" s="11" t="n">
         <f aca="false">ROUND(2*M15*M18/(M15+M18),3)</f>
-        <v>0.735</v>
-      </c>
-      <c r="N12" s="13" t="n">
+        <v>0.692</v>
+      </c>
+      <c r="N12" s="12" t="n">
         <f aca="false">ROUND(2*N15*N18/(N15+N18),3)</f>
-        <v>0.761</v>
+        <v>0.771</v>
       </c>
       <c r="O12" s="11" t="n">
         <f aca="false">ROUND(2*O15*O18/(O15+O18),3)</f>
+        <v>0.735</v>
+      </c>
+      <c r="P12" s="13" t="n">
+        <f aca="false">ROUND(2*P15*P18/(P15+P18),3)</f>
+        <v>0.761</v>
+      </c>
+      <c r="Q12" s="11" t="n">
+        <f aca="false">ROUND(2*Q15*Q18/(Q15+Q18),3)</f>
         <v>0.783</v>
       </c>
-      <c r="P12" s="11" t="n">
-        <f aca="false">ROUND(2*P15*P18/(P15+P18),3)</f>
+      <c r="R12" s="11" t="n">
+        <f aca="false">ROUND(2*R15*R18/(R15+R18),3)</f>
         <v>0.746</v>
       </c>
-      <c r="Q12" s="13" t="n">
-        <f aca="false">ROUND(2*Q15*Q18/(Q15+Q18),3)</f>
+      <c r="S12" s="13" t="n">
+        <f aca="false">ROUND(2*S15*S18/(S15+S18),3)</f>
         <v>0.775</v>
       </c>
     </row>
@@ -1300,7 +1350,7 @@
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D13" s="11" t="n">
         <f aca="false">ROUND(2*D16*D19/(D16+D19),3)</f>
@@ -1308,54 +1358,62 @@
       </c>
       <c r="E13" s="11" t="n">
         <f aca="false">ROUND(2*E16*E19/(E16+E19),3)</f>
-        <v>0.78</v>
+        <v>0.774</v>
       </c>
       <c r="F13" s="11" t="n">
         <f aca="false">ROUND(2*F16*F19/(F16+F19),3)</f>
-        <v>0.727</v>
+        <v>0.78</v>
       </c>
       <c r="G13" s="11" t="n">
         <f aca="false">ROUND(2*G16*G19/(G16+G19),3)</f>
-        <v>0.783</v>
+        <v>0.727</v>
       </c>
       <c r="H13" s="11" t="n">
         <f aca="false">ROUND(2*H16*H19/(H16+H19),3)</f>
-        <v>0.812</v>
-      </c>
-      <c r="I13" s="12" t="n">
+        <v>0.753</v>
+      </c>
+      <c r="I13" s="11" t="n">
         <f aca="false">ROUND(2*I16*I19/(I16+I19),3)</f>
-        <v>0.675</v>
+        <v>0.783</v>
       </c>
       <c r="J13" s="11" t="n">
         <f aca="false">ROUND(2*J16*J19/(J16+J19),3)</f>
+        <v>0.812</v>
+      </c>
+      <c r="K13" s="12" t="n">
+        <f aca="false">ROUND(2*K16*K19/(K16+K19),3)</f>
+        <v>0.675</v>
+      </c>
+      <c r="L13" s="11" t="n">
+        <f aca="false">ROUND(2*L16*L19/(L16+L19),3)</f>
         <v>0.659</v>
-      </c>
-      <c r="K13" s="11" t="n">
-        <f aca="false">ROUND(2*K16*K19/(K16+K19),3)</f>
-        <v>0.674</v>
-      </c>
-      <c r="L13" s="12" t="n">
-        <f aca="false">ROUND(2*L16*L19/(L16+L19),3)</f>
-        <v>0.766</v>
       </c>
       <c r="M13" s="11" t="n">
         <f aca="false">ROUND(2*M16*M19/(M16+M19),3)</f>
-        <v>0.732</v>
-      </c>
-      <c r="N13" s="13" t="n">
+        <v>0.674</v>
+      </c>
+      <c r="N13" s="12" t="n">
         <f aca="false">ROUND(2*N16*N19/(N16+N19),3)</f>
-        <v>0.757</v>
+        <v>0.766</v>
       </c>
       <c r="O13" s="11" t="n">
         <f aca="false">ROUND(2*O16*O19/(O16+O19),3)</f>
+        <v>0.732</v>
+      </c>
+      <c r="P13" s="13" t="n">
+        <f aca="false">ROUND(2*P16*P19/(P16+P19),3)</f>
+        <v>0.757</v>
+      </c>
+      <c r="Q13" s="11" t="n">
+        <f aca="false">ROUND(2*Q16*Q19/(Q16+Q19),3)</f>
         <v>0.778</v>
       </c>
-      <c r="P13" s="11" t="n">
-        <f aca="false">ROUND(2*P16*P19/(P16+P19),3)</f>
+      <c r="R13" s="11" t="n">
+        <f aca="false">ROUND(2*R16*R19/(R16+R19),3)</f>
         <v>0.744</v>
       </c>
-      <c r="Q13" s="13" t="n">
-        <f aca="false">ROUND(2*Q16*Q19/(Q16+Q19),3)</f>
+      <c r="S13" s="13" t="n">
+        <f aca="false">ROUND(2*S16*S19/(S16+S19),3)</f>
         <v>0.779</v>
       </c>
     </row>
@@ -1363,7 +1421,7 @@
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D14" s="11" t="n">
         <f aca="false">ROUND(2*D17*D20/(D17+D20),3)</f>
@@ -1371,105 +1429,119 @@
       </c>
       <c r="E14" s="11" t="n">
         <f aca="false">ROUND(2*E17*E20/(E17+E20),3)</f>
-        <v>0.745</v>
+        <v>0.795</v>
       </c>
       <c r="F14" s="11" t="n">
         <f aca="false">ROUND(2*F17*F20/(F17+F20),3)</f>
-        <v>0.747</v>
+        <v>0.745</v>
       </c>
       <c r="G14" s="11" t="n">
         <f aca="false">ROUND(2*G17*G20/(G17+G20),3)</f>
-        <v>0.806</v>
+        <v>0.747</v>
       </c>
       <c r="H14" s="11" t="n">
         <f aca="false">ROUND(2*H17*H20/(H17+H20),3)</f>
-        <v>0.754</v>
-      </c>
-      <c r="I14" s="12" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="I14" s="11" t="n">
         <f aca="false">ROUND(2*I17*I20/(I17+I20),3)</f>
-        <v>0.717</v>
+        <v>0.806</v>
       </c>
       <c r="J14" s="11" t="n">
         <f aca="false">ROUND(2*J17*J20/(J17+J20),3)</f>
+        <v>0.754</v>
+      </c>
+      <c r="K14" s="12" t="n">
+        <f aca="false">ROUND(2*K17*K20/(K17+K20),3)</f>
+        <v>0.717</v>
+      </c>
+      <c r="L14" s="11" t="n">
+        <f aca="false">ROUND(2*L17*L20/(L17+L20),3)</f>
         <v>0.683</v>
-      </c>
-      <c r="K14" s="11" t="n">
-        <f aca="false">ROUND(2*K17*K20/(K17+K20),3)</f>
-        <v>0.721</v>
-      </c>
-      <c r="L14" s="12" t="n">
-        <f aca="false">ROUND(2*L17*L20/(L17+L20),3)</f>
-        <v>0.785</v>
       </c>
       <c r="M14" s="11" t="n">
         <f aca="false">ROUND(2*M17*M20/(M17+M20),3)</f>
-        <v>0.751</v>
-      </c>
-      <c r="N14" s="13" t="n">
+        <v>0.721</v>
+      </c>
+      <c r="N14" s="12" t="n">
         <f aca="false">ROUND(2*N17*N20/(N17+N20),3)</f>
-        <v>0.774</v>
+        <v>0.785</v>
       </c>
       <c r="O14" s="11" t="n">
         <f aca="false">ROUND(2*O17*O20/(O17+O20),3)</f>
+        <v>0.751</v>
+      </c>
+      <c r="P14" s="13" t="n">
+        <f aca="false">ROUND(2*P17*P20/(P17+P20),3)</f>
+        <v>0.774</v>
+      </c>
+      <c r="Q14" s="11" t="n">
+        <f aca="false">ROUND(2*Q17*Q20/(Q17+Q20),3)</f>
         <v>0.795</v>
       </c>
-      <c r="P14" s="11" t="n">
-        <f aca="false">ROUND(2*P17*P20/(P17+P20),3)</f>
+      <c r="R14" s="11" t="n">
+        <f aca="false">ROUND(2*R17*R20/(R17+R20),3)</f>
         <v>0.759</v>
       </c>
-      <c r="Q14" s="13" t="n">
-        <f aca="false">ROUND(2*Q17*Q20/(Q17+Q20),3)</f>
+      <c r="S14" s="13" t="n">
+        <f aca="false">ROUND(2*S17*S20/(S17+S20),3)</f>
         <v>0.778</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
       <c r="B15" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D15" s="16" t="n">
         <v>0.694</v>
       </c>
       <c r="E15" s="16" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="F15" s="16" t="n">
         <v>0.746</v>
       </c>
-      <c r="F15" s="17" t="n">
+      <c r="G15" s="16" t="n">
         <v>0.697</v>
       </c>
-      <c r="G15" s="16" t="n">
+      <c r="H15" s="16" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="I15" s="16" t="n">
         <v>0.762</v>
       </c>
-      <c r="H15" s="16" t="n">
+      <c r="J15" s="16" t="n">
         <v>0.734</v>
       </c>
-      <c r="I15" s="18" t="n">
+      <c r="K15" s="17" t="n">
         <v>0.63</v>
       </c>
-      <c r="J15" s="17" t="n">
+      <c r="L15" s="16" t="n">
         <v>0.603</v>
       </c>
-      <c r="K15" s="17" t="n">
+      <c r="M15" s="16" t="n">
         <v>0.632</v>
       </c>
-      <c r="L15" s="18" t="n">
+      <c r="N15" s="17" t="n">
         <v>0.705</v>
       </c>
-      <c r="M15" s="17" t="n">
+      <c r="O15" s="16" t="n">
         <v>0.672</v>
       </c>
-      <c r="N15" s="19" t="n">
+      <c r="P15" s="15" t="n">
         <v>0.695</v>
       </c>
-      <c r="O15" s="17" t="n">
+      <c r="Q15" s="16" t="n">
         <v>0.72</v>
       </c>
-      <c r="P15" s="17" t="n">
+      <c r="R15" s="16" t="n">
         <v>0.687</v>
       </c>
-      <c r="Q15" s="19" t="n">
+      <c r="S15" s="15" t="n">
         <v>0.711</v>
       </c>
     </row>
@@ -1477,48 +1549,54 @@
       <c r="A16" s="8"/>
       <c r="B16" s="14"/>
       <c r="C16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="20" t="n">
+        <v>22</v>
+      </c>
+      <c r="D16" s="18" t="n">
         <v>0.673</v>
       </c>
-      <c r="E16" s="20" t="n">
+      <c r="E16" s="18" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="F16" s="18" t="n">
         <v>0.758</v>
       </c>
-      <c r="F16" s="21" t="n">
+      <c r="G16" s="18" t="n">
         <v>0.674</v>
       </c>
-      <c r="G16" s="20" t="n">
+      <c r="H16" s="18" t="n">
+        <v>0.699</v>
+      </c>
+      <c r="I16" s="18" t="n">
         <v>0.75</v>
       </c>
-      <c r="H16" s="20" t="n">
+      <c r="J16" s="18" t="n">
         <v>0.783</v>
       </c>
-      <c r="I16" s="22" t="n">
+      <c r="K16" s="19" t="n">
         <v>0.615</v>
       </c>
-      <c r="J16" s="21" t="n">
+      <c r="L16" s="18" t="n">
         <v>0.595</v>
       </c>
-      <c r="K16" s="21" t="n">
+      <c r="M16" s="18" t="n">
         <v>0.614</v>
       </c>
-      <c r="L16" s="22" t="n">
+      <c r="N16" s="19" t="n">
         <v>0.699</v>
       </c>
-      <c r="M16" s="21" t="n">
+      <c r="O16" s="18" t="n">
         <v>0.667</v>
       </c>
-      <c r="N16" s="23" t="n">
+      <c r="P16" s="10" t="n">
         <v>0.69</v>
       </c>
-      <c r="O16" s="21" t="n">
+      <c r="Q16" s="18" t="n">
         <v>0.715</v>
       </c>
-      <c r="P16" s="21" t="n">
+      <c r="R16" s="18" t="n">
         <v>0.684</v>
       </c>
-      <c r="Q16" s="23" t="n">
+      <c r="S16" s="10" t="n">
         <v>0.716</v>
       </c>
     </row>
@@ -1526,99 +1604,111 @@
       <c r="A17" s="8"/>
       <c r="B17" s="14"/>
       <c r="C17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="24" t="n">
+        <v>23</v>
+      </c>
+      <c r="D17" s="20" t="n">
         <v>0.717</v>
       </c>
-      <c r="E17" s="24" t="n">
+      <c r="E17" s="20" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="F17" s="20" t="n">
         <v>0.733</v>
       </c>
-      <c r="F17" s="25" t="n">
+      <c r="G17" s="20" t="n">
         <v>0.721</v>
       </c>
-      <c r="G17" s="24" t="n">
+      <c r="H17" s="20" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="I17" s="20" t="n">
         <v>0.775</v>
       </c>
-      <c r="H17" s="24" t="n">
+      <c r="J17" s="20" t="n">
         <v>0.69</v>
       </c>
-      <c r="I17" s="26" t="n">
+      <c r="K17" s="21" t="n">
         <v>0.646</v>
       </c>
-      <c r="J17" s="25" t="n">
+      <c r="L17" s="20" t="n">
         <v>0.611</v>
       </c>
-      <c r="K17" s="25" t="n">
+      <c r="M17" s="20" t="n">
         <v>0.652</v>
       </c>
-      <c r="L17" s="26" t="n">
+      <c r="N17" s="21" t="n">
         <v>0.712</v>
       </c>
-      <c r="M17" s="25" t="n">
+      <c r="O17" s="20" t="n">
         <v>0.678</v>
       </c>
-      <c r="N17" s="27" t="n">
+      <c r="P17" s="8" t="n">
         <v>0.701</v>
       </c>
-      <c r="O17" s="25" t="n">
+      <c r="Q17" s="20" t="n">
         <v>0.725</v>
       </c>
-      <c r="P17" s="25" t="n">
+      <c r="R17" s="20" t="n">
         <v>0.69</v>
       </c>
-      <c r="Q17" s="27" t="n">
+      <c r="S17" s="8" t="n">
         <v>0.705</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="20" t="n">
+        <v>21</v>
+      </c>
+      <c r="D18" s="18" t="n">
         <v>0.748</v>
       </c>
-      <c r="E18" s="20" t="n">
+      <c r="E18" s="18" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="F18" s="18" t="n">
         <v>0.757</v>
       </c>
-      <c r="F18" s="21" t="n">
+      <c r="G18" s="18" t="n">
         <v>0.75</v>
       </c>
-      <c r="G18" s="20" t="n">
+      <c r="H18" s="18" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I18" s="18" t="n">
         <v>0.819</v>
       </c>
-      <c r="H18" s="20" t="n">
+      <c r="J18" s="18" t="n">
         <v>0.818</v>
       </c>
-      <c r="I18" s="22" t="n">
+      <c r="K18" s="19" t="n">
         <v>0.766</v>
       </c>
-      <c r="J18" s="21" t="n">
+      <c r="L18" s="18" t="n">
         <v>0.742</v>
       </c>
-      <c r="K18" s="21" t="n">
+      <c r="M18" s="18" t="n">
         <v>0.765</v>
       </c>
-      <c r="L18" s="22" t="n">
+      <c r="N18" s="19" t="n">
         <v>0.851</v>
       </c>
-      <c r="M18" s="21" t="n">
+      <c r="O18" s="18" t="n">
         <v>0.812</v>
       </c>
-      <c r="N18" s="23" t="n">
+      <c r="P18" s="10" t="n">
         <v>0.842</v>
       </c>
-      <c r="O18" s="21" t="n">
+      <c r="Q18" s="18" t="n">
         <v>0.858</v>
       </c>
-      <c r="P18" s="21" t="n">
+      <c r="R18" s="18" t="n">
         <v>0.816</v>
       </c>
-      <c r="Q18" s="23" t="n">
+      <c r="S18" s="10" t="n">
         <v>0.852</v>
       </c>
     </row>
@@ -1626,48 +1716,54 @@
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="20" t="n">
+        <v>22</v>
+      </c>
+      <c r="D19" s="18" t="n">
         <v>0.783</v>
       </c>
-      <c r="E19" s="20" t="n">
+      <c r="E19" s="18" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="F19" s="18" t="n">
         <v>0.804</v>
       </c>
-      <c r="F19" s="21" t="n">
+      <c r="G19" s="18" t="n">
         <v>0.79</v>
       </c>
-      <c r="G19" s="20" t="n">
+      <c r="H19" s="18" t="n">
+        <v>0.815</v>
+      </c>
+      <c r="I19" s="18" t="n">
         <v>0.818</v>
       </c>
-      <c r="H19" s="20" t="n">
+      <c r="J19" s="18" t="n">
         <v>0.843</v>
       </c>
-      <c r="I19" s="22" t="n">
+      <c r="K19" s="19" t="n">
         <v>0.747</v>
       </c>
-      <c r="J19" s="21" t="n">
+      <c r="L19" s="18" t="n">
         <v>0.738</v>
       </c>
-      <c r="K19" s="21" t="n">
+      <c r="M19" s="18" t="n">
         <v>0.746</v>
       </c>
-      <c r="L19" s="22" t="n">
+      <c r="N19" s="19" t="n">
         <v>0.846</v>
       </c>
-      <c r="M19" s="21" t="n">
+      <c r="O19" s="18" t="n">
         <v>0.811</v>
       </c>
-      <c r="N19" s="23" t="n">
+      <c r="P19" s="10" t="n">
         <v>0.839</v>
       </c>
-      <c r="O19" s="21" t="n">
+      <c r="Q19" s="18" t="n">
         <v>0.854</v>
       </c>
-      <c r="P19" s="21" t="n">
+      <c r="R19" s="18" t="n">
         <v>0.815</v>
       </c>
-      <c r="Q19" s="23" t="n">
+      <c r="S19" s="10" t="n">
         <v>0.855</v>
       </c>
     </row>
@@ -1675,109 +1771,121 @@
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="20" t="n">
+        <v>23</v>
+      </c>
+      <c r="D20" s="18" t="n">
         <v>0.77</v>
       </c>
-      <c r="E20" s="20" t="n">
+      <c r="E20" s="18" t="n">
+        <v>0.837</v>
+      </c>
+      <c r="F20" s="18" t="n">
         <v>0.757</v>
       </c>
-      <c r="F20" s="21" t="n">
+      <c r="G20" s="18" t="n">
         <v>0.776</v>
       </c>
-      <c r="G20" s="20" t="n">
+      <c r="H20" s="18" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="I20" s="18" t="n">
         <v>0.839</v>
       </c>
-      <c r="H20" s="20" t="n">
+      <c r="J20" s="18" t="n">
         <v>0.831</v>
       </c>
-      <c r="I20" s="22" t="n">
+      <c r="K20" s="19" t="n">
         <v>0.806</v>
       </c>
-      <c r="J20" s="21" t="n">
+      <c r="L20" s="18" t="n">
         <v>0.773</v>
       </c>
-      <c r="K20" s="21" t="n">
+      <c r="M20" s="18" t="n">
         <v>0.806</v>
       </c>
-      <c r="L20" s="22" t="n">
+      <c r="N20" s="19" t="n">
         <v>0.875</v>
       </c>
-      <c r="M20" s="21" t="n">
+      <c r="O20" s="18" t="n">
         <v>0.842</v>
       </c>
-      <c r="N20" s="23" t="n">
+      <c r="P20" s="10" t="n">
         <v>0.865</v>
       </c>
-      <c r="O20" s="21" t="n">
+      <c r="Q20" s="18" t="n">
         <v>0.88</v>
       </c>
-      <c r="P20" s="21" t="n">
+      <c r="R20" s="18" t="n">
         <v>0.844</v>
       </c>
-      <c r="Q20" s="23" t="n">
+      <c r="S20" s="10" t="n">
         <v>0.868</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
-      <c r="B21" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29" t="n">
+      <c r="B21" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23" t="n">
         <v>6.2</v>
       </c>
-      <c r="E21" s="29" t="n">
+      <c r="E21" s="23" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="F21" s="23" t="n">
         <v>8394.6</v>
       </c>
-      <c r="F21" s="30" t="n">
-        <v>16715.4</v>
-      </c>
-      <c r="G21" s="29" t="n">
+      <c r="G21" s="26" t="n">
+        <v>4452.3</v>
+      </c>
+      <c r="H21" s="23" t="n">
+        <v>4600.9</v>
+      </c>
+      <c r="I21" s="23" t="n">
         <v>267.3</v>
       </c>
-      <c r="H21" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="31" t="s">
+      <c r="J21" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="31" t="s">
+      <c r="L21" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="M21" s="31" t="s">
+      <c r="M21" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="31" t="s">
+      <c r="N21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="O21" s="31" t="s">
+      <c r="O21" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="P21" s="31" t="s">
+      <c r="P21" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="Q21" s="33" t="s">
+      <c r="Q21" s="24" t="s">
         <v>36</v>
+      </c>
+      <c r="R21" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="S21" s="27" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D22" s="11" t="n">
         <f aca="false">ROUND(2*D25*D28/(D25+D28),3)</f>
@@ -1785,54 +1893,62 @@
       </c>
       <c r="E22" s="11" t="n">
         <f aca="false">ROUND(2*E25*E28/(E25+E28),3)</f>
-        <v>0.701</v>
+        <v>0.666</v>
       </c>
       <c r="F22" s="11" t="n">
         <f aca="false">ROUND(2*F25*F28/(F25+F28),3)</f>
-        <v>0.681</v>
+        <v>0.701</v>
       </c>
       <c r="G22" s="11" t="n">
         <f aca="false">ROUND(2*G25*G28/(G25+G28),3)</f>
-        <v>0.744</v>
+        <v>0.681</v>
       </c>
       <c r="H22" s="11" t="n">
         <f aca="false">ROUND(2*H25*H28/(H25+H28),3)</f>
-        <v>0.719</v>
-      </c>
-      <c r="I22" s="12" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="I22" s="11" t="n">
         <f aca="false">ROUND(2*I25*I28/(I25+I28),3)</f>
-        <v>0.602</v>
+        <v>0.744</v>
       </c>
       <c r="J22" s="11" t="n">
         <f aca="false">ROUND(2*J25*J28/(J25+J28),3)</f>
+        <v>0.719</v>
+      </c>
+      <c r="K22" s="12" t="n">
+        <f aca="false">ROUND(2*K25*K28/(K25+K28),3)</f>
+        <v>0.602</v>
+      </c>
+      <c r="L22" s="11" t="n">
+        <f aca="false">ROUND(2*L25*L28/(L25+L28),3)</f>
         <v>0.604</v>
-      </c>
-      <c r="K22" s="11" t="n">
-        <f aca="false">ROUND(2*K25*K28/(K25+K28),3)</f>
-        <v>0.605</v>
-      </c>
-      <c r="L22" s="12" t="n">
-        <f aca="false">ROUND(2*L25*L28/(L25+L28),3)</f>
-        <v>0.658</v>
       </c>
       <c r="M22" s="11" t="n">
         <f aca="false">ROUND(2*M25*M28/(M25+M28),3)</f>
-        <v>0.651</v>
-      </c>
-      <c r="N22" s="13" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="N22" s="12" t="n">
         <f aca="false">ROUND(2*N25*N28/(N25+N28),3)</f>
-        <v>0.666</v>
+        <v>0.658</v>
       </c>
       <c r="O22" s="11" t="n">
         <f aca="false">ROUND(2*O25*O28/(O25+O28),3)</f>
+        <v>0.651</v>
+      </c>
+      <c r="P22" s="13" t="n">
+        <f aca="false">ROUND(2*P25*P28/(P25+P28),3)</f>
+        <v>0.666</v>
+      </c>
+      <c r="Q22" s="11" t="n">
+        <f aca="false">ROUND(2*Q25*Q28/(Q25+Q28),3)</f>
         <v>0.738</v>
       </c>
-      <c r="P22" s="11" t="n">
-        <f aca="false">ROUND(2*P25*P28/(P25+P28),3)</f>
+      <c r="R22" s="11" t="n">
+        <f aca="false">ROUND(2*R25*R28/(R25+R28),3)</f>
         <v>0.721</v>
       </c>
-      <c r="Q22" s="13" t="n">
-        <f aca="false">ROUND(2*Q25*Q28/(Q25+Q28),3)</f>
+      <c r="S22" s="13" t="n">
+        <f aca="false">ROUND(2*S25*S28/(S25+S28),3)</f>
         <v>0.717</v>
       </c>
     </row>
@@ -1840,7 +1956,7 @@
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D23" s="11" t="n">
         <f aca="false">ROUND(2*D26*D29/(D26+D29),3)</f>
@@ -1848,54 +1964,62 @@
       </c>
       <c r="E23" s="11" t="n">
         <f aca="false">ROUND(2*E26*E29/(E26+E29),3)</f>
-        <v>0.766</v>
+        <v>0.672</v>
       </c>
       <c r="F23" s="11" t="n">
         <f aca="false">ROUND(2*F26*F29/(F26+F29),3)</f>
-        <v>0.678</v>
+        <v>0.766</v>
       </c>
       <c r="G23" s="11" t="n">
         <f aca="false">ROUND(2*G26*G29/(G26+G29),3)</f>
-        <v>0.774</v>
+        <v>0.678</v>
       </c>
       <c r="H23" s="11" t="n">
         <f aca="false">ROUND(2*H26*H29/(H26+H29),3)</f>
-        <v>0.837</v>
-      </c>
-      <c r="I23" s="12" t="n">
+        <v>0.746</v>
+      </c>
+      <c r="I23" s="11" t="n">
         <f aca="false">ROUND(2*I26*I29/(I26+I29),3)</f>
-        <v>0.613</v>
+        <v>0.774</v>
       </c>
       <c r="J23" s="11" t="n">
         <f aca="false">ROUND(2*J26*J29/(J26+J29),3)</f>
+        <v>0.837</v>
+      </c>
+      <c r="K23" s="12" t="n">
+        <f aca="false">ROUND(2*K26*K29/(K26+K29),3)</f>
+        <v>0.613</v>
+      </c>
+      <c r="L23" s="11" t="n">
+        <f aca="false">ROUND(2*L26*L29/(L26+L29),3)</f>
         <v>0.605</v>
-      </c>
-      <c r="K23" s="11" t="n">
-        <f aca="false">ROUND(2*K26*K29/(K26+K29),3)</f>
-        <v>0.603</v>
-      </c>
-      <c r="L23" s="12" t="n">
-        <f aca="false">ROUND(2*L26*L29/(L26+L29),3)</f>
-        <v>0.677</v>
       </c>
       <c r="M23" s="11" t="n">
         <f aca="false">ROUND(2*M26*M29/(M26+M29),3)</f>
-        <v>0.654</v>
-      </c>
-      <c r="N23" s="13" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="N23" s="12" t="n">
         <f aca="false">ROUND(2*N26*N29/(N26+N29),3)</f>
-        <v>0.676</v>
+        <v>0.677</v>
       </c>
       <c r="O23" s="11" t="n">
         <f aca="false">ROUND(2*O26*O29/(O26+O29),3)</f>
+        <v>0.654</v>
+      </c>
+      <c r="P23" s="13" t="n">
+        <f aca="false">ROUND(2*P26*P29/(P26+P29),3)</f>
+        <v>0.676</v>
+      </c>
+      <c r="Q23" s="11" t="n">
+        <f aca="false">ROUND(2*Q26*Q29/(Q26+Q29),3)</f>
         <v>0.754</v>
       </c>
-      <c r="P23" s="11" t="n">
-        <f aca="false">ROUND(2*P26*P29/(P26+P29),3)</f>
+      <c r="R23" s="11" t="n">
+        <f aca="false">ROUND(2*R26*R29/(R26+R29),3)</f>
         <v>0.727</v>
       </c>
-      <c r="Q23" s="13" t="n">
-        <f aca="false">ROUND(2*Q26*Q29/(Q26+Q29),3)</f>
+      <c r="S23" s="13" t="n">
+        <f aca="false">ROUND(2*S26*S29/(S26+S29),3)</f>
         <v>0.763</v>
       </c>
     </row>
@@ -1903,7 +2027,7 @@
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D24" s="11" t="n">
         <f aca="false">ROUND(2*D27*D30/(D27+D30),3)</f>
@@ -1911,105 +2035,119 @@
       </c>
       <c r="E24" s="11" t="n">
         <f aca="false">ROUND(2*E27*E30/(E27+E30),3)</f>
-        <v>0.65</v>
+        <v>0.664</v>
       </c>
       <c r="F24" s="11" t="n">
         <f aca="false">ROUND(2*F27*F30/(F27+F30),3)</f>
-        <v>0.688</v>
+        <v>0.65</v>
       </c>
       <c r="G24" s="11" t="n">
         <f aca="false">ROUND(2*G27*G30/(G27+G30),3)</f>
-        <v>0.721</v>
+        <v>0.688</v>
       </c>
       <c r="H24" s="11" t="n">
         <f aca="false">ROUND(2*H27*H30/(H27+H30),3)</f>
-        <v>0.638</v>
-      </c>
-      <c r="I24" s="12" t="n">
+        <v>0.754</v>
+      </c>
+      <c r="I24" s="11" t="n">
         <f aca="false">ROUND(2*I27*I30/(I27+I30),3)</f>
-        <v>0.595</v>
+        <v>0.721</v>
       </c>
       <c r="J24" s="11" t="n">
         <f aca="false">ROUND(2*J27*J30/(J27+J30),3)</f>
+        <v>0.638</v>
+      </c>
+      <c r="K24" s="12" t="n">
+        <f aca="false">ROUND(2*K27*K30/(K27+K30),3)</f>
+        <v>0.595</v>
+      </c>
+      <c r="L24" s="11" t="n">
+        <f aca="false">ROUND(2*L27*L30/(L27+L30),3)</f>
         <v>0.605</v>
-      </c>
-      <c r="K24" s="11" t="n">
-        <f aca="false">ROUND(2*K27*K30/(K27+K30),3)</f>
-        <v>0.609</v>
-      </c>
-      <c r="L24" s="12" t="n">
-        <f aca="false">ROUND(2*L27*L30/(L27+L30),3)</f>
-        <v>0.644</v>
       </c>
       <c r="M24" s="11" t="n">
         <f aca="false">ROUND(2*M27*M30/(M27+M30),3)</f>
-        <v>0.652</v>
-      </c>
-      <c r="N24" s="13" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="N24" s="12" t="n">
         <f aca="false">ROUND(2*N27*N30/(N27+N30),3)</f>
-        <v>0.661</v>
+        <v>0.644</v>
       </c>
       <c r="O24" s="11" t="n">
         <f aca="false">ROUND(2*O27*O30/(O27+O30),3)</f>
+        <v>0.652</v>
+      </c>
+      <c r="P24" s="13" t="n">
+        <f aca="false">ROUND(2*P27*P30/(P27+P30),3)</f>
+        <v>0.661</v>
+      </c>
+      <c r="Q24" s="11" t="n">
+        <f aca="false">ROUND(2*Q27*Q30/(Q27+Q30),3)</f>
         <v>0.726</v>
       </c>
-      <c r="P24" s="11" t="n">
-        <f aca="false">ROUND(2*P27*P30/(P27+P30),3)</f>
+      <c r="R24" s="11" t="n">
+        <f aca="false">ROUND(2*R27*R30/(R27+R30),3)</f>
         <v>0.717</v>
       </c>
-      <c r="Q24" s="13" t="n">
-        <f aca="false">ROUND(2*Q27*Q30/(Q27+Q30),3)</f>
+      <c r="S24" s="13" t="n">
+        <f aca="false">ROUND(2*S27*S30/(S27+S30),3)</f>
         <v>0.685</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
       <c r="B25" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="17" t="n">
+        <v>21</v>
+      </c>
+      <c r="D25" s="16" t="n">
         <v>0.617</v>
       </c>
-      <c r="E25" s="17" t="n">
+      <c r="E25" s="16" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="F25" s="16" t="n">
         <v>0.684</v>
       </c>
-      <c r="F25" s="17" t="n">
+      <c r="G25" s="16" t="n">
         <v>0.659</v>
       </c>
-      <c r="G25" s="17" t="n">
+      <c r="H25" s="16" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="I25" s="16" t="n">
         <v>0.736</v>
       </c>
-      <c r="H25" s="17" t="n">
+      <c r="J25" s="16" t="n">
         <v>0.678</v>
       </c>
-      <c r="I25" s="18" t="n">
+      <c r="K25" s="17" t="n">
         <v>0.571</v>
       </c>
-      <c r="J25" s="17" t="n">
+      <c r="L25" s="16" t="n">
         <v>0.559</v>
       </c>
-      <c r="K25" s="17" t="n">
+      <c r="M25" s="16" t="n">
         <v>0.576</v>
       </c>
-      <c r="L25" s="18" t="n">
+      <c r="N25" s="17" t="n">
         <v>0.618</v>
       </c>
-      <c r="M25" s="17" t="n">
+      <c r="O25" s="16" t="n">
         <v>0.601</v>
       </c>
-      <c r="N25" s="19" t="n">
+      <c r="P25" s="15" t="n">
         <v>0.627</v>
       </c>
-      <c r="O25" s="17" t="n">
+      <c r="Q25" s="16" t="n">
         <v>0.701</v>
       </c>
-      <c r="P25" s="17" t="n">
+      <c r="R25" s="16" t="n">
         <v>0.687</v>
       </c>
-      <c r="Q25" s="19" t="n">
+      <c r="S25" s="15" t="n">
         <v>0.685</v>
       </c>
     </row>
@@ -2017,48 +2155,54 @@
       <c r="A26" s="8"/>
       <c r="B26" s="14"/>
       <c r="C26" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="21" t="n">
+        <v>22</v>
+      </c>
+      <c r="D26" s="18" t="n">
         <v>0.609</v>
       </c>
-      <c r="E26" s="21" t="n">
+      <c r="E26" s="18" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="F26" s="18" t="n">
         <v>0.745</v>
       </c>
-      <c r="F26" s="21" t="n">
+      <c r="G26" s="18" t="n">
         <v>0.645</v>
       </c>
-      <c r="G26" s="21" t="n">
+      <c r="H26" s="18" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="I26" s="18" t="n">
         <v>0.749</v>
       </c>
-      <c r="H26" s="21" t="n">
+      <c r="J26" s="18" t="n">
         <v>0.818</v>
       </c>
-      <c r="I26" s="22" t="n">
+      <c r="K26" s="19" t="n">
         <v>0.576</v>
       </c>
-      <c r="J26" s="21" t="n">
+      <c r="L26" s="18" t="n">
         <v>0.555</v>
       </c>
-      <c r="K26" s="21" t="n">
+      <c r="M26" s="18" t="n">
         <v>0.567</v>
       </c>
-      <c r="L26" s="22" t="n">
+      <c r="N26" s="19" t="n">
         <v>0.628</v>
       </c>
-      <c r="M26" s="21" t="n">
+      <c r="O26" s="18" t="n">
         <v>0.598</v>
       </c>
-      <c r="N26" s="23" t="n">
+      <c r="P26" s="10" t="n">
         <v>0.628</v>
       </c>
-      <c r="O26" s="21" t="n">
+      <c r="Q26" s="18" t="n">
         <v>0.706</v>
       </c>
-      <c r="P26" s="21" t="n">
+      <c r="R26" s="18" t="n">
         <v>0.687</v>
       </c>
-      <c r="Q26" s="23" t="n">
+      <c r="S26" s="10" t="n">
         <v>0.724</v>
       </c>
     </row>
@@ -2066,99 +2210,111 @@
       <c r="A27" s="8"/>
       <c r="B27" s="14"/>
       <c r="C27" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D27" s="20" t="n">
         <v>0.626</v>
       </c>
-      <c r="E27" s="25" t="n">
+      <c r="E27" s="20" t="n">
+        <v>0.653</v>
+      </c>
+      <c r="F27" s="20" t="n">
         <v>0.633</v>
       </c>
-      <c r="F27" s="25" t="n">
+      <c r="G27" s="20" t="n">
         <v>0.674</v>
       </c>
-      <c r="G27" s="25" t="n">
+      <c r="H27" s="20" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="I27" s="20" t="n">
         <v>0.724</v>
       </c>
-      <c r="H27" s="25" t="n">
+      <c r="J27" s="20" t="n">
         <v>0.579</v>
       </c>
-      <c r="I27" s="26" t="n">
+      <c r="K27" s="21" t="n">
         <v>0.566</v>
       </c>
-      <c r="J27" s="25" t="n">
+      <c r="L27" s="20" t="n">
         <v>0.563</v>
       </c>
-      <c r="K27" s="25" t="n">
+      <c r="M27" s="20" t="n">
         <v>0.585</v>
       </c>
-      <c r="L27" s="26" t="n">
+      <c r="N27" s="21" t="n">
         <v>0.609</v>
       </c>
-      <c r="M27" s="25" t="n">
+      <c r="O27" s="20" t="n">
         <v>0.604</v>
       </c>
-      <c r="N27" s="27" t="n">
+      <c r="P27" s="8" t="n">
         <v>0.627</v>
       </c>
-      <c r="O27" s="25" t="n">
+      <c r="Q27" s="20" t="n">
         <v>0.697</v>
       </c>
-      <c r="P27" s="25" t="n">
+      <c r="R27" s="20" t="n">
         <v>0.686</v>
       </c>
-      <c r="Q27" s="27" t="n">
+      <c r="S27" s="8" t="n">
         <v>0.649</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="21" t="n">
+        <v>21</v>
+      </c>
+      <c r="D28" s="18" t="n">
         <v>0.663</v>
       </c>
-      <c r="E28" s="21" t="n">
+      <c r="E28" s="18" t="n">
+        <v>0.689</v>
+      </c>
+      <c r="F28" s="18" t="n">
         <v>0.718</v>
       </c>
-      <c r="F28" s="21" t="n">
+      <c r="G28" s="18" t="n">
         <v>0.705</v>
       </c>
-      <c r="G28" s="21" t="n">
+      <c r="H28" s="18" t="n">
+        <v>0.769</v>
+      </c>
+      <c r="I28" s="18" t="n">
         <v>0.752</v>
       </c>
-      <c r="H28" s="21" t="n">
+      <c r="J28" s="18" t="n">
         <v>0.765</v>
       </c>
-      <c r="I28" s="22" t="n">
+      <c r="K28" s="19" t="n">
         <v>0.637</v>
       </c>
-      <c r="J28" s="21" t="n">
+      <c r="L28" s="18" t="n">
         <v>0.657</v>
       </c>
-      <c r="K28" s="21" t="n">
+      <c r="M28" s="18" t="n">
         <v>0.636</v>
       </c>
-      <c r="L28" s="22" t="n">
+      <c r="N28" s="19" t="n">
         <v>0.703</v>
       </c>
-      <c r="M28" s="21" t="n">
+      <c r="O28" s="18" t="n">
         <v>0.711</v>
       </c>
-      <c r="N28" s="23" t="n">
+      <c r="P28" s="10" t="n">
         <v>0.71</v>
       </c>
-      <c r="O28" s="21" t="n">
+      <c r="Q28" s="18" t="n">
         <v>0.779</v>
       </c>
-      <c r="P28" s="21" t="n">
+      <c r="R28" s="18" t="n">
         <v>0.759</v>
       </c>
-      <c r="Q28" s="23" t="n">
+      <c r="S28" s="10" t="n">
         <v>0.753</v>
       </c>
     </row>
@@ -2166,48 +2322,54 @@
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="21" t="n">
+        <v>22</v>
+      </c>
+      <c r="D29" s="18" t="n">
         <v>0.689</v>
       </c>
-      <c r="E29" s="21" t="n">
+      <c r="E29" s="18" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="F29" s="18" t="n">
         <v>0.788</v>
       </c>
-      <c r="F29" s="21" t="n">
+      <c r="G29" s="18" t="n">
         <v>0.714</v>
       </c>
-      <c r="G29" s="21" t="n">
+      <c r="H29" s="18" t="n">
+        <v>0.777</v>
+      </c>
+      <c r="I29" s="18" t="n">
         <v>0.801</v>
       </c>
-      <c r="H29" s="21" t="n">
+      <c r="J29" s="18" t="n">
         <v>0.856</v>
       </c>
-      <c r="I29" s="22" t="n">
+      <c r="K29" s="19" t="n">
         <v>0.655</v>
       </c>
-      <c r="J29" s="21" t="n">
+      <c r="L29" s="18" t="n">
         <v>0.666</v>
       </c>
-      <c r="K29" s="21" t="n">
+      <c r="M29" s="18" t="n">
         <v>0.644</v>
       </c>
-      <c r="L29" s="22" t="n">
+      <c r="N29" s="19" t="n">
         <v>0.734</v>
       </c>
-      <c r="M29" s="21" t="n">
+      <c r="O29" s="18" t="n">
         <v>0.721</v>
       </c>
-      <c r="N29" s="23" t="n">
+      <c r="P29" s="10" t="n">
         <v>0.733</v>
       </c>
-      <c r="O29" s="21" t="n">
+      <c r="Q29" s="18" t="n">
         <v>0.809</v>
       </c>
-      <c r="P29" s="21" t="n">
+      <c r="R29" s="18" t="n">
         <v>0.773</v>
       </c>
-      <c r="Q29" s="23" t="n">
+      <c r="S29" s="10" t="n">
         <v>0.807</v>
       </c>
     </row>
@@ -2215,134 +2377,151 @@
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="21" t="n">
+        <v>23</v>
+      </c>
+      <c r="D30" s="18" t="n">
         <v>0.648</v>
       </c>
-      <c r="E30" s="21" t="n">
+      <c r="E30" s="18" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="F30" s="18" t="n">
         <v>0.668</v>
       </c>
-      <c r="F30" s="21" t="n">
+      <c r="G30" s="18" t="n">
         <v>0.702</v>
       </c>
-      <c r="G30" s="21" t="n">
+      <c r="H30" s="18" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="I30" s="18" t="n">
         <v>0.719</v>
       </c>
-      <c r="H30" s="21" t="n">
+      <c r="J30" s="18" t="n">
         <v>0.71</v>
       </c>
-      <c r="I30" s="22" t="n">
+      <c r="K30" s="19" t="n">
         <v>0.628</v>
       </c>
-      <c r="J30" s="21" t="n">
+      <c r="L30" s="18" t="n">
         <v>0.654</v>
       </c>
-      <c r="K30" s="21" t="n">
+      <c r="M30" s="18" t="n">
         <v>0.636</v>
       </c>
-      <c r="L30" s="22" t="n">
+      <c r="N30" s="19" t="n">
         <v>0.683</v>
       </c>
-      <c r="M30" s="21" t="n">
+      <c r="O30" s="18" t="n">
         <v>0.708</v>
       </c>
-      <c r="N30" s="23" t="n">
+      <c r="P30" s="10" t="n">
         <v>0.699</v>
       </c>
-      <c r="O30" s="21" t="n">
+      <c r="Q30" s="18" t="n">
         <v>0.758</v>
       </c>
-      <c r="P30" s="21" t="n">
+      <c r="R30" s="18" t="n">
         <v>0.752</v>
       </c>
-      <c r="Q30" s="23" t="n">
+      <c r="S30" s="10" t="n">
         <v>0.725</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
-      <c r="B31" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="30" t="n">
+      <c r="B31" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="23" t="n">
         <v>0.9</v>
       </c>
-      <c r="E31" s="30" t="n">
+      <c r="E31" s="23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F31" s="23" t="n">
         <v>17.7</v>
       </c>
-      <c r="F31" s="30" t="n">
-        <v>9473.7</v>
-      </c>
-      <c r="G31" s="30" t="n">
+      <c r="G31" s="23" t="n">
+        <v>287.5</v>
+      </c>
+      <c r="H31" s="23" t="n">
+        <v>278.9</v>
+      </c>
+      <c r="I31" s="23" t="n">
         <v>26.4</v>
       </c>
-      <c r="H31" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="J31" s="31" t="s">
+      <c r="J31" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K31" s="31" t="s">
+      <c r="K31" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="L31" s="31" t="s">
+      <c r="L31" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="M31" s="31" t="s">
+      <c r="M31" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="N31" s="31" t="s">
+      <c r="N31" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="O31" s="31" t="s">
+      <c r="O31" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="P31" s="31" t="s">
+      <c r="P31" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="Q31" s="33" t="s">
+      <c r="Q31" s="24" t="s">
         <v>47</v>
       </c>
+      <c r="R31" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="S31" s="27" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="K32" s="35"/>
+      <c r="A32" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
+      <c r="A33" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -2361,8 +2540,8 @@
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A33:H34"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A33:J34"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2379,364 +2558,424 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J20" activeCellId="0" sqref="J20"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.31"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="9" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.16"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="11" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="37" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="37" t="s">
-        <v>12</v>
+      <c r="M1" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="40" t="n">
+      <c r="B2" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="32" t="n">
         <f aca="false">ROUND(2*D3*D4/(D3+D4),3)</f>
         <v>0.723</v>
       </c>
-      <c r="E2" s="40" t="n">
+      <c r="E2" s="32" t="n">
         <f aca="false">ROUND(2*E3*E4/(E3+E4),3)</f>
+        <v>0.777</v>
+      </c>
+      <c r="F2" s="32" t="n">
+        <f aca="false">ROUND(2*F3*F4/(F3+F4),3)</f>
         <v>0.742</v>
       </c>
-      <c r="F2" s="40" t="n">
-        <f aca="false">ROUND(2*F3*F4/(F3+F4),3)</f>
+      <c r="G2" s="32" t="n">
+        <f aca="false">ROUND(2*G3*G4/(G3+G4),3)</f>
         <v>0.704</v>
       </c>
-      <c r="G2" s="40" t="n">
-        <f aca="false">ROUND(2*G3*G4/(G3+G4),3)</f>
+      <c r="H2" s="32" t="n">
+        <f aca="false">ROUND(2*H3*H4/(H3+H4),3)</f>
+        <v>0.778</v>
+      </c>
+      <c r="I2" s="32" t="n">
+        <f aca="false">ROUND(2*I3*I4/(I3+I4),3)</f>
         <v>0.793</v>
       </c>
-      <c r="H2" s="41" t="n">
-        <f aca="false">ROUND(2*H3*H4/(H3+H4),3)</f>
+      <c r="J2" s="33" t="n">
+        <f aca="false">ROUND(2*J3*J4/(J3+J4),3)</f>
         <v>0.819</v>
       </c>
-      <c r="I2" s="40" t="n">
-        <f aca="false">ROUND(2*I3*I4/(I3+I4),3)</f>
+      <c r="K2" s="32" t="n">
+        <f aca="false">ROUND(2*K3*K4/(K3+K4),3)</f>
         <v>0.711</v>
       </c>
-      <c r="J2" s="40" t="n">
-        <f aca="false">ROUND(2*J3*J4/(J3+J4),3)</f>
+      <c r="L2" s="32" t="n">
+        <f aca="false">ROUND(2*L3*L4/(L3+L4),3)</f>
         <v>0.709</v>
       </c>
-      <c r="K2" s="40" t="n">
-        <f aca="false">ROUND(2*K3*K4/(K3+K4),3)</f>
+      <c r="M2" s="32" t="n">
+        <f aca="false">ROUND(2*M3*M4/(M3+M4),3)</f>
         <v>0.789</v>
       </c>
-      <c r="L2" s="40" t="n">
-        <f aca="false">ROUND(2*L3*L4/(L3+L4),3)</f>
+      <c r="N2" s="32" t="n">
+        <f aca="false">ROUND(2*N3*N4/(N3+N4),3)</f>
         <v>0.781</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8"/>
-      <c r="B3" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="39" t="n">
+      <c r="B3" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="27" t="n">
         <v>0.721</v>
       </c>
-      <c r="E3" s="39" t="n">
+      <c r="E3" s="27" t="n">
+        <v>0.774</v>
+      </c>
+      <c r="F3" s="27" t="n">
         <v>0.743</v>
       </c>
-      <c r="F3" s="33" t="n">
+      <c r="G3" s="27" t="n">
         <v>0.697</v>
       </c>
-      <c r="G3" s="39" t="n">
+      <c r="H3" s="27" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="I3" s="27" t="n">
         <v>0.795</v>
       </c>
-      <c r="H3" s="42" t="n">
+      <c r="J3" s="34" t="n">
         <v>0.82</v>
       </c>
-      <c r="I3" s="33" t="n">
+      <c r="K3" s="27" t="n">
         <v>0.707</v>
       </c>
-      <c r="J3" s="33" t="n">
+      <c r="L3" s="27" t="n">
         <v>0.703</v>
       </c>
-      <c r="K3" s="33" t="n">
+      <c r="M3" s="27" t="n">
         <v>0.772</v>
       </c>
-      <c r="L3" s="33" t="n">
+      <c r="N3" s="27" t="n">
         <v>0.775</v>
       </c>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8"/>
-      <c r="B4" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="39" t="n">
+      <c r="B4" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="27" t="n">
         <v>0.725</v>
       </c>
-      <c r="E4" s="39" t="n">
+      <c r="E4" s="27" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F4" s="27" t="n">
         <v>0.742</v>
       </c>
-      <c r="F4" s="33" t="n">
+      <c r="G4" s="27" t="n">
         <v>0.711</v>
       </c>
-      <c r="G4" s="39" t="n">
+      <c r="H4" s="27" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="I4" s="27" t="n">
         <v>0.792</v>
       </c>
-      <c r="H4" s="42" t="n">
+      <c r="J4" s="34" t="n">
         <v>0.819</v>
       </c>
-      <c r="I4" s="33" t="n">
+      <c r="K4" s="27" t="n">
         <v>0.716</v>
       </c>
-      <c r="J4" s="33" t="n">
+      <c r="L4" s="27" t="n">
         <v>0.715</v>
       </c>
-      <c r="K4" s="33" t="n">
+      <c r="M4" s="27" t="n">
         <v>0.806</v>
       </c>
-      <c r="L4" s="33" t="n">
+      <c r="N4" s="27" t="n">
         <v>0.788</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
-      <c r="B5" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="n">
+      <c r="B5" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="27" t="n">
         <v>0.5</v>
       </c>
-      <c r="E5" s="39" t="n">
+      <c r="E5" s="27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="27" t="n">
         <v>2.3</v>
       </c>
-      <c r="F5" s="33" t="n">
-        <v>2785.6</v>
-      </c>
-      <c r="G5" s="39" t="n">
+      <c r="G5" s="27" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="H5" s="27" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="I5" s="27" t="n">
         <v>26.5</v>
       </c>
-      <c r="H5" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="33" t="n">
+      <c r="J5" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="27" t="n">
         <v>17</v>
       </c>
-      <c r="J5" s="33" t="n">
+      <c r="L5" s="27" t="n">
         <v>10.4</v>
       </c>
-      <c r="K5" s="33" t="n">
+      <c r="M5" s="27" t="n">
         <v>17.1</v>
       </c>
-      <c r="L5" s="33" t="n">
+      <c r="N5" s="27" t="n">
         <v>10.4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="40" t="n">
+        <v>28</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="32" t="n">
         <f aca="false">ROUND(2*D7*D8/(D7+D8),3)</f>
         <v>0.72</v>
       </c>
-      <c r="E6" s="40" t="n">
+      <c r="E6" s="32" t="n">
         <f aca="false">ROUND(2*E7*E8/(E7+E8),3)</f>
+        <v>0.776</v>
+      </c>
+      <c r="F6" s="32" t="n">
+        <f aca="false">ROUND(2*F7*F8/(F7+F8),3)</f>
         <v>0.751</v>
       </c>
-      <c r="F6" s="40" t="n">
-        <f aca="false">ROUND(2*F7*F8/(F7+F8),3)</f>
+      <c r="G6" s="32" t="n">
+        <f aca="false">ROUND(2*G7*G8/(G7+G8),3)</f>
         <v>0.723</v>
       </c>
-      <c r="G6" s="41" t="n">
-        <f aca="false">ROUND(2*G7*G8/(G7+G8),3)</f>
+      <c r="H6" s="32" t="n">
+        <f aca="false">ROUND(2*H7*H8/(H7+H8),3)</f>
+        <v>0.748</v>
+      </c>
+      <c r="I6" s="33" t="n">
+        <f aca="false">ROUND(2*I7*I8/(I7+I8),3)</f>
         <v>0.789</v>
       </c>
-      <c r="H6" s="40" t="n">
-        <f aca="false">ROUND(2*H7*H8/(H7+H8),3)</f>
+      <c r="J6" s="32" t="n">
+        <f aca="false">ROUND(2*J7*J8/(J7+J8),3)</f>
         <v>0.774</v>
       </c>
-      <c r="I6" s="40" t="n">
-        <f aca="false">ROUND(2*I7*I8/(I7+I8),3)</f>
+      <c r="K6" s="32" t="n">
+        <f aca="false">ROUND(2*K7*K8/(K7+K8),3)</f>
         <v>0.691</v>
       </c>
-      <c r="J6" s="40" t="n">
-        <f aca="false">ROUND(2*J7*J8/(J7+J8),3)</f>
+      <c r="L6" s="32" t="n">
+        <f aca="false">ROUND(2*L7*L8/(L7+L8),3)</f>
         <v>0.665</v>
       </c>
-      <c r="K6" s="40" t="n">
-        <f aca="false">ROUND(2*K7*K8/(K7+K8),3)</f>
+      <c r="M6" s="32" t="n">
+        <f aca="false">ROUND(2*M7*M8/(M7+M8),3)</f>
         <v>0.771</v>
       </c>
-      <c r="L6" s="40" t="n">
-        <f aca="false">ROUND(2*L7*L8/(L7+L8),3)</f>
+      <c r="N6" s="32" t="n">
+        <f aca="false">ROUND(2*N7*N8/(N7+N8),3)</f>
         <v>0.735</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
-      <c r="B7" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="39" t="n">
+      <c r="B7" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="27" t="n">
         <v>0.694</v>
       </c>
-      <c r="E7" s="39" t="n">
+      <c r="E7" s="27" t="n">
+        <v>0.735</v>
+      </c>
+      <c r="F7" s="27" t="n">
         <v>0.746</v>
       </c>
-      <c r="F7" s="33" t="n">
+      <c r="G7" s="27" t="n">
         <v>0.697</v>
       </c>
-      <c r="G7" s="42" t="n">
+      <c r="H7" s="27" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="I7" s="34" t="n">
         <v>0.762</v>
       </c>
-      <c r="H7" s="39" t="n">
+      <c r="J7" s="27" t="n">
         <v>0.734</v>
       </c>
-      <c r="I7" s="33" t="n">
+      <c r="K7" s="27" t="n">
         <v>0.63</v>
       </c>
-      <c r="J7" s="33" t="n">
+      <c r="L7" s="27" t="n">
         <v>0.603</v>
       </c>
-      <c r="K7" s="33" t="n">
+      <c r="M7" s="27" t="n">
         <v>0.705</v>
       </c>
-      <c r="L7" s="33" t="n">
+      <c r="N7" s="27" t="n">
         <v>0.672</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
-      <c r="B8" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="39" t="n">
+      <c r="B8" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="27" t="n">
         <v>0.748</v>
       </c>
-      <c r="E8" s="39" t="n">
+      <c r="E8" s="27" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="F8" s="27" t="n">
         <v>0.757</v>
       </c>
-      <c r="F8" s="33" t="n">
+      <c r="G8" s="27" t="n">
         <v>0.75</v>
       </c>
-      <c r="G8" s="39" t="n">
+      <c r="H8" s="27" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="I8" s="27" t="n">
         <v>0.819</v>
       </c>
-      <c r="H8" s="39" t="n">
+      <c r="J8" s="27" t="n">
         <v>0.818</v>
       </c>
-      <c r="I8" s="33" t="n">
+      <c r="K8" s="27" t="n">
         <v>0.766</v>
       </c>
-      <c r="J8" s="33" t="n">
+      <c r="L8" s="27" t="n">
         <v>0.742</v>
       </c>
-      <c r="K8" s="44" t="n">
+      <c r="M8" s="34" t="n">
         <v>0.851</v>
       </c>
-      <c r="L8" s="33" t="n">
+      <c r="N8" s="27" t="n">
         <v>0.812</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
-      <c r="B9" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="39" t="n">
+      <c r="B9" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="27" t="n">
         <v>6.2</v>
       </c>
-      <c r="E9" s="39" t="n">
+      <c r="E9" s="27" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="F9" s="27" t="n">
         <v>8394.6</v>
       </c>
-      <c r="F9" s="33" t="n">
-        <v>16715.4</v>
-      </c>
-      <c r="G9" s="39" t="n">
+      <c r="G9" s="26" t="n">
+        <v>4452.3</v>
+      </c>
+      <c r="H9" s="27" t="n">
+        <v>4600.9</v>
+      </c>
+      <c r="I9" s="27" t="n">
         <v>267.3</v>
       </c>
-      <c r="H9" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="33" t="s">
+      <c r="J9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="33" t="s">
+      <c r="K9" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="33" t="s">
-        <v>32</v>
+      <c r="M9" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2761,10 +3000,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:J29"/>
+  <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L25" activeCellId="0" sqref="L25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O25" activeCellId="0" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2773,688 +3012,968 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="2" style="6" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="13.63"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="12.78"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="15.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="6" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="15.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="6" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="A2" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="H3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="37" t="n">
+        <v>0.714748633931574</v>
+      </c>
+      <c r="D4" s="37" t="n">
+        <v>0.957540649097073</v>
+      </c>
+      <c r="E4" s="37" t="n">
+        <v>0.474379809304658</v>
+      </c>
+      <c r="F4" s="37" t="n">
+        <v>0.818422944570017</v>
+      </c>
+      <c r="G4" s="38" t="n">
+        <v>0.00443030753633748</v>
+      </c>
+      <c r="H4" s="37" t="n">
+        <v>0.295432540095121</v>
+      </c>
+      <c r="I4" s="38" t="n">
+        <v>0.00323966900068798</v>
+      </c>
+      <c r="J4" s="38" t="n">
+        <v>0.00427870901149946</v>
+      </c>
+      <c r="K4" s="38" t="n">
+        <v>4.75094168310171E-006</v>
+      </c>
+      <c r="L4" s="38" t="n">
+        <v>0.00723381490170699</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="B5" s="37" t="n">
+        <v>0.714748633931574</v>
+      </c>
+      <c r="C5" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="37" t="n">
+        <v>0.75389196237731</v>
+      </c>
+      <c r="E5" s="37" t="n">
+        <v>0.706002363672323</v>
+      </c>
+      <c r="F5" s="37" t="n">
+        <v>0.533444263236488</v>
+      </c>
+      <c r="G5" s="38" t="n">
+        <v>0.00717013892723614</v>
+      </c>
+      <c r="H5" s="37" t="n">
+        <v>0.456018656321116</v>
+      </c>
+      <c r="I5" s="38" t="n">
+        <v>0.00510172041114741</v>
+      </c>
+      <c r="J5" s="38" t="n">
+        <v>0.00684192709300344</v>
+      </c>
+      <c r="K5" s="38" t="n">
+        <v>3.6884780117404E-006</v>
+      </c>
+      <c r="L5" s="37" t="n">
+        <v>0.0117679295708231</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="37" t="n">
+        <v>0.957540649097073</v>
+      </c>
+      <c r="C6" s="37" t="n">
+        <v>0.75389196237731</v>
+      </c>
+      <c r="D6" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="37" t="n">
+        <v>0.504043652412933</v>
+      </c>
+      <c r="F6" s="37" t="n">
+        <v>0.77401540075107</v>
+      </c>
+      <c r="G6" s="38" t="n">
+        <v>0.00466833332930197</v>
+      </c>
+      <c r="H6" s="37" t="n">
+        <v>0.314996170649219</v>
+      </c>
+      <c r="I6" s="38" t="n">
+        <v>0.00338816682933919</v>
+      </c>
+      <c r="J6" s="38" t="n">
+        <v>0.00449186238377379</v>
+      </c>
+      <c r="K6" s="38" t="n">
+        <v>4.33721427403821E-006</v>
+      </c>
+      <c r="L6" s="38" t="n">
+        <v>0.00762531805688691</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="37" t="n">
+        <v>0.474379809304658</v>
+      </c>
+      <c r="C7" s="37" t="n">
+        <v>0.706002363672323</v>
+      </c>
+      <c r="D7" s="37" t="n">
+        <v>0.504043652412933</v>
+      </c>
+      <c r="E7" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="37" t="n">
+        <v>0.324997766881125</v>
+      </c>
+      <c r="G7" s="37" t="n">
+        <v>0.019630195718658</v>
+      </c>
+      <c r="H7" s="37" t="n">
+        <v>0.69974052235936</v>
+      </c>
+      <c r="I7" s="37" t="n">
+        <v>0.0152803420223846</v>
+      </c>
+      <c r="J7" s="37" t="n">
+        <v>0.0197189593076012</v>
+      </c>
+      <c r="K7" s="38" t="n">
+        <v>2.23811693965422E-005</v>
+      </c>
+      <c r="L7" s="37" t="n">
+        <v>0.032662507025007</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="37" t="n">
+        <v>0.818422944570017</v>
+      </c>
+      <c r="C8" s="37" t="n">
+        <v>0.533444263236488</v>
+      </c>
+      <c r="D8" s="37" t="n">
+        <v>0.77401540075107</v>
+      </c>
+      <c r="E8" s="37" t="n">
+        <v>0.324997766881125</v>
+      </c>
+      <c r="F8" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="38" t="n">
+        <v>0.00152510157074715</v>
+      </c>
+      <c r="H8" s="37" t="n">
+        <v>0.18901939844168</v>
+      </c>
+      <c r="I8" s="38" t="n">
+        <v>0.000992284984305612</v>
+      </c>
+      <c r="J8" s="38" t="n">
+        <v>0.00137542191799129</v>
+      </c>
+      <c r="K8" s="38" t="n">
+        <v>5.20499761659124E-007</v>
+      </c>
+      <c r="L8" s="38" t="n">
+        <v>0.00242605619002221</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="38" t="n">
+        <v>0.00443030753633748</v>
+      </c>
+      <c r="C9" s="38" t="n">
+        <v>0.00717013892723614</v>
+      </c>
+      <c r="D9" s="38" t="n">
+        <v>0.00466833332930197</v>
+      </c>
+      <c r="E9" s="37" t="n">
+        <v>0.019630195718658</v>
+      </c>
+      <c r="F9" s="38" t="n">
+        <v>0.00152510157074715</v>
+      </c>
+      <c r="G9" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" s="37" t="n">
+        <v>0.0627099810406153</v>
+      </c>
+      <c r="I9" s="37" t="n">
+        <v>0.961150881676787</v>
+      </c>
+      <c r="J9" s="37" t="n">
+        <v>0.903306505371742</v>
+      </c>
+      <c r="K9" s="37" t="n">
+        <v>0.130863427296855</v>
+      </c>
+      <c r="L9" s="37" t="n">
+        <v>0.70964724507124</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="37" t="n">
+        <v>0.295432540095121</v>
+      </c>
+      <c r="C10" s="37" t="n">
+        <v>0.456018656321116</v>
+      </c>
+      <c r="D10" s="37" t="n">
+        <v>0.314996170649219</v>
+      </c>
+      <c r="E10" s="37" t="n">
+        <v>0.69974052235936</v>
+      </c>
+      <c r="F10" s="37" t="n">
+        <v>0.18901939844168</v>
+      </c>
+      <c r="G10" s="37" t="n">
+        <v>0.0627099810406153</v>
+      </c>
+      <c r="H10" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="37" t="n">
+        <v>0.0551399230478992</v>
+      </c>
+      <c r="J10" s="37" t="n">
+        <v>0.0668864978432009</v>
+      </c>
+      <c r="K10" s="38" t="n">
+        <v>0.000338676746418268</v>
+      </c>
+      <c r="L10" s="37" t="n">
+        <v>0.102562435042994</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="B11" s="38" t="n">
+        <v>0.00323966900068798</v>
+      </c>
+      <c r="C11" s="38" t="n">
+        <v>0.00510172041114741</v>
+      </c>
+      <c r="D11" s="38" t="n">
+        <v>0.00338816682933919</v>
+      </c>
+      <c r="E11" s="37" t="n">
+        <v>0.0152803420223846</v>
+      </c>
+      <c r="F11" s="38" t="n">
+        <v>0.000992284984305612</v>
+      </c>
+      <c r="G11" s="37" t="n">
+        <v>0.961150881676787</v>
+      </c>
+      <c r="H11" s="37" t="n">
+        <v>0.0551399230478992</v>
+      </c>
+      <c r="I11" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" s="37" t="n">
+        <v>0.937785636744972</v>
+      </c>
+      <c r="K11" s="37" t="n">
+        <v>0.0898785408595605</v>
+      </c>
+      <c r="L11" s="37" t="n">
+        <v>0.729712574749583</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="B12" s="38" t="n">
+        <v>0.00427870901149946</v>
+      </c>
+      <c r="C12" s="38" t="n">
+        <v>0.00684192709300344</v>
+      </c>
+      <c r="D12" s="38" t="n">
+        <v>0.00449186238377379</v>
+      </c>
+      <c r="E12" s="37" t="n">
+        <v>0.0197189593076012</v>
+      </c>
+      <c r="F12" s="38" t="n">
+        <v>0.00137542191799129</v>
+      </c>
+      <c r="G12" s="37" t="n">
+        <v>0.903306505371742</v>
+      </c>
+      <c r="H12" s="37" t="n">
+        <v>0.0668864978432009</v>
+      </c>
+      <c r="I12" s="37" t="n">
+        <v>0.937785636744972</v>
+      </c>
+      <c r="J12" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="37" t="n">
+        <v>0.0779524618889699</v>
+      </c>
+      <c r="L12" s="37" t="n">
+        <v>0.792682079644613</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="38" t="n">
+        <v>4.75094168310171E-006</v>
+      </c>
+      <c r="C13" s="38" t="n">
+        <v>3.6884780117404E-006</v>
+      </c>
+      <c r="D13" s="38" t="n">
+        <v>4.33721427403821E-006</v>
+      </c>
+      <c r="E13" s="38" t="n">
+        <v>2.23811693965422E-005</v>
+      </c>
+      <c r="F13" s="38" t="n">
+        <v>5.20499761659124E-007</v>
+      </c>
+      <c r="G13" s="37" t="n">
+        <v>0.130863427296855</v>
+      </c>
+      <c r="H13" s="38" t="n">
+        <v>0.000338676746418268</v>
+      </c>
+      <c r="I13" s="37" t="n">
+        <v>0.0898785408595605</v>
+      </c>
+      <c r="J13" s="37" t="n">
+        <v>0.0779524618889699</v>
+      </c>
+      <c r="K13" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="37" t="n">
+        <v>0.0342482084527107</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="38" t="n">
+        <v>0.00723381490170699</v>
+      </c>
+      <c r="C14" s="37" t="n">
+        <v>0.0117679295708231</v>
+      </c>
+      <c r="D14" s="38" t="n">
+        <v>0.00762531805688691</v>
+      </c>
+      <c r="E14" s="37" t="n">
+        <v>0.032662507025007</v>
+      </c>
+      <c r="F14" s="38" t="n">
+        <v>0.00242605619002221</v>
+      </c>
+      <c r="G14" s="37" t="n">
+        <v>0.70964724507124</v>
+      </c>
+      <c r="H14" s="37" t="n">
+        <v>0.102562435042994</v>
+      </c>
+      <c r="I14" s="37" t="n">
+        <v>0.729712574749583</v>
+      </c>
+      <c r="J14" s="37" t="n">
+        <v>0.792682079644613</v>
+      </c>
+      <c r="K14" s="37" t="n">
+        <v>0.0342482084527107</v>
+      </c>
+      <c r="L14" s="37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="E17" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="I17" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="37" t="n">
+        <v>0.711411801097545</v>
+      </c>
+      <c r="D18" s="37" t="n">
+        <v>0.782479648590841</v>
+      </c>
+      <c r="E18" s="37" t="n">
+        <v>0.860527532024685</v>
+      </c>
+      <c r="F18" s="37" t="n">
+        <v>0.845679510188673</v>
+      </c>
+      <c r="G18" s="37" t="n">
+        <v>0.247102821207723</v>
+      </c>
+      <c r="H18" s="37" t="n">
+        <v>0.188678920519769</v>
+      </c>
+      <c r="I18" s="37" t="n">
+        <v>0.133534414972666</v>
+      </c>
+      <c r="J18" s="37" t="n">
+        <v>0.0247248784644662</v>
+      </c>
+      <c r="K18" s="37" t="n">
+        <v>0.0638594258001617</v>
+      </c>
+      <c r="L18" s="37" t="n">
+        <v>0.162148452369083</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="37" t="n">
+        <v>0.711411801097545</v>
+      </c>
+      <c r="C19" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="37" t="n">
+        <v>0.49589998730605</v>
+      </c>
+      <c r="E19" s="37" t="n">
+        <v>0.569165401380672</v>
+      </c>
+      <c r="F19" s="37" t="n">
+        <v>0.558715005951011</v>
+      </c>
+      <c r="G19" s="37" t="n">
+        <v>0.372193112464921</v>
+      </c>
+      <c r="H19" s="37" t="n">
+        <v>0.287320483839445</v>
+      </c>
+      <c r="I19" s="37" t="n">
+        <v>0.203031022405904</v>
+      </c>
+      <c r="J19" s="37" t="n">
+        <v>0.0320950448749731</v>
+      </c>
+      <c r="K19" s="37" t="n">
+        <v>0.0933498184951495</v>
+      </c>
+      <c r="L19" s="37" t="n">
+        <v>0.247330919728258</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="37" t="n">
+        <v>0.782479648590841</v>
+      </c>
+      <c r="C20" s="37" t="n">
+        <v>0.49589998730605</v>
+      </c>
+      <c r="D20" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="37" t="n">
+        <v>0.919278145720976</v>
+      </c>
+      <c r="F20" s="37" t="n">
+        <v>0.93696127120142</v>
+      </c>
+      <c r="G20" s="37" t="n">
+        <v>0.140986001067181</v>
+      </c>
+      <c r="H20" s="37" t="n">
+        <v>0.100143373663272</v>
+      </c>
+      <c r="I20" s="37" t="n">
+        <v>0.065305830080741</v>
+      </c>
+      <c r="J20" s="38" t="n">
+        <v>0.00858490908541508</v>
+      </c>
+      <c r="K20" s="37" t="n">
+        <v>0.027245153436443</v>
+      </c>
+      <c r="L20" s="37" t="n">
+        <v>0.0827129880713282</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="37" t="n">
+        <v>0.860527532024685</v>
+      </c>
+      <c r="C21" s="37" t="n">
+        <v>0.569165401380672</v>
+      </c>
+      <c r="D21" s="37" t="n">
+        <v>0.919278145720976</v>
+      </c>
+      <c r="E21" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" s="37" t="n">
+        <v>0.983176080002237</v>
+      </c>
+      <c r="G21" s="37" t="n">
+        <v>0.173172428425893</v>
+      </c>
+      <c r="H21" s="37" t="n">
+        <v>0.126110813420478</v>
+      </c>
+      <c r="I21" s="37" t="n">
+        <v>0.0845423446402642</v>
+      </c>
+      <c r="J21" s="37" t="n">
+        <v>0.0124154571363616</v>
+      </c>
+      <c r="K21" s="37" t="n">
+        <v>0.0368705770232143</v>
+      </c>
+      <c r="L21" s="37" t="n">
+        <v>0.105581018219611</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="46" t="n">
+      <c r="B22" s="37" t="n">
+        <v>0.845679510188673</v>
+      </c>
+      <c r="C22" s="37" t="n">
+        <v>0.558715005951011</v>
+      </c>
+      <c r="D22" s="37" t="n">
+        <v>0.93696127120142</v>
+      </c>
+      <c r="E22" s="37" t="n">
+        <v>0.983176080002237</v>
+      </c>
+      <c r="F22" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="46" t="n">
-        <v>0.714748633931574</v>
-      </c>
-      <c r="D4" s="46" t="n">
-        <v>0.957540649097073</v>
-      </c>
-      <c r="E4" s="46" t="n">
-        <v>0.474379809304658</v>
-      </c>
-      <c r="F4" s="46" t="n">
-        <v>0.818422944570017</v>
-      </c>
-      <c r="G4" s="47" t="n">
-        <v>0.00323966900068798</v>
-      </c>
-      <c r="H4" s="47" t="n">
-        <v>0.00427870901149946</v>
-      </c>
-      <c r="I4" s="47" t="n">
-        <v>4.75094168310171E-006</v>
-      </c>
-      <c r="J4" s="47" t="n">
-        <v>0.00723381490170699</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37" t="s">
+      <c r="G22" s="37" t="n">
+        <v>0.171497569852203</v>
+      </c>
+      <c r="H22" s="37" t="n">
+        <v>0.125466720983247</v>
+      </c>
+      <c r="I22" s="37" t="n">
+        <v>0.0846724292622886</v>
+      </c>
+      <c r="J22" s="37" t="n">
+        <v>0.0129661661798297</v>
+      </c>
+      <c r="K22" s="37" t="n">
+        <v>0.0374668281879344</v>
+      </c>
+      <c r="L22" s="37" t="n">
+        <v>0.105357105314806</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="46" t="n">
-        <v>0.714748633931574</v>
-      </c>
-      <c r="C5" s="46" t="n">
+      <c r="B23" s="37" t="n">
+        <v>0.247102821207723</v>
+      </c>
+      <c r="C23" s="37" t="n">
+        <v>0.372193112464921</v>
+      </c>
+      <c r="D23" s="37" t="n">
+        <v>0.140986001067181</v>
+      </c>
+      <c r="E23" s="37" t="n">
+        <v>0.173172428425893</v>
+      </c>
+      <c r="F23" s="37" t="n">
+        <v>0.171497569852203</v>
+      </c>
+      <c r="G23" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="46" t="n">
-        <v>0.75389196237731</v>
-      </c>
-      <c r="E5" s="46" t="n">
-        <v>0.706002363672323</v>
-      </c>
-      <c r="F5" s="46" t="n">
-        <v>0.533444263236488</v>
-      </c>
-      <c r="G5" s="47" t="n">
-        <v>0.00510172041114741</v>
-      </c>
-      <c r="H5" s="47" t="n">
-        <v>0.00684192709300344</v>
-      </c>
-      <c r="I5" s="47" t="n">
-        <v>3.6884780117404E-006</v>
-      </c>
-      <c r="J5" s="46" t="n">
-        <v>0.0117679295708231</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="46" t="n">
-        <v>0.957540649097073</v>
-      </c>
-      <c r="C6" s="46" t="n">
-        <v>0.75389196237731</v>
-      </c>
-      <c r="D6" s="46" t="n">
+      <c r="H23" s="37" t="n">
+        <v>0.899228063480899</v>
+      </c>
+      <c r="I23" s="37" t="n">
+        <v>0.767043279737067</v>
+      </c>
+      <c r="J23" s="37" t="n">
+        <v>0.293768338770775</v>
+      </c>
+      <c r="K23" s="37" t="n">
+        <v>0.503816606491465</v>
+      </c>
+      <c r="L23" s="37" t="n">
+        <v>0.84428477092991</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="37" t="n">
+        <v>0.188678920519769</v>
+      </c>
+      <c r="C24" s="37" t="n">
+        <v>0.287320483839445</v>
+      </c>
+      <c r="D24" s="37" t="n">
+        <v>0.100143373663272</v>
+      </c>
+      <c r="E24" s="37" t="n">
+        <v>0.126110813420478</v>
+      </c>
+      <c r="F24" s="37" t="n">
+        <v>0.125466720983247</v>
+      </c>
+      <c r="G24" s="37" t="n">
+        <v>0.899228063480899</v>
+      </c>
+      <c r="H24" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="46" t="n">
-        <v>0.504043652412933</v>
-      </c>
-      <c r="F6" s="46" t="n">
-        <v>0.77401540075107</v>
-      </c>
-      <c r="G6" s="47" t="n">
-        <v>0.00338816682933919</v>
-      </c>
-      <c r="H6" s="47" t="n">
-        <v>0.00449186238377379</v>
-      </c>
-      <c r="I6" s="47" t="n">
-        <v>4.33721427403821E-006</v>
-      </c>
-      <c r="J6" s="47" t="n">
-        <v>0.00762531805688691</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37" t="s">
+      <c r="I24" s="37" t="n">
+        <v>0.861951470829309</v>
+      </c>
+      <c r="J24" s="37" t="n">
+        <v>0.334283129136246</v>
+      </c>
+      <c r="K24" s="37" t="n">
+        <v>0.572556107403261</v>
+      </c>
+      <c r="L24" s="37" t="n">
+        <v>0.943790118641581</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="46" t="n">
-        <v>0.474379809304658</v>
-      </c>
-      <c r="C7" s="46" t="n">
-        <v>0.706002363672323</v>
-      </c>
-      <c r="D7" s="46" t="n">
-        <v>0.504043652412933</v>
-      </c>
-      <c r="E7" s="46" t="n">
+      <c r="B25" s="37" t="n">
+        <v>0.133534414972666</v>
+      </c>
+      <c r="C25" s="37" t="n">
+        <v>0.203031022405904</v>
+      </c>
+      <c r="D25" s="37" t="n">
+        <v>0.065305830080741</v>
+      </c>
+      <c r="E25" s="37" t="n">
+        <v>0.0845423446402642</v>
+      </c>
+      <c r="F25" s="37" t="n">
+        <v>0.0846724292622886</v>
+      </c>
+      <c r="G25" s="37" t="n">
+        <v>0.767043279737067</v>
+      </c>
+      <c r="H25" s="37" t="n">
+        <v>0.861951470829309</v>
+      </c>
+      <c r="I25" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="46" t="n">
-        <v>0.324997766881125</v>
-      </c>
-      <c r="G7" s="46" t="n">
-        <v>0.0152803420223846</v>
-      </c>
-      <c r="H7" s="46" t="n">
-        <v>0.0197189593076012</v>
-      </c>
-      <c r="I7" s="47" t="n">
-        <v>2.23811693965422E-005</v>
-      </c>
-      <c r="J7" s="46" t="n">
-        <v>0.032662507025007</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37" t="s">
+      <c r="J25" s="37" t="n">
+        <v>0.415095566094501</v>
+      </c>
+      <c r="K25" s="37" t="n">
+        <v>0.686609758608552</v>
+      </c>
+      <c r="L25" s="37" t="n">
+        <v>0.916405547310892</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="46" t="n">
-        <v>0.818422944570017</v>
-      </c>
-      <c r="C8" s="46" t="n">
-        <v>0.533444263236488</v>
-      </c>
-      <c r="D8" s="46" t="n">
-        <v>0.77401540075107</v>
-      </c>
-      <c r="E8" s="46" t="n">
-        <v>0.324997766881125</v>
-      </c>
-      <c r="F8" s="46" t="n">
+      <c r="B26" s="37" t="n">
+        <v>0.0247248784644662</v>
+      </c>
+      <c r="C26" s="37" t="n">
+        <v>0.0320950448749731</v>
+      </c>
+      <c r="D26" s="38" t="n">
+        <v>0.00858490908541508</v>
+      </c>
+      <c r="E26" s="37" t="n">
+        <v>0.0124154571363616</v>
+      </c>
+      <c r="F26" s="37" t="n">
+        <v>0.0129661661798297</v>
+      </c>
+      <c r="G26" s="37" t="n">
+        <v>0.293768338770775</v>
+      </c>
+      <c r="H26" s="37" t="n">
+        <v>0.334283129136246</v>
+      </c>
+      <c r="I26" s="37" t="n">
+        <v>0.415095566094501</v>
+      </c>
+      <c r="J26" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="47" t="n">
-        <v>0.000992284984305612</v>
-      </c>
-      <c r="H8" s="47" t="n">
-        <v>0.00137542191799129</v>
-      </c>
-      <c r="I8" s="47" t="n">
-        <v>5.20499761659124E-007</v>
-      </c>
-      <c r="J8" s="47" t="n">
-        <v>0.00242605619002221</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="47" t="n">
-        <v>0.00323966900068798</v>
-      </c>
-      <c r="C9" s="47" t="n">
-        <v>0.00510172041114741</v>
-      </c>
-      <c r="D9" s="47" t="n">
-        <v>0.00338816682933919</v>
-      </c>
-      <c r="E9" s="46" t="n">
-        <v>0.0152803420223846</v>
-      </c>
-      <c r="F9" s="47" t="n">
-        <v>0.000992284984305612</v>
-      </c>
-      <c r="G9" s="46" t="n">
+      <c r="K26" s="37" t="n">
+        <v>0.695659319592635</v>
+      </c>
+      <c r="L26" s="37" t="n">
+        <v>0.360227836965591</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="37" t="n">
+        <v>0.0638594258001617</v>
+      </c>
+      <c r="C27" s="37" t="n">
+        <v>0.0933498184951495</v>
+      </c>
+      <c r="D27" s="37" t="n">
+        <v>0.027245153436443</v>
+      </c>
+      <c r="E27" s="37" t="n">
+        <v>0.0368705770232143</v>
+      </c>
+      <c r="F27" s="37" t="n">
+        <v>0.0374668281879344</v>
+      </c>
+      <c r="G27" s="37" t="n">
+        <v>0.503816606491465</v>
+      </c>
+      <c r="H27" s="37" t="n">
+        <v>0.572556107403261</v>
+      </c>
+      <c r="I27" s="37" t="n">
+        <v>0.686609758608552</v>
+      </c>
+      <c r="J27" s="37" t="n">
+        <v>0.695659319592635</v>
+      </c>
+      <c r="K27" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="46" t="n">
-        <v>0.937785636744972</v>
-      </c>
-      <c r="I9" s="46" t="n">
-        <v>0.0898785408595605</v>
-      </c>
-      <c r="J9" s="46" t="n">
-        <v>0.729712574749583</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="47" t="n">
-        <v>0.00427870901149946</v>
-      </c>
-      <c r="C10" s="47" t="n">
-        <v>0.00684192709300344</v>
-      </c>
-      <c r="D10" s="47" t="n">
-        <v>0.00449186238377379</v>
-      </c>
-      <c r="E10" s="46" t="n">
-        <v>0.0197189593076012</v>
-      </c>
-      <c r="F10" s="47" t="n">
-        <v>0.00137542191799129</v>
-      </c>
-      <c r="G10" s="46" t="n">
-        <v>0.937785636744972</v>
-      </c>
-      <c r="H10" s="46" t="n">
+      <c r="L27" s="37" t="n">
+        <v>0.61404212613652</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="37" t="n">
+        <v>0.162148452369083</v>
+      </c>
+      <c r="C28" s="37" t="n">
+        <v>0.247330919728258</v>
+      </c>
+      <c r="D28" s="37" t="n">
+        <v>0.0827129880713282</v>
+      </c>
+      <c r="E28" s="37" t="n">
+        <v>0.105581018219611</v>
+      </c>
+      <c r="F28" s="37" t="n">
+        <v>0.105357105314806</v>
+      </c>
+      <c r="G28" s="37" t="n">
+        <v>0.84428477092991</v>
+      </c>
+      <c r="H28" s="37" t="n">
+        <v>0.943790118641581</v>
+      </c>
+      <c r="I28" s="37" t="n">
+        <v>0.916405547310892</v>
+      </c>
+      <c r="J28" s="37" t="n">
+        <v>0.360227836965591</v>
+      </c>
+      <c r="K28" s="37" t="n">
+        <v>0.61404212613652</v>
+      </c>
+      <c r="L28" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="46" t="n">
-        <v>0.0779524618889699</v>
-      </c>
-      <c r="J10" s="46" t="n">
-        <v>0.792682079644613</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="47" t="n">
-        <v>4.75094168310171E-006</v>
-      </c>
-      <c r="C11" s="47" t="n">
-        <v>3.6884780117404E-006</v>
-      </c>
-      <c r="D11" s="47" t="n">
-        <v>4.33721427403821E-006</v>
-      </c>
-      <c r="E11" s="47" t="n">
-        <v>2.23811693965422E-005</v>
-      </c>
-      <c r="F11" s="47" t="n">
-        <v>5.20499761659124E-007</v>
-      </c>
-      <c r="G11" s="46" t="n">
-        <v>0.0898785408595605</v>
-      </c>
-      <c r="H11" s="46" t="n">
-        <v>0.0779524618889699</v>
-      </c>
-      <c r="I11" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="46" t="n">
-        <v>0.0342482084527107</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="47" t="n">
-        <v>0.00723381490170699</v>
-      </c>
-      <c r="C12" s="46" t="n">
-        <v>0.0117679295708231</v>
-      </c>
-      <c r="D12" s="47" t="n">
-        <v>0.00762531805688691</v>
-      </c>
-      <c r="E12" s="46" t="n">
-        <v>0.032662507025007</v>
-      </c>
-      <c r="F12" s="47" t="n">
-        <v>0.00242605619002221</v>
-      </c>
-      <c r="G12" s="46" t="n">
-        <v>0.729712574749583</v>
-      </c>
-      <c r="H12" s="46" t="n">
-        <v>0.792682079644613</v>
-      </c>
-      <c r="I12" s="46" t="n">
-        <v>0.0342482084527107</v>
-      </c>
-      <c r="J12" s="46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="46" t="n">
-        <v>0.711411801097545</v>
-      </c>
-      <c r="D16" s="46" t="n">
-        <v>0.782479648590841</v>
-      </c>
-      <c r="E16" s="46" t="n">
-        <v>0.860527532024685</v>
-      </c>
-      <c r="F16" s="46" t="n">
-        <v>0.845679510188673</v>
-      </c>
-      <c r="G16" s="46" t="n">
-        <v>0.133534414972666</v>
-      </c>
-      <c r="H16" s="46" t="n">
-        <v>0.0247248784644662</v>
-      </c>
-      <c r="I16" s="46" t="n">
-        <v>0.0638594258001617</v>
-      </c>
-      <c r="J16" s="46" t="n">
-        <v>0.162148452369083</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="46" t="n">
-        <v>0.711411801097545</v>
-      </c>
-      <c r="C17" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" s="46" t="n">
-        <v>0.49589998730605</v>
-      </c>
-      <c r="E17" s="46" t="n">
-        <v>0.569165401380672</v>
-      </c>
-      <c r="F17" s="46" t="n">
-        <v>0.558715005951011</v>
-      </c>
-      <c r="G17" s="46" t="n">
-        <v>0.203031022405904</v>
-      </c>
-      <c r="H17" s="46" t="n">
-        <v>0.0320950448749731</v>
-      </c>
-      <c r="I17" s="46" t="n">
-        <v>0.0933498184951495</v>
-      </c>
-      <c r="J17" s="46" t="n">
-        <v>0.247330919728258</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="46" t="n">
-        <v>0.782479648590841</v>
-      </c>
-      <c r="C18" s="46" t="n">
-        <v>0.49589998730605</v>
-      </c>
-      <c r="D18" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="46" t="n">
-        <v>0.919278145720976</v>
-      </c>
-      <c r="F18" s="46" t="n">
-        <v>0.93696127120142</v>
-      </c>
-      <c r="G18" s="46" t="n">
-        <v>0.065305830080741</v>
-      </c>
-      <c r="H18" s="47" t="n">
-        <v>0.00858490908541508</v>
-      </c>
-      <c r="I18" s="46" t="n">
-        <v>0.027245153436443</v>
-      </c>
-      <c r="J18" s="46" t="n">
-        <v>0.0827129880713282</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="46" t="n">
-        <v>0.860527532024685</v>
-      </c>
-      <c r="C19" s="46" t="n">
-        <v>0.569165401380672</v>
-      </c>
-      <c r="D19" s="46" t="n">
-        <v>0.919278145720976</v>
-      </c>
-      <c r="E19" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="46" t="n">
-        <v>0.983176080002237</v>
-      </c>
-      <c r="G19" s="46" t="n">
-        <v>0.0845423446402642</v>
-      </c>
-      <c r="H19" s="46" t="n">
-        <v>0.0124154571363616</v>
-      </c>
-      <c r="I19" s="46" t="n">
-        <v>0.0368705770232143</v>
-      </c>
-      <c r="J19" s="46" t="n">
-        <v>0.105581018219611</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="46" t="n">
-        <v>0.845679510188673</v>
-      </c>
-      <c r="C20" s="46" t="n">
-        <v>0.558715005951011</v>
-      </c>
-      <c r="D20" s="46" t="n">
-        <v>0.93696127120142</v>
-      </c>
-      <c r="E20" s="46" t="n">
-        <v>0.983176080002237</v>
-      </c>
-      <c r="F20" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="46" t="n">
-        <v>0.0846724292622886</v>
-      </c>
-      <c r="H20" s="46" t="n">
-        <v>0.0129661661798297</v>
-      </c>
-      <c r="I20" s="46" t="n">
-        <v>0.0374668281879344</v>
-      </c>
-      <c r="J20" s="46" t="n">
-        <v>0.105357105314806</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="46" t="n">
-        <v>0.133534414972666</v>
-      </c>
-      <c r="C21" s="46" t="n">
-        <v>0.203031022405904</v>
-      </c>
-      <c r="D21" s="46" t="n">
-        <v>0.065305830080741</v>
-      </c>
-      <c r="E21" s="46" t="n">
-        <v>0.0845423446402642</v>
-      </c>
-      <c r="F21" s="46" t="n">
-        <v>0.0846724292622886</v>
-      </c>
-      <c r="G21" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="H21" s="46" t="n">
-        <v>0.415095566094501</v>
-      </c>
-      <c r="I21" s="46" t="n">
-        <v>0.686609758608552</v>
-      </c>
-      <c r="J21" s="46" t="n">
-        <v>0.916405547310892</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="46" t="n">
-        <v>0.0247248784644662</v>
-      </c>
-      <c r="C22" s="46" t="n">
-        <v>0.0320950448749731</v>
-      </c>
-      <c r="D22" s="47" t="n">
-        <v>0.00858490908541508</v>
-      </c>
-      <c r="E22" s="46" t="n">
-        <v>0.0124154571363616</v>
-      </c>
-      <c r="F22" s="46" t="n">
-        <v>0.0129661661798297</v>
-      </c>
-      <c r="G22" s="46" t="n">
-        <v>0.415095566094501</v>
-      </c>
-      <c r="H22" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" s="46" t="n">
-        <v>0.695659319592635</v>
-      </c>
-      <c r="J22" s="46" t="n">
-        <v>0.360227836965591</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="46" t="n">
-        <v>0.0638594258001617</v>
-      </c>
-      <c r="C23" s="46" t="n">
-        <v>0.0933498184951495</v>
-      </c>
-      <c r="D23" s="46" t="n">
-        <v>0.027245153436443</v>
-      </c>
-      <c r="E23" s="46" t="n">
-        <v>0.0368705770232143</v>
-      </c>
-      <c r="F23" s="46" t="n">
-        <v>0.0374668281879344</v>
-      </c>
-      <c r="G23" s="46" t="n">
-        <v>0.686609758608552</v>
-      </c>
-      <c r="H23" s="46" t="n">
-        <v>0.695659319592635</v>
-      </c>
-      <c r="I23" s="46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" s="46" t="n">
-        <v>0.61404212613652</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="46" t="n">
-        <v>0.162148452369083</v>
-      </c>
-      <c r="C24" s="46" t="n">
-        <v>0.247330919728258</v>
-      </c>
-      <c r="D24" s="46" t="n">
-        <v>0.0827129880713282</v>
-      </c>
-      <c r="E24" s="46" t="n">
-        <v>0.105581018219611</v>
-      </c>
-      <c r="F24" s="46" t="n">
-        <v>0.105357105314806</v>
-      </c>
-      <c r="G24" s="46" t="n">
-        <v>0.916405547310892</v>
-      </c>
-      <c r="H24" s="46" t="n">
-        <v>0.360227836965591</v>
-      </c>
-      <c r="I24" s="46" t="n">
-        <v>0.61404212613652</v>
-      </c>
-      <c r="J24" s="46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A16:L16"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/benchmarks/summary_seq.xlsx
+++ b/benchmarks/summary_seq.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="56">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t xml:space="preserve">SRtrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.4***</t>
   </si>
   <si>
     <t xml:space="preserve">7010.2* (1424.7)</t>
@@ -213,6 +216,27 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">In the benchmarks SQUARNA utilized the faster running configs 500.conf for the sequences longer than 500 nts, and 1000.conf for the sequences longer than 1000 nts, as the def.conf and alt.conf configs can take days to run on long sequences</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">***</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">For RNAs longer 2000 nts we used –deltaEnergy=0.1 RNAsubopt setting due to RAM 128Gb limitation</t>
     </r>
   </si>
   <si>
@@ -507,16 +531,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -576,12 +600,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ34"/>
+  <dimension ref="A1:AMJ35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H35" activeCellId="0" sqref="H35"/>
+      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -590,7 +614,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.81"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="4" style="1" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.36"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="12.64"/>
@@ -1831,13 +1855,13 @@
       <c r="D21" s="23" t="n">
         <v>6.2</v>
       </c>
-      <c r="E21" s="23" t="n">
-        <v>50.4</v>
+      <c r="E21" s="23" t="s">
+        <v>29</v>
       </c>
       <c r="F21" s="23" t="n">
         <v>8394.6</v>
       </c>
-      <c r="G21" s="26" t="n">
+      <c r="G21" s="23" t="n">
         <v>4452.3</v>
       </c>
       <c r="H21" s="23" t="n">
@@ -1847,39 +1871,39 @@
         <v>267.3</v>
       </c>
       <c r="J21" s="23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K21" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L21" s="24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N21" s="24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O21" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P21" s="24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q21" s="24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="R21" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="S21" s="27" t="s">
         <v>38</v>
+      </c>
+      <c r="S21" s="26" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>20</v>
@@ -2453,78 +2477,92 @@
         <v>26.4</v>
       </c>
       <c r="J31" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K31" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L31" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N31" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O31" s="24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P31" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q31" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R31" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="S31" s="27" t="s">
         <v>49</v>
       </c>
+      <c r="S31" s="26" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
+      <c r="A32" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
+      <c r="A33" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
@@ -2542,6 +2580,7 @@
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="A32:J32"/>
     <mergeCell ref="A33:J34"/>
+    <mergeCell ref="A35:J35"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2558,10 +2597,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2625,7 +2664,7 @@
       <c r="B2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="32" t="n">
@@ -2678,40 +2717,40 @@
       <c r="B3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="27" t="n">
+      <c r="D3" s="26" t="n">
         <v>0.721</v>
       </c>
-      <c r="E3" s="27" t="n">
+      <c r="E3" s="26" t="n">
         <v>0.774</v>
       </c>
-      <c r="F3" s="27" t="n">
+      <c r="F3" s="26" t="n">
         <v>0.743</v>
       </c>
-      <c r="G3" s="27" t="n">
+      <c r="G3" s="26" t="n">
         <v>0.697</v>
       </c>
-      <c r="H3" s="27" t="n">
+      <c r="H3" s="26" t="n">
         <v>0.771</v>
       </c>
-      <c r="I3" s="27" t="n">
+      <c r="I3" s="26" t="n">
         <v>0.795</v>
       </c>
       <c r="J3" s="34" t="n">
         <v>0.82</v>
       </c>
-      <c r="K3" s="27" t="n">
+      <c r="K3" s="26" t="n">
         <v>0.707</v>
       </c>
-      <c r="L3" s="27" t="n">
+      <c r="L3" s="26" t="n">
         <v>0.703</v>
       </c>
-      <c r="M3" s="27" t="n">
+      <c r="M3" s="26" t="n">
         <v>0.772</v>
       </c>
-      <c r="N3" s="27" t="n">
+      <c r="N3" s="26" t="n">
         <v>0.775</v>
       </c>
       <c r="O3" s="35"/>
@@ -2722,40 +2761,40 @@
       <c r="B4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="27" t="n">
+      <c r="D4" s="26" t="n">
         <v>0.725</v>
       </c>
-      <c r="E4" s="27" t="n">
+      <c r="E4" s="26" t="n">
         <v>0.78</v>
       </c>
-      <c r="F4" s="27" t="n">
+      <c r="F4" s="26" t="n">
         <v>0.742</v>
       </c>
-      <c r="G4" s="27" t="n">
+      <c r="G4" s="26" t="n">
         <v>0.711</v>
       </c>
-      <c r="H4" s="27" t="n">
+      <c r="H4" s="26" t="n">
         <v>0.785</v>
       </c>
-      <c r="I4" s="27" t="n">
+      <c r="I4" s="26" t="n">
         <v>0.792</v>
       </c>
       <c r="J4" s="34" t="n">
         <v>0.819</v>
       </c>
-      <c r="K4" s="27" t="n">
+      <c r="K4" s="26" t="n">
         <v>0.716</v>
       </c>
-      <c r="L4" s="27" t="n">
+      <c r="L4" s="26" t="n">
         <v>0.715</v>
       </c>
-      <c r="M4" s="27" t="n">
+      <c r="M4" s="26" t="n">
         <v>0.806</v>
       </c>
-      <c r="N4" s="27" t="n">
+      <c r="N4" s="26" t="n">
         <v>0.788</v>
       </c>
     </row>
@@ -2765,37 +2804,37 @@
         <v>26</v>
       </c>
       <c r="C5" s="31"/>
-      <c r="D5" s="27" t="n">
+      <c r="D5" s="26" t="n">
         <v>0.5</v>
       </c>
-      <c r="E5" s="27" t="n">
+      <c r="E5" s="26" t="n">
         <v>0.5</v>
       </c>
-      <c r="F5" s="27" t="n">
+      <c r="F5" s="26" t="n">
         <v>2.3</v>
       </c>
-      <c r="G5" s="27" t="n">
+      <c r="G5" s="26" t="n">
         <v>37.6</v>
       </c>
-      <c r="H5" s="27" t="n">
+      <c r="H5" s="26" t="n">
         <v>36.7</v>
       </c>
-      <c r="I5" s="27" t="n">
+      <c r="I5" s="26" t="n">
         <v>26.5</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="27" t="n">
+      <c r="K5" s="26" t="n">
         <v>17</v>
       </c>
-      <c r="L5" s="27" t="n">
+      <c r="L5" s="26" t="n">
         <v>10.4</v>
       </c>
-      <c r="M5" s="27" t="n">
+      <c r="M5" s="26" t="n">
         <v>17.1</v>
       </c>
-      <c r="N5" s="27" t="n">
+      <c r="N5" s="26" t="n">
         <v>10.4</v>
       </c>
     </row>
@@ -2806,7 +2845,7 @@
       <c r="B6" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="32" t="n">
@@ -2859,40 +2898,40 @@
       <c r="B7" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="27" t="n">
+      <c r="D7" s="26" t="n">
         <v>0.694</v>
       </c>
-      <c r="E7" s="27" t="n">
+      <c r="E7" s="26" t="n">
         <v>0.735</v>
       </c>
-      <c r="F7" s="27" t="n">
+      <c r="F7" s="26" t="n">
         <v>0.746</v>
       </c>
-      <c r="G7" s="27" t="n">
+      <c r="G7" s="26" t="n">
         <v>0.697</v>
       </c>
-      <c r="H7" s="27" t="n">
+      <c r="H7" s="26" t="n">
         <v>0.722</v>
       </c>
       <c r="I7" s="34" t="n">
         <v>0.762</v>
       </c>
-      <c r="J7" s="27" t="n">
+      <c r="J7" s="26" t="n">
         <v>0.734</v>
       </c>
-      <c r="K7" s="27" t="n">
+      <c r="K7" s="26" t="n">
         <v>0.63</v>
       </c>
-      <c r="L7" s="27" t="n">
+      <c r="L7" s="26" t="n">
         <v>0.603</v>
       </c>
-      <c r="M7" s="27" t="n">
+      <c r="M7" s="26" t="n">
         <v>0.705</v>
       </c>
-      <c r="N7" s="27" t="n">
+      <c r="N7" s="26" t="n">
         <v>0.672</v>
       </c>
     </row>
@@ -2901,40 +2940,40 @@
       <c r="B8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="27" t="n">
+      <c r="D8" s="26" t="n">
         <v>0.748</v>
       </c>
-      <c r="E8" s="27" t="n">
+      <c r="E8" s="26" t="n">
         <v>0.821</v>
       </c>
-      <c r="F8" s="27" t="n">
+      <c r="F8" s="26" t="n">
         <v>0.757</v>
       </c>
-      <c r="G8" s="27" t="n">
+      <c r="G8" s="26" t="n">
         <v>0.75</v>
       </c>
-      <c r="H8" s="27" t="n">
+      <c r="H8" s="26" t="n">
         <v>0.775</v>
       </c>
-      <c r="I8" s="27" t="n">
+      <c r="I8" s="26" t="n">
         <v>0.819</v>
       </c>
-      <c r="J8" s="27" t="n">
+      <c r="J8" s="26" t="n">
         <v>0.818</v>
       </c>
-      <c r="K8" s="27" t="n">
+      <c r="K8" s="26" t="n">
         <v>0.766</v>
       </c>
-      <c r="L8" s="27" t="n">
+      <c r="L8" s="26" t="n">
         <v>0.742</v>
       </c>
       <c r="M8" s="34" t="n">
         <v>0.851</v>
       </c>
-      <c r="N8" s="27" t="n">
+      <c r="N8" s="26" t="n">
         <v>0.812</v>
       </c>
     </row>
@@ -2944,46 +2983,154 @@
         <v>26</v>
       </c>
       <c r="C9" s="31"/>
-      <c r="D9" s="27" t="n">
+      <c r="D9" s="26" t="n">
         <v>6.2</v>
       </c>
-      <c r="E9" s="27" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="F9" s="27" t="n">
+      <c r="E9" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="26" t="n">
         <v>8394.6</v>
       </c>
-      <c r="G9" s="26" t="n">
+      <c r="G9" s="23" t="n">
         <v>4452.3</v>
       </c>
-      <c r="H9" s="27" t="n">
+      <c r="H9" s="26" t="n">
         <v>4600.9</v>
       </c>
-      <c r="I9" s="27" t="n">
+      <c r="I9" s="26" t="n">
         <v>267.3</v>
       </c>
-      <c r="J9" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="27" t="s">
+      <c r="J9" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="27" t="s">
+      <c r="K9" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="27" t="s">
+      <c r="L9" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="26" t="s">
         <v>34</v>
       </c>
+      <c r="N9" s="26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="A11:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:J16"/>
+    <mergeCell ref="A17:J17"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3022,7 +3169,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -3037,7 +3184,7 @@
       <c r="L2" s="36"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="26" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="30" t="s">
@@ -3494,7 +3641,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="36" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -3509,7 +3656,7 @@
       <c r="L16" s="36"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="26" t="s">
         <v>19</v>
       </c>
       <c r="B17" s="30" t="s">

--- a/benchmarks/summary_seq.xlsx
+++ b/benchmarks/summary_seq.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="56">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -539,7 +539,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -602,8 +602,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
@@ -2597,20 +2597,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.31"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="2" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="14.16"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="11" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="14.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1019" min="11" style="1" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2627,34 +2627,28 @@
         <v>3</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H1" s="30" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="30" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J1" s="30" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L1" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="30" t="s">
         <v>13</v>
-      </c>
-      <c r="N1" s="30" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2673,7 +2667,7 @@
       </c>
       <c r="E2" s="32" t="n">
         <f aca="false">ROUND(2*E3*E4/(E3+E4),3)</f>
-        <v>0.777</v>
+        <v>0.704</v>
       </c>
       <c r="F2" s="32" t="n">
         <f aca="false">ROUND(2*F3*F4/(F3+F4),3)</f>
@@ -2681,7 +2675,7 @@
       </c>
       <c r="G2" s="32" t="n">
         <f aca="false">ROUND(2*G3*G4/(G3+G4),3)</f>
-        <v>0.704</v>
+        <v>0.711</v>
       </c>
       <c r="H2" s="32" t="n">
         <f aca="false">ROUND(2*H3*H4/(H3+H4),3)</f>
@@ -2689,7 +2683,7 @@
       </c>
       <c r="I2" s="32" t="n">
         <f aca="false">ROUND(2*I3*I4/(I3+I4),3)</f>
-        <v>0.793</v>
+        <v>0.777</v>
       </c>
       <c r="J2" s="33" t="n">
         <f aca="false">ROUND(2*J3*J4/(J3+J4),3)</f>
@@ -2697,19 +2691,11 @@
       </c>
       <c r="K2" s="32" t="n">
         <f aca="false">ROUND(2*K3*K4/(K3+K4),3)</f>
-        <v>0.711</v>
+        <v>0.793</v>
       </c>
       <c r="L2" s="32" t="n">
         <f aca="false">ROUND(2*L3*L4/(L3+L4),3)</f>
-        <v>0.709</v>
-      </c>
-      <c r="M2" s="32" t="n">
-        <f aca="false">ROUND(2*M3*M4/(M3+M4),3)</f>
         <v>0.789</v>
-      </c>
-      <c r="N2" s="32" t="n">
-        <f aca="false">ROUND(2*N3*N4/(N3+N4),3)</f>
-        <v>0.781</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2724,37 +2710,31 @@
         <v>0.721</v>
       </c>
       <c r="E3" s="26" t="n">
-        <v>0.774</v>
+        <v>0.697</v>
       </c>
       <c r="F3" s="26" t="n">
         <v>0.743</v>
       </c>
       <c r="G3" s="26" t="n">
-        <v>0.697</v>
+        <v>0.707</v>
       </c>
       <c r="H3" s="26" t="n">
         <v>0.771</v>
       </c>
       <c r="I3" s="26" t="n">
-        <v>0.795</v>
+        <v>0.774</v>
       </c>
       <c r="J3" s="34" t="n">
         <v>0.82</v>
       </c>
       <c r="K3" s="26" t="n">
-        <v>0.707</v>
+        <v>0.795</v>
       </c>
       <c r="L3" s="26" t="n">
-        <v>0.703</v>
-      </c>
-      <c r="M3" s="26" t="n">
         <v>0.772</v>
       </c>
-      <c r="N3" s="26" t="n">
-        <v>0.775</v>
-      </c>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8"/>
@@ -2768,34 +2748,28 @@
         <v>0.725</v>
       </c>
       <c r="E4" s="26" t="n">
-        <v>0.78</v>
+        <v>0.711</v>
       </c>
       <c r="F4" s="26" t="n">
         <v>0.742</v>
       </c>
       <c r="G4" s="26" t="n">
-        <v>0.711</v>
+        <v>0.716</v>
       </c>
       <c r="H4" s="26" t="n">
         <v>0.785</v>
       </c>
       <c r="I4" s="26" t="n">
-        <v>0.792</v>
+        <v>0.78</v>
       </c>
       <c r="J4" s="34" t="n">
         <v>0.819</v>
       </c>
       <c r="K4" s="26" t="n">
-        <v>0.716</v>
+        <v>0.792</v>
       </c>
       <c r="L4" s="26" t="n">
-        <v>0.715</v>
-      </c>
-      <c r="M4" s="26" t="n">
         <v>0.806</v>
-      </c>
-      <c r="N4" s="26" t="n">
-        <v>0.788</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2808,34 +2782,28 @@
         <v>0.5</v>
       </c>
       <c r="E5" s="26" t="n">
-        <v>0.5</v>
+        <v>37.6</v>
       </c>
       <c r="F5" s="26" t="n">
         <v>2.3</v>
       </c>
       <c r="G5" s="26" t="n">
-        <v>37.6</v>
+        <v>17</v>
       </c>
       <c r="H5" s="26" t="n">
         <v>36.7</v>
       </c>
       <c r="I5" s="26" t="n">
-        <v>26.5</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="26" t="s">
         <v>27</v>
       </c>
       <c r="K5" s="26" t="n">
-        <v>17</v>
+        <v>26.5</v>
       </c>
       <c r="L5" s="26" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="M5" s="26" t="n">
         <v>17.1</v>
-      </c>
-      <c r="N5" s="26" t="n">
-        <v>10.4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2854,7 +2822,7 @@
       </c>
       <c r="E6" s="32" t="n">
         <f aca="false">ROUND(2*E7*E8/(E7+E8),3)</f>
-        <v>0.776</v>
+        <v>0.723</v>
       </c>
       <c r="F6" s="32" t="n">
         <f aca="false">ROUND(2*F7*F8/(F7+F8),3)</f>
@@ -2862,35 +2830,27 @@
       </c>
       <c r="G6" s="32" t="n">
         <f aca="false">ROUND(2*G7*G8/(G7+G8),3)</f>
-        <v>0.723</v>
+        <v>0.691</v>
       </c>
       <c r="H6" s="32" t="n">
         <f aca="false">ROUND(2*H7*H8/(H7+H8),3)</f>
         <v>0.748</v>
       </c>
-      <c r="I6" s="33" t="n">
+      <c r="I6" s="32" t="n">
         <f aca="false">ROUND(2*I7*I8/(I7+I8),3)</f>
-        <v>0.789</v>
+        <v>0.776</v>
       </c>
       <c r="J6" s="32" t="n">
         <f aca="false">ROUND(2*J7*J8/(J7+J8),3)</f>
         <v>0.774</v>
       </c>
-      <c r="K6" s="32" t="n">
+      <c r="K6" s="33" t="n">
         <f aca="false">ROUND(2*K7*K8/(K7+K8),3)</f>
-        <v>0.691</v>
+        <v>0.789</v>
       </c>
       <c r="L6" s="32" t="n">
         <f aca="false">ROUND(2*L7*L8/(L7+L8),3)</f>
-        <v>0.665</v>
-      </c>
-      <c r="M6" s="32" t="n">
-        <f aca="false">ROUND(2*M7*M8/(M7+M8),3)</f>
         <v>0.771</v>
-      </c>
-      <c r="N6" s="32" t="n">
-        <f aca="false">ROUND(2*N7*N8/(N7+N8),3)</f>
-        <v>0.735</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,34 +2865,28 @@
         <v>0.694</v>
       </c>
       <c r="E7" s="26" t="n">
-        <v>0.735</v>
+        <v>0.697</v>
       </c>
       <c r="F7" s="26" t="n">
         <v>0.746</v>
       </c>
       <c r="G7" s="26" t="n">
-        <v>0.697</v>
+        <v>0.63</v>
       </c>
       <c r="H7" s="26" t="n">
         <v>0.722</v>
       </c>
-      <c r="I7" s="34" t="n">
-        <v>0.762</v>
+      <c r="I7" s="26" t="n">
+        <v>0.735</v>
       </c>
       <c r="J7" s="26" t="n">
         <v>0.734</v>
       </c>
-      <c r="K7" s="26" t="n">
-        <v>0.63</v>
+      <c r="K7" s="34" t="n">
+        <v>0.762</v>
       </c>
       <c r="L7" s="26" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="M7" s="26" t="n">
         <v>0.705</v>
-      </c>
-      <c r="N7" s="26" t="n">
-        <v>0.672</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2947,34 +2901,28 @@
         <v>0.748</v>
       </c>
       <c r="E8" s="26" t="n">
-        <v>0.821</v>
+        <v>0.75</v>
       </c>
       <c r="F8" s="26" t="n">
         <v>0.757</v>
       </c>
       <c r="G8" s="26" t="n">
-        <v>0.75</v>
+        <v>0.766</v>
       </c>
       <c r="H8" s="26" t="n">
         <v>0.775</v>
       </c>
       <c r="I8" s="26" t="n">
-        <v>0.819</v>
+        <v>0.821</v>
       </c>
       <c r="J8" s="26" t="n">
         <v>0.818</v>
       </c>
       <c r="K8" s="26" t="n">
-        <v>0.766</v>
-      </c>
-      <c r="L8" s="26" t="n">
-        <v>0.742</v>
-      </c>
-      <c r="M8" s="34" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="L8" s="34" t="n">
         <v>0.851</v>
-      </c>
-      <c r="N8" s="26" t="n">
-        <v>0.812</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2986,35 +2934,29 @@
       <c r="D9" s="26" t="n">
         <v>6.2</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>29</v>
+      <c r="E9" s="23" t="n">
+        <v>4452.3</v>
       </c>
       <c r="F9" s="26" t="n">
         <v>8394.6</v>
       </c>
-      <c r="G9" s="23" t="n">
-        <v>4452.3</v>
+      <c r="G9" s="26" t="s">
+        <v>31</v>
       </c>
       <c r="H9" s="26" t="n">
         <v>4600.9</v>
       </c>
-      <c r="I9" s="26" t="n">
-        <v>267.3</v>
+      <c r="I9" s="26" t="s">
+        <v>29</v>
       </c>
       <c r="J9" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="26" t="s">
-        <v>31</v>
+      <c r="K9" s="26" t="n">
+        <v>267.3</v>
       </c>
       <c r="L9" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="M9" s="26" t="s">
         <v>34</v>
-      </c>
-      <c r="N9" s="26" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3030,6 +2972,7 @@
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="27" t="s">
@@ -3044,6 +2987,7 @@
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="27"/>
@@ -3056,6 +3000,7 @@
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="28" t="s">
@@ -3070,6 +3015,7 @@
       <c r="H13" s="28"/>
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="27"/>
@@ -3082,6 +3028,7 @@
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="27"/>
@@ -3094,6 +3041,7 @@
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="27"/>
@@ -3106,6 +3054,7 @@
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="28"/>
@@ -3118,6 +3067,7 @@
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3125,12 +3075,12 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A11:J12"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:J16"/>
-    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A10:K10"/>
+    <mergeCell ref="A11:K12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A15:K16"/>
+    <mergeCell ref="A17:K17"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3147,10 +3097,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:L33"/>
+  <dimension ref="A2:J29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O25" activeCellId="0" sqref="O25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3162,9 +3112,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="12.78"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="6" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="6" width="11.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="6" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="6" width="15.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="6" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="11" style="6" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3180,8 +3128,6 @@
       <c r="H2" s="36"/>
       <c r="I2" s="36"/>
       <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="26" t="s">
@@ -3191,34 +3137,28 @@
         <v>3</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="30" t="s">
         <v>5</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>6</v>
       </c>
       <c r="E3" s="30" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G3" s="30" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I3" s="30" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="30" t="s">
         <v>13</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3229,110 +3169,92 @@
         <v>1</v>
       </c>
       <c r="C4" s="37" t="n">
-        <v>0.714748633931574</v>
+        <v>0.958</v>
       </c>
       <c r="D4" s="37" t="n">
-        <v>0.957540649097073</v>
+        <v>0.715</v>
       </c>
       <c r="E4" s="37" t="n">
-        <v>0.474379809304658</v>
+        <v>0.474</v>
       </c>
       <c r="F4" s="37" t="n">
-        <v>0.818422944570017</v>
+        <v>0.295</v>
       </c>
       <c r="G4" s="38" t="n">
-        <v>0.00443030753633748</v>
-      </c>
-      <c r="H4" s="37" t="n">
-        <v>0.295432540095121</v>
+        <v>0.00443</v>
+      </c>
+      <c r="H4" s="38" t="n">
+        <v>0.00428</v>
       </c>
       <c r="I4" s="38" t="n">
-        <v>0.00323966900068798</v>
+        <v>0.00324</v>
       </c>
       <c r="J4" s="38" t="n">
-        <v>0.00427870901149946</v>
-      </c>
-      <c r="K4" s="38" t="n">
-        <v>4.75094168310171E-006</v>
-      </c>
-      <c r="L4" s="38" t="n">
-        <v>0.00723381490170699</v>
+        <v>4.75E-006</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="37" t="n">
-        <v>0.714748633931574</v>
+        <v>0.958</v>
       </c>
       <c r="C5" s="37" t="n">
         <v>1</v>
       </c>
       <c r="D5" s="37" t="n">
-        <v>0.75389196237731</v>
+        <v>0.754</v>
       </c>
       <c r="E5" s="37" t="n">
-        <v>0.706002363672323</v>
+        <v>0.504</v>
       </c>
       <c r="F5" s="37" t="n">
-        <v>0.533444263236488</v>
+        <v>0.315</v>
       </c>
       <c r="G5" s="38" t="n">
-        <v>0.00717013892723614</v>
-      </c>
-      <c r="H5" s="37" t="n">
-        <v>0.456018656321116</v>
+        <v>0.00467</v>
+      </c>
+      <c r="H5" s="38" t="n">
+        <v>0.00449</v>
       </c>
       <c r="I5" s="38" t="n">
-        <v>0.00510172041114741</v>
+        <v>0.00339</v>
       </c>
       <c r="J5" s="38" t="n">
-        <v>0.00684192709300344</v>
-      </c>
-      <c r="K5" s="38" t="n">
-        <v>3.6884780117404E-006</v>
-      </c>
-      <c r="L5" s="37" t="n">
-        <v>0.0117679295708231</v>
+        <v>4.34E-006</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="37" t="n">
-        <v>0.957540649097073</v>
+        <v>0.715</v>
       </c>
       <c r="C6" s="37" t="n">
-        <v>0.75389196237731</v>
+        <v>0.754</v>
       </c>
       <c r="D6" s="37" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="37" t="n">
-        <v>0.504043652412933</v>
+        <v>0.706</v>
       </c>
       <c r="F6" s="37" t="n">
-        <v>0.77401540075107</v>
+        <v>0.456</v>
       </c>
       <c r="G6" s="38" t="n">
-        <v>0.00466833332930197</v>
-      </c>
-      <c r="H6" s="37" t="n">
-        <v>0.314996170649219</v>
+        <v>0.00717</v>
+      </c>
+      <c r="H6" s="38" t="n">
+        <v>0.00684</v>
       </c>
       <c r="I6" s="38" t="n">
-        <v>0.00338816682933919</v>
+        <v>0.0051</v>
       </c>
       <c r="J6" s="38" t="n">
-        <v>0.00449186238377379</v>
-      </c>
-      <c r="K6" s="38" t="n">
-        <v>4.33721427403821E-006</v>
-      </c>
-      <c r="L6" s="38" t="n">
-        <v>0.00762531805688691</v>
+        <v>3.69E-006</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3340,75 +3262,63 @@
         <v>10</v>
       </c>
       <c r="B7" s="37" t="n">
-        <v>0.474379809304658</v>
+        <v>0.474</v>
       </c>
       <c r="C7" s="37" t="n">
-        <v>0.706002363672323</v>
+        <v>0.504</v>
       </c>
       <c r="D7" s="37" t="n">
-        <v>0.504043652412933</v>
+        <v>0.706</v>
       </c>
       <c r="E7" s="37" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="37" t="n">
-        <v>0.324997766881125</v>
+        <v>0.7</v>
       </c>
       <c r="G7" s="37" t="n">
-        <v>0.019630195718658</v>
+        <v>0.0196</v>
       </c>
       <c r="H7" s="37" t="n">
-        <v>0.69974052235936</v>
+        <v>0.0197</v>
       </c>
       <c r="I7" s="37" t="n">
-        <v>0.0152803420223846</v>
-      </c>
-      <c r="J7" s="37" t="n">
-        <v>0.0197189593076012</v>
-      </c>
-      <c r="K7" s="38" t="n">
-        <v>2.23811693965422E-005</v>
-      </c>
-      <c r="L7" s="37" t="n">
-        <v>0.032662507025007</v>
+        <v>0.0153</v>
+      </c>
+      <c r="J7" s="38" t="n">
+        <v>2.24E-005</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="30" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B8" s="37" t="n">
-        <v>0.818422944570017</v>
+        <v>0.295</v>
       </c>
       <c r="C8" s="37" t="n">
-        <v>0.533444263236488</v>
+        <v>0.315</v>
       </c>
       <c r="D8" s="37" t="n">
-        <v>0.77401540075107</v>
+        <v>0.456</v>
       </c>
       <c r="E8" s="37" t="n">
-        <v>0.324997766881125</v>
+        <v>0.7</v>
       </c>
       <c r="F8" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="38" t="n">
-        <v>0.00152510157074715</v>
+      <c r="G8" s="37" t="n">
+        <v>0.0627</v>
       </c>
       <c r="H8" s="37" t="n">
-        <v>0.18901939844168</v>
-      </c>
-      <c r="I8" s="38" t="n">
-        <v>0.000992284984305612</v>
+        <v>0.0669</v>
+      </c>
+      <c r="I8" s="37" t="n">
+        <v>0.0551</v>
       </c>
       <c r="J8" s="38" t="n">
-        <v>0.00137542191799129</v>
-      </c>
-      <c r="K8" s="38" t="n">
-        <v>5.20499761659124E-007</v>
-      </c>
-      <c r="L8" s="38" t="n">
-        <v>0.00242605619002221</v>
+        <v>0.000339</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3416,75 +3326,63 @@
         <v>4</v>
       </c>
       <c r="B9" s="38" t="n">
-        <v>0.00443030753633748</v>
+        <v>0.00443</v>
       </c>
       <c r="C9" s="38" t="n">
-        <v>0.00717013892723614</v>
+        <v>0.00467</v>
       </c>
       <c r="D9" s="38" t="n">
-        <v>0.00466833332930197</v>
+        <v>0.00717</v>
       </c>
       <c r="E9" s="37" t="n">
-        <v>0.019630195718658</v>
-      </c>
-      <c r="F9" s="38" t="n">
-        <v>0.00152510157074715</v>
+        <v>0.0196</v>
+      </c>
+      <c r="F9" s="37" t="n">
+        <v>0.0627</v>
       </c>
       <c r="G9" s="37" t="n">
         <v>1</v>
       </c>
       <c r="H9" s="37" t="n">
-        <v>0.0627099810406153</v>
+        <v>0.903</v>
       </c>
       <c r="I9" s="37" t="n">
-        <v>0.961150881676787</v>
+        <v>0.961</v>
       </c>
       <c r="J9" s="37" t="n">
-        <v>0.903306505371742</v>
-      </c>
-      <c r="K9" s="37" t="n">
-        <v>0.130863427296855</v>
-      </c>
-      <c r="L9" s="37" t="n">
-        <v>0.70964724507124</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="37" t="n">
-        <v>0.295432540095121</v>
-      </c>
-      <c r="C10" s="37" t="n">
-        <v>0.456018656321116</v>
-      </c>
-      <c r="D10" s="37" t="n">
-        <v>0.314996170649219</v>
+        <v>9</v>
+      </c>
+      <c r="B10" s="38" t="n">
+        <v>0.00428</v>
+      </c>
+      <c r="C10" s="38" t="n">
+        <v>0.00449</v>
+      </c>
+      <c r="D10" s="38" t="n">
+        <v>0.00684</v>
       </c>
       <c r="E10" s="37" t="n">
-        <v>0.69974052235936</v>
+        <v>0.0197</v>
       </c>
       <c r="F10" s="37" t="n">
-        <v>0.18901939844168</v>
+        <v>0.0669</v>
       </c>
       <c r="G10" s="37" t="n">
-        <v>0.0627099810406153</v>
+        <v>0.903</v>
       </c>
       <c r="H10" s="37" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="37" t="n">
-        <v>0.0551399230478992</v>
+        <v>0.938</v>
       </c>
       <c r="J10" s="37" t="n">
-        <v>0.0668864978432009</v>
-      </c>
-      <c r="K10" s="38" t="n">
-        <v>0.000338676746418268</v>
-      </c>
-      <c r="L10" s="37" t="n">
-        <v>0.102562435042994</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3492,635 +3390,409 @@
         <v>8</v>
       </c>
       <c r="B11" s="38" t="n">
-        <v>0.00323966900068798</v>
+        <v>0.00324</v>
       </c>
       <c r="C11" s="38" t="n">
-        <v>0.00510172041114741</v>
+        <v>0.00339</v>
       </c>
       <c r="D11" s="38" t="n">
-        <v>0.00338816682933919</v>
+        <v>0.0051</v>
       </c>
       <c r="E11" s="37" t="n">
-        <v>0.0152803420223846</v>
-      </c>
-      <c r="F11" s="38" t="n">
-        <v>0.000992284984305612</v>
+        <v>0.0153</v>
+      </c>
+      <c r="F11" s="37" t="n">
+        <v>0.0551</v>
       </c>
       <c r="G11" s="37" t="n">
-        <v>0.961150881676787</v>
+        <v>0.961</v>
       </c>
       <c r="H11" s="37" t="n">
-        <v>0.0551399230478992</v>
+        <v>0.938</v>
       </c>
       <c r="I11" s="37" t="n">
         <v>1</v>
       </c>
       <c r="J11" s="37" t="n">
-        <v>0.937785636744972</v>
-      </c>
-      <c r="K11" s="37" t="n">
-        <v>0.0898785408595605</v>
-      </c>
-      <c r="L11" s="37" t="n">
-        <v>0.729712574749583</v>
+        <v>0.0899</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="30" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B12" s="38" t="n">
-        <v>0.00427870901149946</v>
+        <v>4.75E-006</v>
       </c>
       <c r="C12" s="38" t="n">
-        <v>0.00684192709300344</v>
+        <v>4.34E-006</v>
       </c>
       <c r="D12" s="38" t="n">
-        <v>0.00449186238377379</v>
-      </c>
-      <c r="E12" s="37" t="n">
-        <v>0.0197189593076012</v>
+        <v>3.69E-006</v>
+      </c>
+      <c r="E12" s="38" t="n">
+        <v>2.24E-005</v>
       </c>
       <c r="F12" s="38" t="n">
-        <v>0.00137542191799129</v>
+        <v>0.000339</v>
       </c>
       <c r="G12" s="37" t="n">
-        <v>0.903306505371742</v>
+        <v>0.131</v>
       </c>
       <c r="H12" s="37" t="n">
-        <v>0.0668864978432009</v>
+        <v>0.078</v>
       </c>
       <c r="I12" s="37" t="n">
-        <v>0.937785636744972</v>
+        <v>0.0899</v>
       </c>
       <c r="J12" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="K12" s="37" t="n">
-        <v>0.0779524618889699</v>
-      </c>
-      <c r="L12" s="37" t="n">
-        <v>0.792682079644613</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="38" t="n">
-        <v>4.75094168310171E-006</v>
-      </c>
-      <c r="C13" s="38" t="n">
-        <v>3.6884780117404E-006</v>
-      </c>
-      <c r="D13" s="38" t="n">
-        <v>4.33721427403821E-006</v>
-      </c>
-      <c r="E13" s="38" t="n">
-        <v>2.23811693965422E-005</v>
-      </c>
-      <c r="F13" s="38" t="n">
-        <v>5.20499761659124E-007</v>
-      </c>
-      <c r="G13" s="37" t="n">
-        <v>0.130863427296855</v>
-      </c>
-      <c r="H13" s="38" t="n">
-        <v>0.000338676746418268</v>
-      </c>
-      <c r="I13" s="37" t="n">
-        <v>0.0898785408595605</v>
-      </c>
-      <c r="J13" s="37" t="n">
-        <v>0.0779524618889699</v>
-      </c>
-      <c r="K13" s="37" t="n">
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="L13" s="37" t="n">
-        <v>0.0342482084527107</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="38" t="n">
-        <v>0.00723381490170699</v>
-      </c>
-      <c r="C14" s="37" t="n">
-        <v>0.0117679295708231</v>
-      </c>
-      <c r="D14" s="38" t="n">
-        <v>0.00762531805688691</v>
-      </c>
-      <c r="E14" s="37" t="n">
-        <v>0.032662507025007</v>
-      </c>
-      <c r="F14" s="38" t="n">
-        <v>0.00242605619002221</v>
-      </c>
-      <c r="G14" s="37" t="n">
-        <v>0.70964724507124</v>
-      </c>
-      <c r="H14" s="37" t="n">
-        <v>0.102562435042994</v>
-      </c>
-      <c r="I14" s="37" t="n">
-        <v>0.729712574749583</v>
-      </c>
-      <c r="J14" s="37" t="n">
-        <v>0.792682079644613</v>
-      </c>
-      <c r="K14" s="37" t="n">
-        <v>0.0342482084527107</v>
-      </c>
-      <c r="L14" s="37" t="n">
+      <c r="C16" s="37" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="D16" s="37" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="E16" s="37" t="n">
+        <v>0.861</v>
+      </c>
+      <c r="F16" s="37" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="G16" s="37" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="H16" s="37" t="n">
+        <v>0.0247</v>
+      </c>
+      <c r="I16" s="37" t="n">
+        <v>0.134</v>
+      </c>
+      <c r="J16" s="37" t="n">
+        <v>0.0639</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="37" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="C17" s="37" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="L17" s="30" t="s">
-        <v>14</v>
+      <c r="D17" s="37" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="E17" s="37" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="F17" s="37" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G17" s="37" t="n">
+        <v>0.141</v>
+      </c>
+      <c r="H17" s="38" t="n">
+        <v>0.00858</v>
+      </c>
+      <c r="I17" s="37" t="n">
+        <v>0.0653</v>
+      </c>
+      <c r="J17" s="37" t="n">
+        <v>0.0272</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="30" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" s="37" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="C18" s="37" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="D18" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="C18" s="37" t="n">
-        <v>0.711411801097545</v>
-      </c>
-      <c r="D18" s="37" t="n">
-        <v>0.782479648590841</v>
-      </c>
       <c r="E18" s="37" t="n">
-        <v>0.860527532024685</v>
+        <v>0.569</v>
       </c>
       <c r="F18" s="37" t="n">
-        <v>0.845679510188673</v>
+        <v>0.287</v>
       </c>
       <c r="G18" s="37" t="n">
-        <v>0.247102821207723</v>
+        <v>0.372</v>
       </c>
       <c r="H18" s="37" t="n">
-        <v>0.188678920519769</v>
+        <v>0.0321</v>
       </c>
       <c r="I18" s="37" t="n">
-        <v>0.133534414972666</v>
+        <v>0.203</v>
       </c>
       <c r="J18" s="37" t="n">
-        <v>0.0247248784644662</v>
-      </c>
-      <c r="K18" s="37" t="n">
-        <v>0.0638594258001617</v>
-      </c>
-      <c r="L18" s="37" t="n">
-        <v>0.162148452369083</v>
+        <v>0.0933</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="30" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B19" s="37" t="n">
-        <v>0.711411801097545</v>
+        <v>0.861</v>
       </c>
       <c r="C19" s="37" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="D19" s="37" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="E19" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="37" t="n">
-        <v>0.49589998730605</v>
-      </c>
-      <c r="E19" s="37" t="n">
-        <v>0.569165401380672</v>
-      </c>
       <c r="F19" s="37" t="n">
-        <v>0.558715005951011</v>
+        <v>0.126</v>
       </c>
       <c r="G19" s="37" t="n">
-        <v>0.372193112464921</v>
+        <v>0.173</v>
       </c>
       <c r="H19" s="37" t="n">
-        <v>0.287320483839445</v>
+        <v>0.0124</v>
       </c>
       <c r="I19" s="37" t="n">
-        <v>0.203031022405904</v>
+        <v>0.0845</v>
       </c>
       <c r="J19" s="37" t="n">
-        <v>0.0320950448749731</v>
-      </c>
-      <c r="K19" s="37" t="n">
-        <v>0.0933498184951495</v>
-      </c>
-      <c r="L19" s="37" t="n">
-        <v>0.247330919728258</v>
+        <v>0.0369</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" s="37" t="n">
-        <v>0.782479648590841</v>
+        <v>0.189</v>
       </c>
       <c r="C20" s="37" t="n">
-        <v>0.49589998730605</v>
+        <v>0.1</v>
       </c>
       <c r="D20" s="37" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="E20" s="37" t="n">
+        <v>0.126</v>
+      </c>
+      <c r="F20" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="37" t="n">
-        <v>0.919278145720976</v>
-      </c>
-      <c r="F20" s="37" t="n">
-        <v>0.93696127120142</v>
-      </c>
       <c r="G20" s="37" t="n">
-        <v>0.140986001067181</v>
+        <v>0.899</v>
       </c>
       <c r="H20" s="37" t="n">
-        <v>0.100143373663272</v>
+        <v>0.334</v>
       </c>
       <c r="I20" s="37" t="n">
-        <v>0.065305830080741</v>
-      </c>
-      <c r="J20" s="38" t="n">
-        <v>0.00858490908541508</v>
-      </c>
-      <c r="K20" s="37" t="n">
-        <v>0.027245153436443</v>
-      </c>
-      <c r="L20" s="37" t="n">
-        <v>0.0827129880713282</v>
+        <v>0.862</v>
+      </c>
+      <c r="J20" s="37" t="n">
+        <v>0.573</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="30" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B21" s="37" t="n">
-        <v>0.860527532024685</v>
+        <v>0.247</v>
       </c>
       <c r="C21" s="37" t="n">
-        <v>0.569165401380672</v>
+        <v>0.141</v>
       </c>
       <c r="D21" s="37" t="n">
-        <v>0.919278145720976</v>
+        <v>0.372</v>
       </c>
       <c r="E21" s="37" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="F21" s="37" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="G21" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="37" t="n">
-        <v>0.983176080002237</v>
-      </c>
-      <c r="G21" s="37" t="n">
-        <v>0.173172428425893</v>
-      </c>
       <c r="H21" s="37" t="n">
-        <v>0.126110813420478</v>
+        <v>0.294</v>
       </c>
       <c r="I21" s="37" t="n">
-        <v>0.0845423446402642</v>
+        <v>0.767</v>
       </c>
       <c r="J21" s="37" t="n">
-        <v>0.0124154571363616</v>
-      </c>
-      <c r="K21" s="37" t="n">
-        <v>0.0368705770232143</v>
-      </c>
-      <c r="L21" s="37" t="n">
-        <v>0.105581018219611</v>
+        <v>0.504</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22" s="37" t="n">
-        <v>0.845679510188673</v>
-      </c>
-      <c r="C22" s="37" t="n">
-        <v>0.558715005951011</v>
+        <v>0.0247</v>
+      </c>
+      <c r="C22" s="38" t="n">
+        <v>0.00858</v>
       </c>
       <c r="D22" s="37" t="n">
-        <v>0.93696127120142</v>
+        <v>0.0321</v>
       </c>
       <c r="E22" s="37" t="n">
-        <v>0.983176080002237</v>
+        <v>0.0124</v>
       </c>
       <c r="F22" s="37" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="G22" s="37" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="H22" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="G22" s="37" t="n">
-        <v>0.171497569852203</v>
-      </c>
-      <c r="H22" s="37" t="n">
-        <v>0.125466720983247</v>
-      </c>
       <c r="I22" s="37" t="n">
-        <v>0.0846724292622886</v>
+        <v>0.415</v>
       </c>
       <c r="J22" s="37" t="n">
-        <v>0.0129661661798297</v>
-      </c>
-      <c r="K22" s="37" t="n">
-        <v>0.0374668281879344</v>
-      </c>
-      <c r="L22" s="37" t="n">
-        <v>0.105357105314806</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="30" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B23" s="37" t="n">
-        <v>0.247102821207723</v>
+        <v>0.134</v>
       </c>
       <c r="C23" s="37" t="n">
-        <v>0.372193112464921</v>
+        <v>0.0653</v>
       </c>
       <c r="D23" s="37" t="n">
-        <v>0.140986001067181</v>
+        <v>0.203</v>
       </c>
       <c r="E23" s="37" t="n">
-        <v>0.173172428425893</v>
+        <v>0.0845</v>
       </c>
       <c r="F23" s="37" t="n">
-        <v>0.171497569852203</v>
+        <v>0.862</v>
       </c>
       <c r="G23" s="37" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="H23" s="37" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="I23" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="H23" s="37" t="n">
-        <v>0.899228063480899</v>
-      </c>
-      <c r="I23" s="37" t="n">
-        <v>0.767043279737067</v>
-      </c>
       <c r="J23" s="37" t="n">
-        <v>0.293768338770775</v>
-      </c>
-      <c r="K23" s="37" t="n">
-        <v>0.503816606491465</v>
-      </c>
-      <c r="L23" s="37" t="n">
-        <v>0.84428477092991</v>
+        <v>0.687</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="30" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B24" s="37" t="n">
-        <v>0.188678920519769</v>
+        <v>0.0639</v>
       </c>
       <c r="C24" s="37" t="n">
-        <v>0.287320483839445</v>
+        <v>0.0272</v>
       </c>
       <c r="D24" s="37" t="n">
-        <v>0.100143373663272</v>
+        <v>0.0933</v>
       </c>
       <c r="E24" s="37" t="n">
-        <v>0.126110813420478</v>
+        <v>0.0369</v>
       </c>
       <c r="F24" s="37" t="n">
-        <v>0.125466720983247</v>
+        <v>0.573</v>
       </c>
       <c r="G24" s="37" t="n">
-        <v>0.899228063480899</v>
+        <v>0.504</v>
       </c>
       <c r="H24" s="37" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="I24" s="37" t="n">
+        <v>0.687</v>
+      </c>
+      <c r="J24" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="37" t="n">
-        <v>0.861951470829309</v>
-      </c>
-      <c r="J24" s="37" t="n">
-        <v>0.334283129136246</v>
-      </c>
-      <c r="K24" s="37" t="n">
-        <v>0.572556107403261</v>
-      </c>
-      <c r="L24" s="37" t="n">
-        <v>0.943790118641581</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="37" t="n">
-        <v>0.133534414972666</v>
-      </c>
-      <c r="C25" s="37" t="n">
-        <v>0.203031022405904</v>
-      </c>
-      <c r="D25" s="37" t="n">
-        <v>0.065305830080741</v>
-      </c>
-      <c r="E25" s="37" t="n">
-        <v>0.0845423446402642</v>
-      </c>
-      <c r="F25" s="37" t="n">
-        <v>0.0846724292622886</v>
-      </c>
-      <c r="G25" s="37" t="n">
-        <v>0.767043279737067</v>
-      </c>
-      <c r="H25" s="37" t="n">
-        <v>0.861951470829309</v>
-      </c>
-      <c r="I25" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" s="37" t="n">
-        <v>0.415095566094501</v>
-      </c>
-      <c r="K25" s="37" t="n">
-        <v>0.686609758608552</v>
-      </c>
-      <c r="L25" s="37" t="n">
-        <v>0.916405547310892</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B26" s="37" t="n">
-        <v>0.0247248784644662</v>
-      </c>
-      <c r="C26" s="37" t="n">
-        <v>0.0320950448749731</v>
-      </c>
-      <c r="D26" s="38" t="n">
-        <v>0.00858490908541508</v>
-      </c>
-      <c r="E26" s="37" t="n">
-        <v>0.0124154571363616</v>
-      </c>
-      <c r="F26" s="37" t="n">
-        <v>0.0129661661798297</v>
-      </c>
-      <c r="G26" s="37" t="n">
-        <v>0.293768338770775</v>
-      </c>
-      <c r="H26" s="37" t="n">
-        <v>0.334283129136246</v>
-      </c>
-      <c r="I26" s="37" t="n">
-        <v>0.415095566094501</v>
-      </c>
-      <c r="J26" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" s="37" t="n">
-        <v>0.695659319592635</v>
-      </c>
-      <c r="L26" s="37" t="n">
-        <v>0.360227836965591</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="37" t="n">
-        <v>0.0638594258001617</v>
-      </c>
-      <c r="C27" s="37" t="n">
-        <v>0.0933498184951495</v>
-      </c>
-      <c r="D27" s="37" t="n">
-        <v>0.027245153436443</v>
-      </c>
-      <c r="E27" s="37" t="n">
-        <v>0.0368705770232143</v>
-      </c>
-      <c r="F27" s="37" t="n">
-        <v>0.0374668281879344</v>
-      </c>
-      <c r="G27" s="37" t="n">
-        <v>0.503816606491465</v>
-      </c>
-      <c r="H27" s="37" t="n">
-        <v>0.572556107403261</v>
-      </c>
-      <c r="I27" s="37" t="n">
-        <v>0.686609758608552</v>
-      </c>
-      <c r="J27" s="37" t="n">
-        <v>0.695659319592635</v>
-      </c>
-      <c r="K27" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" s="37" t="n">
-        <v>0.61404212613652</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="37" t="n">
-        <v>0.162148452369083</v>
-      </c>
-      <c r="C28" s="37" t="n">
-        <v>0.247330919728258</v>
-      </c>
-      <c r="D28" s="37" t="n">
-        <v>0.0827129880713282</v>
-      </c>
-      <c r="E28" s="37" t="n">
-        <v>0.105581018219611</v>
-      </c>
-      <c r="F28" s="37" t="n">
-        <v>0.105357105314806</v>
-      </c>
-      <c r="G28" s="37" t="n">
-        <v>0.84428477092991</v>
-      </c>
-      <c r="H28" s="37" t="n">
-        <v>0.943790118641581</v>
-      </c>
-      <c r="I28" s="37" t="n">
-        <v>0.916405547310892</v>
-      </c>
-      <c r="J28" s="37" t="n">
-        <v>0.360227836965591</v>
-      </c>
-      <c r="K28" s="37" t="n">
-        <v>0.61404212613652</v>
-      </c>
-      <c r="L28" s="37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A14:J14"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/benchmarks/summary_seq.xlsx
+++ b/benchmarks/summary_seq.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="69">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -175,6 +175,42 @@
   </si>
   <si>
     <t xml:space="preserve">142.7**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SRtest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6997.2*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4379.6**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4198.7**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4359.9**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4213.5**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4142.2**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4466.4**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4464.5**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4227**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4447.3**</t>
   </si>
   <si>
     <r>
@@ -244,6 +280,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pairwise t-test p-values on TS1reducedWC dataset results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairwise t-test p-values on SRtest dataset results</t>
   </si>
 </sst>
 </file>
@@ -600,12 +639,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ35"/>
+  <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="S42" activeCellId="0" sqref="S42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2507,62 +2546,668 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="27" t="s">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
+      <c r="B32" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="11" t="n">
+        <f aca="false">ROUND(2*D35*D38/(D35+D38),3)</f>
+        <v>0.735</v>
+      </c>
+      <c r="E32" s="11" t="n">
+        <f aca="false">ROUND(2*E35*E38/(E35+E38),3)</f>
+        <v>0.777</v>
+      </c>
+      <c r="F32" s="11" t="n">
+        <f aca="false">ROUND(2*F35*F38/(F35+F38),3)</f>
+        <v>0.77</v>
+      </c>
+      <c r="G32" s="11" t="n">
+        <f aca="false">ROUND(2*G35*G38/(G35+G38),3)</f>
+        <v>0.736</v>
+      </c>
+      <c r="H32" s="11" t="n">
+        <f aca="false">ROUND(2*H35*H38/(H35+H38),3)</f>
+        <v>0.788</v>
+      </c>
+      <c r="I32" s="11" t="n">
+        <f aca="false">ROUND(2*I35*I38/(I35+I38),3)</f>
+        <v>0.8</v>
+      </c>
+      <c r="J32" s="11" t="n">
+        <f aca="false">ROUND(2*J35*J38/(J35+J38),3)</f>
+        <v>0.747</v>
+      </c>
+      <c r="K32" s="12" t="n">
+        <f aca="false">ROUND(2*K35*K38/(K35+K38),3)</f>
+        <v>0.678</v>
+      </c>
+      <c r="L32" s="11" t="n">
+        <f aca="false">ROUND(2*L35*L38/(L35+L38),3)</f>
+        <v>0.657</v>
+      </c>
+      <c r="M32" s="11" t="n">
+        <f aca="false">ROUND(2*M35*M38/(M35+M38),3)</f>
+        <v>0.682</v>
+      </c>
+      <c r="N32" s="12" t="n">
+        <f aca="false">ROUND(2*N35*N38/(N35+N38),3)</f>
+        <v>0.749</v>
+      </c>
+      <c r="O32" s="11" t="n">
+        <f aca="false">ROUND(2*O35*O38/(O35+O38),3)</f>
+        <v>0.718</v>
+      </c>
+      <c r="P32" s="13" t="n">
+        <f aca="false">ROUND(2*P35*P38/(P35+P38),3)</f>
+        <v>0.74</v>
+      </c>
+      <c r="Q32" s="11" t="n">
+        <f aca="false">ROUND(2*Q35*Q38/(Q35+Q38),3)</f>
+        <v>0.781</v>
+      </c>
+      <c r="R32" s="11" t="n">
+        <f aca="false">ROUND(2*R35*R38/(R35+R38),3)</f>
+        <v>0.741</v>
+      </c>
+      <c r="S32" s="13" t="n">
+        <f aca="false">ROUND(2*S35*S38/(S35+S38),3)</f>
+        <v>0.763</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="11" t="n">
+        <f aca="false">ROUND(2*D36*D39/(D36+D39),3)</f>
+        <v>0.728</v>
+      </c>
+      <c r="E33" s="11" t="n">
+        <f aca="false">ROUND(2*E36*E39/(E36+E39),3)</f>
+        <v>0.771</v>
+      </c>
+      <c r="F33" s="11" t="n">
+        <f aca="false">ROUND(2*F36*F39/(F36+F39),3)</f>
+        <v>0.796</v>
+      </c>
+      <c r="G33" s="11" t="n">
+        <f aca="false">ROUND(2*G36*G39/(G36+G39),3)</f>
+        <v>0.731</v>
+      </c>
+      <c r="H33" s="11" t="n">
+        <f aca="false">ROUND(2*H36*H39/(H36+H39),3)</f>
+        <v>0.78</v>
+      </c>
+      <c r="I33" s="11" t="n">
+        <f aca="false">ROUND(2*I36*I39/(I36+I39),3)</f>
+        <v>0.801</v>
+      </c>
+      <c r="J33" s="11" t="n">
+        <f aca="false">ROUND(2*J36*J39/(J36+J39),3)</f>
+        <v>0.824</v>
+      </c>
+      <c r="K33" s="12" t="n">
+        <f aca="false">ROUND(2*K36*K39/(K36+K39),3)</f>
+        <v>0.673</v>
+      </c>
+      <c r="L33" s="11" t="n">
+        <f aca="false">ROUND(2*L36*L39/(L36+L39),3)</f>
+        <v>0.66</v>
+      </c>
+      <c r="M33" s="11" t="n">
+        <f aca="false">ROUND(2*M36*M39/(M36+M39),3)</f>
+        <v>0.675</v>
+      </c>
+      <c r="N33" s="12" t="n">
+        <f aca="false">ROUND(2*N36*N39/(N36+N39),3)</f>
+        <v>0.752</v>
+      </c>
+      <c r="O33" s="11" t="n">
+        <f aca="false">ROUND(2*O36*O39/(O36+O39),3)</f>
+        <v>0.723</v>
+      </c>
+      <c r="P33" s="13" t="n">
+        <f aca="false">ROUND(2*P36*P39/(P36+P39),3)</f>
+        <v>0.746</v>
+      </c>
+      <c r="Q33" s="11" t="n">
+        <f aca="false">ROUND(2*Q36*Q39/(Q36+Q39),3)</f>
+        <v>0.786</v>
+      </c>
+      <c r="R33" s="11" t="n">
+        <f aca="false">ROUND(2*R36*R39/(R36+R39),3)</f>
+        <v>0.751</v>
+      </c>
+      <c r="S33" s="13" t="n">
+        <f aca="false">ROUND(2*S36*S39/(S36+S39),3)</f>
+        <v>0.786</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="11" t="n">
+        <f aca="false">ROUND(2*D37*D40/(D37+D40),3)</f>
+        <v>0.751</v>
+      </c>
+      <c r="E34" s="11" t="n">
+        <f aca="false">ROUND(2*E37*E40/(E37+E40),3)</f>
+        <v>0.79</v>
+      </c>
+      <c r="F34" s="11" t="n">
+        <f aca="false">ROUND(2*F37*F40/(F37+F40),3)</f>
+        <v>0.757</v>
+      </c>
+      <c r="G34" s="11" t="n">
+        <f aca="false">ROUND(2*G37*G40/(G37+G40),3)</f>
+        <v>0.752</v>
+      </c>
+      <c r="H34" s="11" t="n">
+        <f aca="false">ROUND(2*H37*H40/(H37+H40),3)</f>
+        <v>0.807</v>
+      </c>
+      <c r="I34" s="11" t="n">
+        <f aca="false">ROUND(2*I37*I40/(I37+I40),3)</f>
+        <v>0.805</v>
+      </c>
+      <c r="J34" s="11" t="n">
+        <f aca="false">ROUND(2*J37*J40/(J37+J40),3)</f>
+        <v>0.691</v>
+      </c>
+      <c r="K34" s="12" t="n">
+        <f aca="false">ROUND(2*K37*K40/(K37+K40),3)</f>
+        <v>0.687</v>
+      </c>
+      <c r="L34" s="11" t="n">
+        <f aca="false">ROUND(2*L37*L40/(L37+L40),3)</f>
+        <v>0.662</v>
+      </c>
+      <c r="M34" s="11" t="n">
+        <f aca="false">ROUND(2*M37*M40/(M37+M40),3)</f>
+        <v>0.694</v>
+      </c>
+      <c r="N34" s="12" t="n">
+        <f aca="false">ROUND(2*N37*N40/(N37+N40),3)</f>
+        <v>0.751</v>
+      </c>
+      <c r="O34" s="11" t="n">
+        <f aca="false">ROUND(2*O37*O40/(O37+O40),3)</f>
+        <v>0.72</v>
+      </c>
+      <c r="P34" s="13" t="n">
+        <f aca="false">ROUND(2*P37*P40/(P37+P40),3)</f>
+        <v>0.74</v>
+      </c>
+      <c r="Q34" s="11" t="n">
+        <f aca="false">ROUND(2*Q37*Q40/(Q37+Q40),3)</f>
+        <v>0.78</v>
+      </c>
+      <c r="R34" s="11" t="n">
+        <f aca="false">ROUND(2*R37*R40/(R37+R40),3)</f>
+        <v>0.739</v>
+      </c>
+      <c r="S34" s="13" t="n">
+        <f aca="false">ROUND(2*S37*S40/(S37+S40),3)</f>
+        <v>0.749</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8"/>
+      <c r="B35" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="16" t="n">
+        <v>0.689</v>
+      </c>
+      <c r="E35" s="16" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="F35" s="16" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="G35" s="16" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="H35" s="16" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="I35" s="16" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="J35" s="16" t="n">
+        <v>0.692</v>
+      </c>
+      <c r="K35" s="17" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="L35" s="16" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="M35" s="16" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="N35" s="17" t="n">
+        <v>0.689</v>
+      </c>
+      <c r="O35" s="16" t="n">
+        <v>0.666</v>
+      </c>
+      <c r="P35" s="15" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="Q35" s="16" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="R35" s="16" t="n">
+        <v>0.694</v>
+      </c>
+      <c r="S35" s="15" t="n">
+        <v>0.706</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="18" t="n">
+        <v>0.668</v>
+      </c>
+      <c r="E36" s="18" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="F36" s="18" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="G36" s="18" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="H36" s="18" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="I36" s="18" t="n">
+        <v>0.764</v>
+      </c>
+      <c r="J36" s="18" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="K36" s="19" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="L36" s="18" t="n">
+        <v>0.607</v>
+      </c>
+      <c r="M36" s="18" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="N36" s="19" t="n">
+        <v>0.688</v>
+      </c>
+      <c r="O36" s="18" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="P36" s="10" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="Q36" s="18" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="R36" s="18" t="n">
+        <v>0.697</v>
+      </c>
+      <c r="S36" s="10" t="n">
+        <v>0.724</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="20" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E37" s="20" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="F37" s="20" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="G37" s="20" t="n">
+        <v>0.716</v>
+      </c>
+      <c r="H37" s="20" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="I37" s="20" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="J37" s="20" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="K37" s="21" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="L37" s="20" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="M37" s="20" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="N37" s="21" t="n">
+        <v>0.691</v>
+      </c>
+      <c r="O37" s="20" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="P37" s="8" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="Q37" s="20" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="R37" s="20" t="n">
+        <v>0.692</v>
+      </c>
+      <c r="S37" s="8" t="n">
+        <v>0.689</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="18" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="E38" s="18" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F38" s="18" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G38" s="18" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="H38" s="18" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="I38" s="18" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="J38" s="18" t="n">
+        <v>0.812</v>
+      </c>
+      <c r="K38" s="19" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="L38" s="18" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="M38" s="18" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="N38" s="19" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="O38" s="18" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="P38" s="10" t="n">
+        <v>0.812</v>
+      </c>
+      <c r="Q38" s="18" t="n">
+        <v>0.843</v>
+      </c>
+      <c r="R38" s="18" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="S38" s="10" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="18" t="n">
+        <v>0.799</v>
+      </c>
+      <c r="E39" s="18" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="F39" s="18" t="n">
+        <v>0.837</v>
+      </c>
+      <c r="G39" s="18" t="n">
+        <v>0.795</v>
+      </c>
+      <c r="H39" s="18" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="I39" s="18" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="J39" s="18" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="K39" s="19" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="L39" s="18" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="M39" s="18" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="N39" s="19" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="O39" s="18" t="n">
+        <v>0.797</v>
+      </c>
+      <c r="P39" s="10" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="Q39" s="18" t="n">
+        <v>0.853</v>
+      </c>
+      <c r="R39" s="18" t="n">
+        <v>0.815</v>
+      </c>
+      <c r="S39" s="10" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="18" t="n">
+        <v>0.796</v>
+      </c>
+      <c r="E40" s="18" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="F40" s="18" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="G40" s="18" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="H40" s="18" t="n">
+        <v>0.847</v>
+      </c>
+      <c r="I40" s="18" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="J40" s="18" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="K40" s="19" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="L40" s="18" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="M40" s="18" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="N40" s="19" t="n">
+        <v>0.822</v>
+      </c>
+      <c r="O40" s="18" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="P40" s="10" t="n">
+        <v>0.811</v>
+      </c>
+      <c r="Q40" s="18" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="R40" s="18" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="S40" s="10" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8"/>
+      <c r="B41" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="22"/>
+      <c r="D41" s="23" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E41" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-    </row>
-    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="28" t="s">
+      <c r="F41" s="23" t="n">
+        <v>11062.2</v>
+      </c>
+      <c r="G41" s="23" t="n">
+        <v>14839.5</v>
+      </c>
+      <c r="H41" s="23" t="n">
+        <v>16635.8</v>
+      </c>
+      <c r="I41" s="23" t="n">
+        <v>275.8</v>
+      </c>
+      <c r="J41" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
+      <c r="K41" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="L41" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="M41" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="N41" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="O41" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="P41" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q41" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="R41" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="S41" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+    </row>
+    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="23">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
@@ -2578,9 +3223,14 @@
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J34"/>
-    <mergeCell ref="A35:J35"/>
+    <mergeCell ref="A32:A41"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A43:J44"/>
+    <mergeCell ref="A45:J45"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2597,10 +3247,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2959,66 +3609,163 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27" t="s">
+    <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
+      <c r="B10" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="32" t="n">
+        <f aca="false">ROUND(2*D11*D12/(D11+D12),3)</f>
+        <v>0.735</v>
+      </c>
+      <c r="E10" s="32" t="n">
+        <f aca="false">ROUND(2*E11*E12/(E11+E12),3)</f>
+        <v>0.736</v>
+      </c>
+      <c r="F10" s="32" t="n">
+        <f aca="false">ROUND(2*F11*F12/(F11+F12),3)</f>
+        <v>0.77</v>
+      </c>
+      <c r="G10" s="32" t="n">
+        <f aca="false">ROUND(2*G11*G12/(G11+G12),3)</f>
+        <v>0.678</v>
+      </c>
+      <c r="H10" s="32" t="n">
+        <f aca="false">ROUND(2*H11*H12/(H11+H12),3)</f>
+        <v>0.788</v>
+      </c>
+      <c r="I10" s="33" t="n">
+        <f aca="false">ROUND(2*I11*I12/(I11+I12),3)</f>
+        <v>0.777</v>
+      </c>
+      <c r="J10" s="32" t="n">
+        <f aca="false">ROUND(2*J11*J12/(J11+J12),3)</f>
+        <v>0.747</v>
+      </c>
+      <c r="K10" s="32" t="n">
+        <f aca="false">ROUND(2*K11*K12/(K11+K12),3)</f>
+        <v>0.8</v>
+      </c>
+      <c r="L10" s="32" t="n">
+        <f aca="false">ROUND(2*L11*L12/(L11+L12),3)</f>
+        <v>0.749</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="26" t="n">
+        <v>0.689</v>
+      </c>
+      <c r="E11" s="26" t="n">
+        <v>0.696</v>
+      </c>
+      <c r="F11" s="26" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="G11" s="26" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="H11" s="26" t="n">
+        <v>0.747</v>
+      </c>
+      <c r="I11" s="26" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="J11" s="26" t="n">
+        <v>0.692</v>
+      </c>
+      <c r="K11" s="34" t="n">
+        <v>0.771</v>
+      </c>
+      <c r="L11" s="26" t="n">
+        <v>0.689</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8"/>
+      <c r="B12" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="26" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="E12" s="26" t="n">
+        <v>0.782</v>
+      </c>
+      <c r="F12" s="26" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G12" s="26" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="H12" s="26" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="I12" s="34" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J12" s="26" t="n">
+        <v>0.812</v>
+      </c>
+      <c r="K12" s="26" t="n">
+        <v>0.832</v>
+      </c>
+      <c r="L12" s="26" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8"/>
+      <c r="B13" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="26" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E13" s="23" t="n">
+        <v>14839.5</v>
+      </c>
+      <c r="F13" s="26" t="n">
+        <v>11062.2</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" s="26" t="n">
+        <v>16635.8</v>
+      </c>
+      <c r="I13" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="28" t="s">
+      <c r="J13" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27"/>
+      <c r="K13" s="26" t="n">
+        <v>275.8</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="27" t="s">
+        <v>63</v>
+      </c>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -3030,8 +3777,10 @@
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27"/>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="27" t="s">
+        <v>64</v>
+      </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27"/>
@@ -3057,7 +3806,9 @@
       <c r="K16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="28"/>
+      <c r="A17" s="28" t="s">
+        <v>65</v>
+      </c>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
       <c r="D17" s="28"/>
@@ -3069,18 +3820,72 @@
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
     </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+      <c r="K19" s="27"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A11:K12"/>
-    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="A14:K14"/>
     <mergeCell ref="A15:K16"/>
     <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K20"/>
+    <mergeCell ref="A21:K21"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3097,10 +3902,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:J29"/>
+  <dimension ref="A2:J36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P17" activeCellId="0" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3117,7 +3922,7 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="36" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -3451,7 +4256,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="36" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -3783,16 +4588,345 @@
         <v>1</v>
       </c>
     </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="37" t="n">
+        <v>0.848973358361249</v>
+      </c>
+      <c r="D28" s="37" t="n">
+        <v>0.507367092104473</v>
+      </c>
+      <c r="E28" s="37" t="n">
+        <v>0.03123012517705</v>
+      </c>
+      <c r="F28" s="37" t="n">
+        <v>0.0229306082719001</v>
+      </c>
+      <c r="G28" s="37" t="n">
+        <v>0.0133126932207983</v>
+      </c>
+      <c r="H28" s="37" t="n">
+        <v>0.221334002191258</v>
+      </c>
+      <c r="I28" s="37" t="n">
+        <v>0.0274567250189596</v>
+      </c>
+      <c r="J28" s="37" t="n">
+        <v>0.119022470262446</v>
+      </c>
+    </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
+      <c r="A29" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="37" t="n">
+        <v>0.848973358361249</v>
+      </c>
+      <c r="C29" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" s="37" t="n">
+        <v>0.388217818824895</v>
+      </c>
+      <c r="E29" s="37" t="n">
+        <v>0.050739975984328</v>
+      </c>
+      <c r="F29" s="37" t="n">
+        <v>0.014085108237189</v>
+      </c>
+      <c r="G29" s="38" t="n">
+        <v>0.00804933148563199</v>
+      </c>
+      <c r="H29" s="37" t="n">
+        <v>0.15583298477466</v>
+      </c>
+      <c r="I29" s="37" t="n">
+        <v>0.0169608709947225</v>
+      </c>
+      <c r="J29" s="37" t="n">
+        <v>0.0808951501671293</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="37" t="n">
+        <v>0.507367092104473</v>
+      </c>
+      <c r="C30" s="37" t="n">
+        <v>0.388217818824895</v>
+      </c>
+      <c r="D30" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="38" t="n">
+        <v>0.00308700997333877</v>
+      </c>
+      <c r="F30" s="37" t="n">
+        <v>0.0728698266317521</v>
+      </c>
+      <c r="G30" s="37" t="n">
+        <v>0.0430670848936678</v>
+      </c>
+      <c r="H30" s="37" t="n">
+        <v>0.539708968104826</v>
+      </c>
+      <c r="I30" s="37" t="n">
+        <v>0.0866275024767056</v>
+      </c>
+      <c r="J30" s="37" t="n">
+        <v>0.314971805289597</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="37" t="n">
+        <v>0.03123012517705</v>
+      </c>
+      <c r="C31" s="37" t="n">
+        <v>0.050739975984328</v>
+      </c>
+      <c r="D31" s="38" t="n">
+        <v>0.00308700997333877</v>
+      </c>
+      <c r="E31" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="38" t="n">
+        <v>7.97161929141333E-006</v>
+      </c>
+      <c r="G31" s="38" t="n">
+        <v>4.00845400498945E-006</v>
+      </c>
+      <c r="H31" s="38" t="n">
+        <v>0.000435313144433052</v>
+      </c>
+      <c r="I31" s="38" t="n">
+        <v>1.00389993023491E-005</v>
+      </c>
+      <c r="J31" s="38" t="n">
+        <v>0.00016467704202946</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="37" t="n">
+        <v>0.0229306082719001</v>
+      </c>
+      <c r="C32" s="37" t="n">
+        <v>0.014085108237189</v>
+      </c>
+      <c r="D32" s="37" t="n">
+        <v>0.0728698266317521</v>
+      </c>
+      <c r="E32" s="38" t="n">
+        <v>7.97161929141333E-006</v>
+      </c>
+      <c r="F32" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="37" t="n">
+        <v>0.780091496869379</v>
+      </c>
+      <c r="H32" s="37" t="n">
+        <v>0.222730512516052</v>
+      </c>
+      <c r="I32" s="37" t="n">
+        <v>0.921741382980974</v>
+      </c>
+      <c r="J32" s="37" t="n">
+        <v>0.448950760775816</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="37" t="n">
+        <v>0.0133126932207983</v>
+      </c>
+      <c r="C33" s="38" t="n">
+        <v>0.00804933148563199</v>
+      </c>
+      <c r="D33" s="37" t="n">
+        <v>0.0430670848936678</v>
+      </c>
+      <c r="E33" s="38" t="n">
+        <v>4.00845400498945E-006</v>
+      </c>
+      <c r="F33" s="37" t="n">
+        <v>0.780091496869379</v>
+      </c>
+      <c r="G33" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="37" t="n">
+        <v>0.141821789335532</v>
+      </c>
+      <c r="I33" s="37" t="n">
+        <v>0.705938291774445</v>
+      </c>
+      <c r="J33" s="37" t="n">
+        <v>0.311768097602081</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="37" t="n">
+        <v>0.221334002191258</v>
+      </c>
+      <c r="C34" s="37" t="n">
+        <v>0.15583298477466</v>
+      </c>
+      <c r="D34" s="37" t="n">
+        <v>0.539708968104826</v>
+      </c>
+      <c r="E34" s="38" t="n">
+        <v>0.000435313144433052</v>
+      </c>
+      <c r="F34" s="37" t="n">
+        <v>0.222730512516052</v>
+      </c>
+      <c r="G34" s="37" t="n">
+        <v>0.141821789335532</v>
+      </c>
+      <c r="H34" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="37" t="n">
+        <v>0.257772524516285</v>
+      </c>
+      <c r="J34" s="37" t="n">
+        <v>0.67153071400451</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="37" t="n">
+        <v>0.0274567250189596</v>
+      </c>
+      <c r="C35" s="37" t="n">
+        <v>0.0169608709947225</v>
+      </c>
+      <c r="D35" s="37" t="n">
+        <v>0.0866275024767056</v>
+      </c>
+      <c r="E35" s="38" t="n">
+        <v>1.00389993023491E-005</v>
+      </c>
+      <c r="F35" s="37" t="n">
+        <v>0.921741382980974</v>
+      </c>
+      <c r="G35" s="37" t="n">
+        <v>0.705938291774445</v>
+      </c>
+      <c r="H35" s="37" t="n">
+        <v>0.257772524516285</v>
+      </c>
+      <c r="I35" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" s="37" t="n">
+        <v>0.504136978018822</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="37" t="n">
+        <v>0.119022470262446</v>
+      </c>
+      <c r="C36" s="37" t="n">
+        <v>0.0808951501671293</v>
+      </c>
+      <c r="D36" s="37" t="n">
+        <v>0.314971805289597</v>
+      </c>
+      <c r="E36" s="38" t="n">
+        <v>0.00016467704202946</v>
+      </c>
+      <c r="F36" s="37" t="n">
+        <v>0.448950760775816</v>
+      </c>
+      <c r="G36" s="37" t="n">
+        <v>0.311768097602081</v>
+      </c>
+      <c r="H36" s="37" t="n">
+        <v>0.67153071400451</v>
+      </c>
+      <c r="I36" s="37" t="n">
+        <v>0.504136978018822</v>
+      </c>
+      <c r="J36" s="37" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A26:J26"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/benchmarks/summary_seq.xlsx
+++ b/benchmarks/summary_seq.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="68">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -279,9 +279,6 @@
     <t xml:space="preserve">Pairwise t-test p-values on SRtrain dataset results</t>
   </si>
   <si>
-    <t xml:space="preserve">Pairwise t-test p-values on TS1reducedWC dataset results</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pairwise t-test p-values on SRtest dataset results</t>
   </si>
 </sst>
@@ -294,7 +291,7 @@
     <numFmt numFmtId="165" formatCode="General"/>
     <numFmt numFmtId="166" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -337,6 +334,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -465,7 +467,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -614,6 +616,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -641,7 +647,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="S42" activeCellId="0" sqref="S42"/>
@@ -3249,7 +3255,7 @@
   </sheetPr>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -3902,10 +3908,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:J36"/>
+  <dimension ref="A2:J24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P17" activeCellId="0" sqref="P17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3973,282 +3979,282 @@
       <c r="B4" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="37" t="n">
-        <v>0.958</v>
-      </c>
-      <c r="D4" s="37" t="n">
-        <v>0.715</v>
-      </c>
-      <c r="E4" s="37" t="n">
-        <v>0.474</v>
-      </c>
-      <c r="F4" s="37" t="n">
-        <v>0.295</v>
-      </c>
-      <c r="G4" s="38" t="n">
-        <v>0.00443</v>
-      </c>
-      <c r="H4" s="38" t="n">
-        <v>0.00428</v>
-      </c>
-      <c r="I4" s="38" t="n">
-        <v>0.00324</v>
-      </c>
-      <c r="J4" s="38" t="n">
-        <v>4.75E-006</v>
+      <c r="C4" s="38" t="n">
+        <v>0.825056106155969</v>
+      </c>
+      <c r="D4" s="38" t="n">
+        <v>0.547050793234204</v>
+      </c>
+      <c r="E4" s="38" t="n">
+        <v>0.330248006717779</v>
+      </c>
+      <c r="F4" s="39" t="n">
+        <v>0.000741348613713737</v>
+      </c>
+      <c r="G4" s="39" t="n">
+        <v>2.74779539986889E-010</v>
+      </c>
+      <c r="H4" s="39" t="n">
+        <v>5.78189668291744E-005</v>
+      </c>
+      <c r="I4" s="39" t="n">
+        <v>2.38800918716911E-005</v>
+      </c>
+      <c r="J4" s="39" t="n">
+        <v>1.58671247528098E-009</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="37" t="n">
-        <v>0.958</v>
+      <c r="B5" s="38" t="n">
+        <v>0.825056106155969</v>
       </c>
       <c r="C5" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="37" t="n">
-        <v>0.754</v>
-      </c>
-      <c r="E5" s="37" t="n">
-        <v>0.504</v>
-      </c>
-      <c r="F5" s="37" t="n">
-        <v>0.315</v>
-      </c>
-      <c r="G5" s="38" t="n">
-        <v>0.00467</v>
-      </c>
-      <c r="H5" s="38" t="n">
-        <v>0.00449</v>
-      </c>
-      <c r="I5" s="38" t="n">
-        <v>0.00339</v>
-      </c>
-      <c r="J5" s="38" t="n">
-        <v>4.34E-006</v>
+      <c r="D5" s="38" t="n">
+        <v>0.6030018888302</v>
+      </c>
+      <c r="E5" s="38" t="n">
+        <v>0.371883865814741</v>
+      </c>
+      <c r="F5" s="39" t="n">
+        <v>0.000206947586002925</v>
+      </c>
+      <c r="G5" s="39" t="n">
+        <v>1.42721596695857E-008</v>
+      </c>
+      <c r="H5" s="39" t="n">
+        <v>8.49598676698526E-005</v>
+      </c>
+      <c r="I5" s="39" t="n">
+        <v>4.87085435180318E-005</v>
+      </c>
+      <c r="J5" s="39" t="n">
+        <v>2.80011049875116E-009</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="37" t="n">
-        <v>0.715</v>
-      </c>
-      <c r="C6" s="37" t="n">
-        <v>0.754</v>
+      <c r="B6" s="38" t="n">
+        <v>0.547050793234204</v>
+      </c>
+      <c r="C6" s="38" t="n">
+        <v>0.6030018888302</v>
       </c>
       <c r="D6" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="E6" s="37" t="n">
-        <v>0.706</v>
-      </c>
-      <c r="F6" s="37" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="G6" s="38" t="n">
-        <v>0.00717</v>
-      </c>
-      <c r="H6" s="38" t="n">
-        <v>0.00684</v>
-      </c>
-      <c r="I6" s="38" t="n">
-        <v>0.0051</v>
-      </c>
-      <c r="J6" s="38" t="n">
-        <v>3.69E-006</v>
+      <c r="E6" s="38" t="n">
+        <v>0.590984424915559</v>
+      </c>
+      <c r="F6" s="38" t="n">
+        <v>0.211074460341933</v>
+      </c>
+      <c r="G6" s="39" t="n">
+        <v>7.32431536336934E-006</v>
+      </c>
+      <c r="H6" s="39" t="n">
+        <v>4.94700728480052E-005</v>
+      </c>
+      <c r="I6" s="39" t="n">
+        <v>0.000244780818201033</v>
+      </c>
+      <c r="J6" s="39" t="n">
+        <v>1.3508113997757E-009</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="37" t="n">
-        <v>0.474</v>
-      </c>
-      <c r="C7" s="37" t="n">
-        <v>0.504</v>
-      </c>
-      <c r="D7" s="37" t="n">
-        <v>0.706</v>
+      <c r="B7" s="38" t="n">
+        <v>0.330248006717779</v>
+      </c>
+      <c r="C7" s="38" t="n">
+        <v>0.371883865814741</v>
+      </c>
+      <c r="D7" s="38" t="n">
+        <v>0.590984424915559</v>
       </c>
       <c r="E7" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="F7" s="37" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="G7" s="37" t="n">
-        <v>0.0196</v>
-      </c>
-      <c r="H7" s="37" t="n">
-        <v>0.0197</v>
-      </c>
-      <c r="I7" s="37" t="n">
-        <v>0.0153</v>
-      </c>
-      <c r="J7" s="38" t="n">
-        <v>2.24E-005</v>
+      <c r="F7" s="38" t="n">
+        <v>0.596275186741779</v>
+      </c>
+      <c r="G7" s="39" t="n">
+        <v>0.00061464809551622</v>
+      </c>
+      <c r="H7" s="39" t="n">
+        <v>0.0022359004905094</v>
+      </c>
+      <c r="I7" s="39" t="n">
+        <v>0.000996491478897129</v>
+      </c>
+      <c r="J7" s="39" t="n">
+        <v>5.90443768498086E-013</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="37" t="n">
-        <v>0.295</v>
-      </c>
-      <c r="C8" s="37" t="n">
-        <v>0.315</v>
-      </c>
-      <c r="D8" s="37" t="n">
-        <v>0.456</v>
-      </c>
-      <c r="E8" s="37" t="n">
-        <v>0.7</v>
+      <c r="B8" s="39" t="n">
+        <v>0.000741348613713737</v>
+      </c>
+      <c r="C8" s="39" t="n">
+        <v>0.000206947586002925</v>
+      </c>
+      <c r="D8" s="38" t="n">
+        <v>0.211074460341933</v>
+      </c>
+      <c r="E8" s="38" t="n">
+        <v>0.596275186741779</v>
       </c>
       <c r="F8" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="G8" s="37" t="n">
-        <v>0.0627</v>
-      </c>
-      <c r="H8" s="37" t="n">
-        <v>0.0669</v>
-      </c>
-      <c r="I8" s="37" t="n">
-        <v>0.0551</v>
-      </c>
-      <c r="J8" s="38" t="n">
-        <v>0.000339</v>
+      <c r="G8" s="39" t="n">
+        <v>1.95353903480938E-005</v>
+      </c>
+      <c r="H8" s="39" t="n">
+        <v>0.00864882564889614</v>
+      </c>
+      <c r="I8" s="39" t="n">
+        <v>0.00741446031374418</v>
+      </c>
+      <c r="J8" s="39" t="n">
+        <v>1.28786677876714E-006</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="38" t="n">
-        <v>0.00443</v>
-      </c>
-      <c r="C9" s="38" t="n">
-        <v>0.00467</v>
-      </c>
-      <c r="D9" s="38" t="n">
-        <v>0.00717</v>
-      </c>
-      <c r="E9" s="37" t="n">
-        <v>0.0196</v>
-      </c>
-      <c r="F9" s="37" t="n">
-        <v>0.0627</v>
+      <c r="B9" s="39" t="n">
+        <v>2.74779539986889E-010</v>
+      </c>
+      <c r="C9" s="39" t="n">
+        <v>1.42721596695857E-008</v>
+      </c>
+      <c r="D9" s="39" t="n">
+        <v>7.32431536336934E-006</v>
+      </c>
+      <c r="E9" s="39" t="n">
+        <v>0.00061464809551622</v>
+      </c>
+      <c r="F9" s="39" t="n">
+        <v>1.95353903480938E-005</v>
       </c>
       <c r="G9" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="H9" s="37" t="n">
-        <v>0.903</v>
-      </c>
-      <c r="I9" s="37" t="n">
-        <v>0.961</v>
-      </c>
-      <c r="J9" s="37" t="n">
-        <v>0.131</v>
+      <c r="H9" s="38" t="n">
+        <v>0.87385613738863</v>
+      </c>
+      <c r="I9" s="38" t="n">
+        <v>0.946725250208035</v>
+      </c>
+      <c r="J9" s="38" t="n">
+        <v>0.0267436576641036</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="38" t="n">
-        <v>0.00428</v>
-      </c>
-      <c r="C10" s="38" t="n">
-        <v>0.00449</v>
-      </c>
-      <c r="D10" s="38" t="n">
-        <v>0.00684</v>
-      </c>
-      <c r="E10" s="37" t="n">
-        <v>0.0197</v>
-      </c>
-      <c r="F10" s="37" t="n">
-        <v>0.0669</v>
-      </c>
-      <c r="G10" s="37" t="n">
-        <v>0.903</v>
+      <c r="B10" s="39" t="n">
+        <v>5.78189668291744E-005</v>
+      </c>
+      <c r="C10" s="39" t="n">
+        <v>8.49598676698526E-005</v>
+      </c>
+      <c r="D10" s="39" t="n">
+        <v>4.94700728480052E-005</v>
+      </c>
+      <c r="E10" s="39" t="n">
+        <v>0.0022359004905094</v>
+      </c>
+      <c r="F10" s="39" t="n">
+        <v>0.00864882564889614</v>
+      </c>
+      <c r="G10" s="38" t="n">
+        <v>0.87385613738863</v>
       </c>
       <c r="H10" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="37" t="n">
-        <v>0.938</v>
-      </c>
-      <c r="J10" s="37" t="n">
-        <v>0.078</v>
+      <c r="I10" s="38" t="n">
+        <v>0.912682564490699</v>
+      </c>
+      <c r="J10" s="38" t="n">
+        <v>0.0176966186095214</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="38" t="n">
-        <v>0.00324</v>
-      </c>
-      <c r="C11" s="38" t="n">
-        <v>0.00339</v>
-      </c>
-      <c r="D11" s="38" t="n">
-        <v>0.0051</v>
-      </c>
-      <c r="E11" s="37" t="n">
-        <v>0.0153</v>
-      </c>
-      <c r="F11" s="37" t="n">
-        <v>0.0551</v>
-      </c>
-      <c r="G11" s="37" t="n">
-        <v>0.961</v>
-      </c>
-      <c r="H11" s="37" t="n">
-        <v>0.938</v>
+      <c r="B11" s="39" t="n">
+        <v>2.38800918716911E-005</v>
+      </c>
+      <c r="C11" s="39" t="n">
+        <v>4.87085435180318E-005</v>
+      </c>
+      <c r="D11" s="39" t="n">
+        <v>0.000244780818201033</v>
+      </c>
+      <c r="E11" s="39" t="n">
+        <v>0.000996491478897129</v>
+      </c>
+      <c r="F11" s="39" t="n">
+        <v>0.00741446031374418</v>
+      </c>
+      <c r="G11" s="38" t="n">
+        <v>0.946725250208035</v>
+      </c>
+      <c r="H11" s="38" t="n">
+        <v>0.912682564490699</v>
       </c>
       <c r="I11" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="J11" s="37" t="n">
-        <v>0.0899</v>
+      <c r="J11" s="38" t="n">
+        <v>0.0141109135296563</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="38" t="n">
-        <v>4.75E-006</v>
-      </c>
-      <c r="C12" s="38" t="n">
-        <v>4.34E-006</v>
-      </c>
-      <c r="D12" s="38" t="n">
-        <v>3.69E-006</v>
-      </c>
-      <c r="E12" s="38" t="n">
-        <v>2.24E-005</v>
-      </c>
-      <c r="F12" s="38" t="n">
-        <v>0.000339</v>
-      </c>
-      <c r="G12" s="37" t="n">
-        <v>0.131</v>
-      </c>
-      <c r="H12" s="37" t="n">
-        <v>0.078</v>
-      </c>
-      <c r="I12" s="37" t="n">
-        <v>0.0899</v>
+      <c r="B12" s="39" t="n">
+        <v>1.58671247528098E-009</v>
+      </c>
+      <c r="C12" s="39" t="n">
+        <v>2.80011049875116E-009</v>
+      </c>
+      <c r="D12" s="39" t="n">
+        <v>1.3508113997757E-009</v>
+      </c>
+      <c r="E12" s="39" t="n">
+        <v>5.90443768498086E-013</v>
+      </c>
+      <c r="F12" s="39" t="n">
+        <v>1.28786677876714E-006</v>
+      </c>
+      <c r="G12" s="38" t="n">
+        <v>0.0267436576641036</v>
+      </c>
+      <c r="H12" s="38" t="n">
+        <v>0.0176966186095214</v>
+      </c>
+      <c r="I12" s="38" t="n">
+        <v>0.0141109135296563</v>
       </c>
       <c r="J12" s="37" t="n">
         <v>1</v>
@@ -4270,7 +4276,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>3</v>
@@ -4307,626 +4313,291 @@
       <c r="B16" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="C16" s="37" t="n">
-        <v>0.782</v>
-      </c>
-      <c r="D16" s="37" t="n">
-        <v>0.711</v>
-      </c>
-      <c r="E16" s="37" t="n">
-        <v>0.861</v>
-      </c>
-      <c r="F16" s="37" t="n">
-        <v>0.189</v>
-      </c>
-      <c r="G16" s="37" t="n">
-        <v>0.247</v>
-      </c>
-      <c r="H16" s="37" t="n">
-        <v>0.0247</v>
-      </c>
-      <c r="I16" s="37" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="J16" s="37" t="n">
-        <v>0.0639</v>
+      <c r="C16" s="38" t="n">
+        <v>0.707779361441396</v>
+      </c>
+      <c r="D16" s="38" t="n">
+        <v>0.299775189750085</v>
+      </c>
+      <c r="E16" s="39" t="n">
+        <v>0.00236894347641103</v>
+      </c>
+      <c r="F16" s="39" t="n">
+        <v>0.00016761311597529</v>
+      </c>
+      <c r="G16" s="39" t="n">
+        <v>1.13801692535942E-008</v>
+      </c>
+      <c r="H16" s="38" t="n">
+        <v>0.108238201241849</v>
+      </c>
+      <c r="I16" s="39" t="n">
+        <v>0.00081946727849225</v>
+      </c>
+      <c r="J16" s="38" t="n">
+        <v>0.0113410716121258</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="37" t="n">
-        <v>0.782</v>
+      <c r="B17" s="38" t="n">
+        <v>0.707779361441396</v>
       </c>
       <c r="C17" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="37" t="n">
-        <v>0.496</v>
-      </c>
-      <c r="E17" s="37" t="n">
-        <v>0.919</v>
-      </c>
-      <c r="F17" s="37" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G17" s="37" t="n">
-        <v>0.141</v>
+      <c r="D17" s="38" t="n">
+        <v>0.180582986810607</v>
+      </c>
+      <c r="E17" s="39" t="n">
+        <v>0.00972548435781771</v>
+      </c>
+      <c r="F17" s="39" t="n">
+        <v>4.19232339747835E-008</v>
+      </c>
+      <c r="G17" s="39" t="n">
+        <v>1.73605657249104E-006</v>
       </c>
       <c r="H17" s="38" t="n">
-        <v>0.00858</v>
-      </c>
-      <c r="I17" s="37" t="n">
-        <v>0.0653</v>
-      </c>
-      <c r="J17" s="37" t="n">
-        <v>0.0272</v>
+        <v>0.0690288071197872</v>
+      </c>
+      <c r="I17" s="39" t="n">
+        <v>0.000677921331967057</v>
+      </c>
+      <c r="J17" s="38" t="n">
+        <v>0.0112553203700022</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="37" t="n">
-        <v>0.711</v>
-      </c>
-      <c r="C18" s="37" t="n">
-        <v>0.496</v>
+      <c r="B18" s="38" t="n">
+        <v>0.299775189750085</v>
+      </c>
+      <c r="C18" s="38" t="n">
+        <v>0.180582986810607</v>
       </c>
       <c r="D18" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="37" t="n">
-        <v>0.569</v>
-      </c>
-      <c r="F18" s="37" t="n">
-        <v>0.287</v>
-      </c>
-      <c r="G18" s="37" t="n">
-        <v>0.372</v>
-      </c>
-      <c r="H18" s="37" t="n">
-        <v>0.0321</v>
-      </c>
-      <c r="I18" s="37" t="n">
-        <v>0.203</v>
-      </c>
-      <c r="J18" s="37" t="n">
-        <v>0.0933</v>
+      <c r="E18" s="39" t="n">
+        <v>7.75719461822258E-005</v>
+      </c>
+      <c r="F18" s="39" t="n">
+        <v>0.00597333470827791</v>
+      </c>
+      <c r="G18" s="39" t="n">
+        <v>0.00209196367799523</v>
+      </c>
+      <c r="H18" s="38" t="n">
+        <v>0.367272354556104</v>
+      </c>
+      <c r="I18" s="38" t="n">
+        <v>0.0216288416786179</v>
+      </c>
+      <c r="J18" s="38" t="n">
+        <v>0.117037143767219</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="37" t="n">
-        <v>0.861</v>
-      </c>
-      <c r="C19" s="37" t="n">
-        <v>0.919</v>
-      </c>
-      <c r="D19" s="37" t="n">
-        <v>0.569</v>
+      <c r="B19" s="39" t="n">
+        <v>0.00236894347641103</v>
+      </c>
+      <c r="C19" s="39" t="n">
+        <v>0.00972548435781771</v>
+      </c>
+      <c r="D19" s="39" t="n">
+        <v>7.75719461822258E-005</v>
       </c>
       <c r="E19" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="F19" s="37" t="n">
-        <v>0.126</v>
-      </c>
-      <c r="G19" s="37" t="n">
-        <v>0.173</v>
-      </c>
-      <c r="H19" s="37" t="n">
-        <v>0.0124</v>
-      </c>
-      <c r="I19" s="37" t="n">
-        <v>0.0845</v>
-      </c>
-      <c r="J19" s="37" t="n">
-        <v>0.0369</v>
+      <c r="F19" s="39" t="n">
+        <v>2.04674016729417E-008</v>
+      </c>
+      <c r="G19" s="39" t="n">
+        <v>7.50301049649642E-011</v>
+      </c>
+      <c r="H19" s="39" t="n">
+        <v>5.89449762146534E-007</v>
+      </c>
+      <c r="I19" s="39" t="n">
+        <v>7.37391086187274E-009</v>
+      </c>
+      <c r="J19" s="39" t="n">
+        <v>1.03616308802601E-013</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="37" t="n">
-        <v>0.189</v>
-      </c>
-      <c r="C20" s="37" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D20" s="37" t="n">
-        <v>0.287</v>
-      </c>
-      <c r="E20" s="37" t="n">
-        <v>0.126</v>
+      <c r="B20" s="39" t="n">
+        <v>0.00016761311597529</v>
+      </c>
+      <c r="C20" s="39" t="n">
+        <v>4.19232339747835E-008</v>
+      </c>
+      <c r="D20" s="39" t="n">
+        <v>0.00597333470827791</v>
+      </c>
+      <c r="E20" s="39" t="n">
+        <v>2.04674016729417E-008</v>
       </c>
       <c r="F20" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="G20" s="37" t="n">
-        <v>0.899</v>
-      </c>
-      <c r="H20" s="37" t="n">
-        <v>0.334</v>
-      </c>
-      <c r="I20" s="37" t="n">
-        <v>0.862</v>
-      </c>
-      <c r="J20" s="37" t="n">
-        <v>0.573</v>
+      <c r="G20" s="38" t="n">
+        <v>0.632742121575845</v>
+      </c>
+      <c r="H20" s="38" t="n">
+        <v>0.102783614502268</v>
+      </c>
+      <c r="I20" s="38" t="n">
+        <v>0.893053155760723</v>
+      </c>
+      <c r="J20" s="38" t="n">
+        <v>0.274403388217056</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="37" t="n">
-        <v>0.247</v>
-      </c>
-      <c r="C21" s="37" t="n">
-        <v>0.141</v>
-      </c>
-      <c r="D21" s="37" t="n">
-        <v>0.372</v>
-      </c>
-      <c r="E21" s="37" t="n">
-        <v>0.173</v>
-      </c>
-      <c r="F21" s="37" t="n">
-        <v>0.899</v>
+      <c r="B21" s="39" t="n">
+        <v>1.13801692535942E-008</v>
+      </c>
+      <c r="C21" s="39" t="n">
+        <v>1.73605657249104E-006</v>
+      </c>
+      <c r="D21" s="39" t="n">
+        <v>0.00209196367799523</v>
+      </c>
+      <c r="E21" s="39" t="n">
+        <v>7.50301049649642E-011</v>
+      </c>
+      <c r="F21" s="38" t="n">
+        <v>0.632742121575845</v>
       </c>
       <c r="G21" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="H21" s="37" t="n">
-        <v>0.294</v>
-      </c>
-      <c r="I21" s="37" t="n">
-        <v>0.767</v>
-      </c>
-      <c r="J21" s="37" t="n">
-        <v>0.504</v>
+      <c r="H21" s="38" t="n">
+        <v>0.0421987071858469</v>
+      </c>
+      <c r="I21" s="38" t="n">
+        <v>0.516917631190503</v>
+      </c>
+      <c r="J21" s="38" t="n">
+        <v>0.0727368654028347</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="37" t="n">
-        <v>0.0247</v>
+      <c r="B22" s="38" t="n">
+        <v>0.108238201241849</v>
       </c>
       <c r="C22" s="38" t="n">
-        <v>0.00858</v>
-      </c>
-      <c r="D22" s="37" t="n">
-        <v>0.0321</v>
-      </c>
-      <c r="E22" s="37" t="n">
-        <v>0.0124</v>
-      </c>
-      <c r="F22" s="37" t="n">
-        <v>0.334</v>
-      </c>
-      <c r="G22" s="37" t="n">
-        <v>0.294</v>
+        <v>0.0690288071197872</v>
+      </c>
+      <c r="D22" s="38" t="n">
+        <v>0.367272354556104</v>
+      </c>
+      <c r="E22" s="39" t="n">
+        <v>5.89449762146534E-007</v>
+      </c>
+      <c r="F22" s="38" t="n">
+        <v>0.102783614502268</v>
+      </c>
+      <c r="G22" s="38" t="n">
+        <v>0.0421987071858469</v>
       </c>
       <c r="H22" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="I22" s="37" t="n">
-        <v>0.415</v>
-      </c>
-      <c r="J22" s="37" t="n">
-        <v>0.696</v>
+      <c r="I22" s="38" t="n">
+        <v>0.101300907301628</v>
+      </c>
+      <c r="J22" s="38" t="n">
+        <v>0.469288244407294</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="37" t="n">
-        <v>0.134</v>
-      </c>
-      <c r="C23" s="37" t="n">
-        <v>0.0653</v>
-      </c>
-      <c r="D23" s="37" t="n">
-        <v>0.203</v>
-      </c>
-      <c r="E23" s="37" t="n">
-        <v>0.0845</v>
-      </c>
-      <c r="F23" s="37" t="n">
-        <v>0.862</v>
-      </c>
-      <c r="G23" s="37" t="n">
-        <v>0.767</v>
-      </c>
-      <c r="H23" s="37" t="n">
-        <v>0.415</v>
+      <c r="B23" s="39" t="n">
+        <v>0.00081946727849225</v>
+      </c>
+      <c r="C23" s="39" t="n">
+        <v>0.000677921331967057</v>
+      </c>
+      <c r="D23" s="38" t="n">
+        <v>0.0216288416786179</v>
+      </c>
+      <c r="E23" s="39" t="n">
+        <v>7.37391086187274E-009</v>
+      </c>
+      <c r="F23" s="38" t="n">
+        <v>0.893053155760723</v>
+      </c>
+      <c r="G23" s="38" t="n">
+        <v>0.516917631190503</v>
+      </c>
+      <c r="H23" s="38" t="n">
+        <v>0.101300907301628</v>
       </c>
       <c r="I23" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="J23" s="37" t="n">
-        <v>0.687</v>
+      <c r="J23" s="38" t="n">
+        <v>0.334623693240288</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="37" t="n">
-        <v>0.0639</v>
-      </c>
-      <c r="C24" s="37" t="n">
-        <v>0.0272</v>
-      </c>
-      <c r="D24" s="37" t="n">
-        <v>0.0933</v>
-      </c>
-      <c r="E24" s="37" t="n">
-        <v>0.0369</v>
-      </c>
-      <c r="F24" s="37" t="n">
-        <v>0.573</v>
-      </c>
-      <c r="G24" s="37" t="n">
-        <v>0.504</v>
-      </c>
-      <c r="H24" s="37" t="n">
-        <v>0.696</v>
-      </c>
-      <c r="I24" s="37" t="n">
-        <v>0.687</v>
+      <c r="B24" s="38" t="n">
+        <v>0.0113410716121258</v>
+      </c>
+      <c r="C24" s="38" t="n">
+        <v>0.0112553203700022</v>
+      </c>
+      <c r="D24" s="38" t="n">
+        <v>0.117037143767219</v>
+      </c>
+      <c r="E24" s="39" t="n">
+        <v>1.03616308802601E-013</v>
+      </c>
+      <c r="F24" s="38" t="n">
+        <v>0.274403388217056</v>
+      </c>
+      <c r="G24" s="38" t="n">
+        <v>0.0727368654028347</v>
+      </c>
+      <c r="H24" s="38" t="n">
+        <v>0.469288244407294</v>
+      </c>
+      <c r="I24" s="38" t="n">
+        <v>0.334623693240288</v>
       </c>
       <c r="J24" s="37" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="J27" s="30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="37" t="n">
-        <v>0.848973358361249</v>
-      </c>
-      <c r="D28" s="37" t="n">
-        <v>0.507367092104473</v>
-      </c>
-      <c r="E28" s="37" t="n">
-        <v>0.03123012517705</v>
-      </c>
-      <c r="F28" s="37" t="n">
-        <v>0.0229306082719001</v>
-      </c>
-      <c r="G28" s="37" t="n">
-        <v>0.0133126932207983</v>
-      </c>
-      <c r="H28" s="37" t="n">
-        <v>0.221334002191258</v>
-      </c>
-      <c r="I28" s="37" t="n">
-        <v>0.0274567250189596</v>
-      </c>
-      <c r="J28" s="37" t="n">
-        <v>0.119022470262446</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="37" t="n">
-        <v>0.848973358361249</v>
-      </c>
-      <c r="C29" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="D29" s="37" t="n">
-        <v>0.388217818824895</v>
-      </c>
-      <c r="E29" s="37" t="n">
-        <v>0.050739975984328</v>
-      </c>
-      <c r="F29" s="37" t="n">
-        <v>0.014085108237189</v>
-      </c>
-      <c r="G29" s="38" t="n">
-        <v>0.00804933148563199</v>
-      </c>
-      <c r="H29" s="37" t="n">
-        <v>0.15583298477466</v>
-      </c>
-      <c r="I29" s="37" t="n">
-        <v>0.0169608709947225</v>
-      </c>
-      <c r="J29" s="37" t="n">
-        <v>0.0808951501671293</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="37" t="n">
-        <v>0.507367092104473</v>
-      </c>
-      <c r="C30" s="37" t="n">
-        <v>0.388217818824895</v>
-      </c>
-      <c r="D30" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="38" t="n">
-        <v>0.00308700997333877</v>
-      </c>
-      <c r="F30" s="37" t="n">
-        <v>0.0728698266317521</v>
-      </c>
-      <c r="G30" s="37" t="n">
-        <v>0.0430670848936678</v>
-      </c>
-      <c r="H30" s="37" t="n">
-        <v>0.539708968104826</v>
-      </c>
-      <c r="I30" s="37" t="n">
-        <v>0.0866275024767056</v>
-      </c>
-      <c r="J30" s="37" t="n">
-        <v>0.314971805289597</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B31" s="37" t="n">
-        <v>0.03123012517705</v>
-      </c>
-      <c r="C31" s="37" t="n">
-        <v>0.050739975984328</v>
-      </c>
-      <c r="D31" s="38" t="n">
-        <v>0.00308700997333877</v>
-      </c>
-      <c r="E31" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="38" t="n">
-        <v>7.97161929141333E-006</v>
-      </c>
-      <c r="G31" s="38" t="n">
-        <v>4.00845400498945E-006</v>
-      </c>
-      <c r="H31" s="38" t="n">
-        <v>0.000435313144433052</v>
-      </c>
-      <c r="I31" s="38" t="n">
-        <v>1.00389993023491E-005</v>
-      </c>
-      <c r="J31" s="38" t="n">
-        <v>0.00016467704202946</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="37" t="n">
-        <v>0.0229306082719001</v>
-      </c>
-      <c r="C32" s="37" t="n">
-        <v>0.014085108237189</v>
-      </c>
-      <c r="D32" s="37" t="n">
-        <v>0.0728698266317521</v>
-      </c>
-      <c r="E32" s="38" t="n">
-        <v>7.97161929141333E-006</v>
-      </c>
-      <c r="F32" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="37" t="n">
-        <v>0.780091496869379</v>
-      </c>
-      <c r="H32" s="37" t="n">
-        <v>0.222730512516052</v>
-      </c>
-      <c r="I32" s="37" t="n">
-        <v>0.921741382980974</v>
-      </c>
-      <c r="J32" s="37" t="n">
-        <v>0.448950760775816</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="37" t="n">
-        <v>0.0133126932207983</v>
-      </c>
-      <c r="C33" s="38" t="n">
-        <v>0.00804933148563199</v>
-      </c>
-      <c r="D33" s="37" t="n">
-        <v>0.0430670848936678</v>
-      </c>
-      <c r="E33" s="38" t="n">
-        <v>4.00845400498945E-006</v>
-      </c>
-      <c r="F33" s="37" t="n">
-        <v>0.780091496869379</v>
-      </c>
-      <c r="G33" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="H33" s="37" t="n">
-        <v>0.141821789335532</v>
-      </c>
-      <c r="I33" s="37" t="n">
-        <v>0.705938291774445</v>
-      </c>
-      <c r="J33" s="37" t="n">
-        <v>0.311768097602081</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="37" t="n">
-        <v>0.221334002191258</v>
-      </c>
-      <c r="C34" s="37" t="n">
-        <v>0.15583298477466</v>
-      </c>
-      <c r="D34" s="37" t="n">
-        <v>0.539708968104826</v>
-      </c>
-      <c r="E34" s="38" t="n">
-        <v>0.000435313144433052</v>
-      </c>
-      <c r="F34" s="37" t="n">
-        <v>0.222730512516052</v>
-      </c>
-      <c r="G34" s="37" t="n">
-        <v>0.141821789335532</v>
-      </c>
-      <c r="H34" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" s="37" t="n">
-        <v>0.257772524516285</v>
-      </c>
-      <c r="J34" s="37" t="n">
-        <v>0.67153071400451</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="37" t="n">
-        <v>0.0274567250189596</v>
-      </c>
-      <c r="C35" s="37" t="n">
-        <v>0.0169608709947225</v>
-      </c>
-      <c r="D35" s="37" t="n">
-        <v>0.0866275024767056</v>
-      </c>
-      <c r="E35" s="38" t="n">
-        <v>1.00389993023491E-005</v>
-      </c>
-      <c r="F35" s="37" t="n">
-        <v>0.921741382980974</v>
-      </c>
-      <c r="G35" s="37" t="n">
-        <v>0.705938291774445</v>
-      </c>
-      <c r="H35" s="37" t="n">
-        <v>0.257772524516285</v>
-      </c>
-      <c r="I35" s="37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" s="37" t="n">
-        <v>0.504136978018822</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="37" t="n">
-        <v>0.119022470262446</v>
-      </c>
-      <c r="C36" s="37" t="n">
-        <v>0.0808951501671293</v>
-      </c>
-      <c r="D36" s="37" t="n">
-        <v>0.314971805289597</v>
-      </c>
-      <c r="E36" s="38" t="n">
-        <v>0.00016467704202946</v>
-      </c>
-      <c r="F36" s="37" t="n">
-        <v>0.448950760775816</v>
-      </c>
-      <c r="G36" s="37" t="n">
-        <v>0.311768097602081</v>
-      </c>
-      <c r="H36" s="37" t="n">
-        <v>0.67153071400451</v>
-      </c>
-      <c r="I36" s="37" t="n">
-        <v>0.504136978018822</v>
-      </c>
-      <c r="J36" s="37" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A26:J26"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
